--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="513" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C7F5E97-70A4-4306-B2D6-89711235B687}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3424C633-4CD5-4BF7-AB53-98F0E61A9DAA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
   <sheets>
     <sheet name="WatchList" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -394,7 +394,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -405,18 +405,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
       <fill>
@@ -448,7 +436,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -464,13 +455,22 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -614,11 +614,11 @@
     <v>4</v>
     <v>182.94</v>
     <v>129.04</v>
-    <v>1.1897</v>
-    <v>3.39</v>
-    <v>5.6470000000000001E-4</v>
-    <v>2.4517000000000001E-2</v>
-    <v>0.08</v>
+    <v>1.1966000000000001</v>
+    <v>0</v>
+    <v>1.7649999999999999E-3</v>
+    <v>0</v>
+    <v>0.25</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
@@ -626,25 +626,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>141.91</v>
+    <v>143.49</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44736.999989721873</v>
+    <v>44739.961055995314</v>
     <v>0</v>
-    <v>139.77000000000001</v>
-    <v>2292793000000</v>
+    <v>140.965</v>
+    <v>2292792598800</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>139.9</v>
-    <v>22.475200000000001</v>
-    <v>138.27000000000001</v>
+    <v>142.69499999999999</v>
+    <v>23.026199999999999</v>
     <v>141.66</v>
-    <v>141.74</v>
+    <v>141.66</v>
+    <v>141.91</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>89116837</v>
-    <v>93614233</v>
+    <v>70170814</v>
+    <v>92789191</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -669,29 +669,29 @@
     <v>42.18</v>
     <v>30.04</v>
     <v>3.0623999999999998</v>
-    <v>0.92</v>
-    <v>4.6719999999999999E-3</v>
-    <v>2.7585999999999999E-2</v>
-    <v>0.16009999999999999</v>
+    <v>0.53</v>
+    <v>0</v>
+    <v>1.5465E-2</v>
+    <v>0</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>34.520000000000003</v>
+    <v>35.180999999999997</v>
     <v>ETF</v>
-    <v>44737.000000034372</v>
+    <v>44739.937500034372</v>
     <v>3</v>
-    <v>33.56</v>
+    <v>34.4</v>
     <v>6879973740.8900003</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>33.83</v>
-    <v>33.35</v>
+    <v>34.61</v>
     <v>34.270000000000003</v>
-    <v>34.430100000000003</v>
+    <v>34.799999999999997</v>
+    <v>34.799999999999997</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>3558119</v>
-    <v>3433990</v>
+    <v>2348671</v>
+    <v>3474352</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -716,14 +716,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>303.72000000000003</v>
     <v>220</v>
-    <v>0.45350000000000001</v>
-    <v>3.34</v>
-    <v>-8.9809999999999994E-3</v>
-    <v>1.2929999999999999E-2</v>
-    <v>-2.35</v>
+    <v>0.46089999999999998</v>
+    <v>-2.3199999999999998</v>
+    <v>-1.2339999999999999E-3</v>
+    <v>-8.8669999999999999E-3</v>
+    <v>-0.32</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
@@ -731,25 +731,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116 US</v>
-    <v>262.13</v>
+    <v>264.08999999999997</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44736.958333378905</v>
+    <v>44739.947364687498</v>
     <v>7</v>
-    <v>256.58</v>
-    <v>121588074709</v>
+    <v>258.14</v>
+    <v>120509976742</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>260.76</v>
-    <v>44.688899999999997</v>
-    <v>258.31</v>
+    <v>262.23</v>
+    <v>45.266800000000003</v>
     <v>261.64999999999998</v>
-    <v>259.3</v>
+    <v>259.33</v>
+    <v>259.01</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>3131490</v>
-    <v>2536247</v>
+    <v>2018915</v>
+    <v>2596548</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -770,14 +770,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>973.16</v>
     <v>575.6</v>
-    <v>1.2562</v>
-    <v>23.07</v>
-    <v>-2.748E-3</v>
-    <v>3.6928999999999997E-2</v>
-    <v>-1.78</v>
+    <v>1.2642</v>
+    <v>-10.86</v>
+    <v>1.11E-2</v>
+    <v>-1.6765000000000002E-2</v>
+    <v>7.07</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
@@ -785,25 +785,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>648.34</v>
+    <v>652.75</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44736.996616689059</v>
+    <v>44739.949852568752</v>
     <v>10</v>
-    <v>632.17010000000005</v>
-    <v>98140807674</v>
+    <v>633.86</v>
+    <v>96495481836</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>632.44000000000005</v>
-    <v>15.695</v>
-    <v>624.71</v>
+    <v>650</v>
+    <v>16.2746</v>
     <v>647.78</v>
-    <v>646</v>
+    <v>636.91999999999996</v>
+    <v>643.99</v>
     <v>151503300</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>1013796</v>
-    <v>1052507</v>
+    <v>637176</v>
+    <v>1054365</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -824,14 +824,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>254.99</v>
     <v>182.66</v>
-    <v>0.91210000000000002</v>
-    <v>5.73</v>
-    <v>-2.5773000000000001E-2</v>
-    <v>2.6453999999999998E-2</v>
-    <v>-5.73</v>
+    <v>0.92069999999999996</v>
+    <v>1.17</v>
+    <v>5.8170000000000001E-3</v>
+    <v>5.2620000000000002E-3</v>
+    <v>1.3</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
@@ -839,25 +839,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>222.72499999999999</v>
+    <v>226.24760000000001</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44736.986556782031</v>
+    <v>44739.937500022657</v>
     <v>13</v>
-    <v>216.91</v>
-    <v>61742174883</v>
+    <v>222.08</v>
+    <v>62067089850</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>217.43</v>
-    <v>18.549399999999999</v>
-    <v>216.6</v>
+    <v>223.07</v>
+    <v>19.040099999999999</v>
     <v>222.33</v>
-    <v>216.6</v>
+    <v>223.5</v>
+    <v>224.8</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>1675582</v>
-    <v>1449697</v>
+    <v>1277122</v>
+    <v>1439553</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -878,14 +878,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>3030.9315000000001</v>
     <v>2037.6936000000001</v>
-    <v>1.0834999999999999</v>
-    <v>114.66</v>
-    <v>4.662E-4</v>
-    <v>5.1077000000000004E-2</v>
-    <v>1.1000000000000001</v>
+    <v>1.0881000000000001</v>
+    <v>-42.83</v>
+    <v>1.573E-3</v>
+    <v>-1.8151999999999998E-2</v>
+    <v>3.645</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -893,25 +893,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2361.58</v>
+    <v>2371.59</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44736.999998853906</v>
+    <v>44739.950395601561</v>
     <v>16</v>
-    <v>2259.0500000000002</v>
-    <v>1481000000000</v>
+    <v>2303.5936999999999</v>
+    <v>1557259000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2259.9</v>
-    <v>20.3062</v>
-    <v>2244.84</v>
+    <v>2365.46</v>
+    <v>21.343399999999999</v>
     <v>2359.5</v>
-    <v>2360.6</v>
+    <v>2316.67</v>
+    <v>2320.3150000000001</v>
     <v>658499900</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>2058184</v>
-    <v>1975703</v>
+    <v>1820245</v>
+    <v>1987778</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -935,11 +935,11 @@
     <v>4</v>
     <v>420.61</v>
     <v>264.51</v>
-    <v>0.9849</v>
-    <v>7.58</v>
-    <v>-7.0669999999999999E-4</v>
-    <v>2.7522000000000001E-2</v>
-    <v>-0.2</v>
+    <v>0.98319999999999996</v>
+    <v>-0.53</v>
+    <v>1.7690000000000002E-4</v>
+    <v>-1.8729999999999999E-3</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
@@ -947,25 +947,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, 2455 PACES FERRY ROAD, ATLANTA, GA, 30339-4024 US</v>
-    <v>283.45999999999998</v>
+    <v>285</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44736.999886828125</v>
+    <v>44739.957064953123</v>
     <v>19</v>
-    <v>273.92</v>
-    <v>290854665000</v>
+    <v>281.49</v>
+    <v>290309954850</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>277.47000000000003</v>
-    <v>17.4834</v>
-    <v>275.42</v>
+    <v>284.45999999999998</v>
+    <v>17.964600000000001</v>
     <v>283</v>
-    <v>282.8</v>
+    <v>282.47000000000003</v>
+    <v>282.74</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>10310737</v>
-    <v>4699470</v>
+    <v>2538558</v>
+    <v>4799918</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -989,11 +989,11 @@
     <v>4</v>
     <v>172.96</v>
     <v>111.48</v>
-    <v>1.1387</v>
-    <v>3.4</v>
-    <v>-1.023E-3</v>
-    <v>2.9845999999999998E-2</v>
-    <v>-0.12</v>
+    <v>1.1329</v>
+    <v>-0.92</v>
+    <v>1.89E-3</v>
+    <v>-7.842E-3</v>
+    <v>0.22</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
@@ -1001,25 +1001,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>117.82</v>
+    <v>118.5</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44736.999534964845</v>
+    <v>44739.960860474217</v>
     <v>22</v>
-    <v>112.83</v>
-    <v>344574823320</v>
+    <v>115.6417</v>
+    <v>341872736400</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>113.23</v>
-    <v>8.4537999999999993</v>
-    <v>113.92</v>
+    <v>118.06</v>
+    <v>8.7060999999999993</v>
     <v>117.32</v>
-    <v>117.2</v>
+    <v>116.4</v>
+    <v>116.6</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>14841090</v>
-    <v>13809708</v>
+    <v>11277545</v>
+    <v>13896756</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -1040,14 +1040,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>67.2</v>
     <v>52.28</v>
-    <v>0.56989999999999996</v>
-    <v>1.1599999999999999</v>
-    <v>-6.3450000000000008E-4</v>
-    <v>1.8745999999999999E-2</v>
-    <v>-0.04</v>
+    <v>0.57320000000000004</v>
+    <v>-0.13</v>
+    <v>9.5369999999999993E-4</v>
+    <v>-2.062E-3</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
@@ -1055,25 +1055,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>63.06</v>
+    <v>63.286700000000003</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44736.999808275003</v>
+    <v>44739.947859073436</v>
     <v>25</v>
-    <v>62.11</v>
-    <v>273280228160</v>
+    <v>62.63</v>
+    <v>272716674390</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>62.11</v>
-    <v>26.098800000000001</v>
-    <v>61.88</v>
+    <v>62.98</v>
+    <v>26.588000000000001</v>
     <v>63.04</v>
-    <v>63</v>
+    <v>62.91</v>
+    <v>62.97</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>18147070</v>
-    <v>20097398</v>
+    <v>12141681</v>
+    <v>19565788</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1094,14 +1094,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>479.99</v>
     <v>324.2278</v>
-    <v>0.75980000000000003</v>
-    <v>8.42</v>
-    <v>-2.2430000000000002E-3</v>
-    <v>2.0506000000000003E-2</v>
-    <v>-0.94</v>
+    <v>0.75929999999999997</v>
+    <v>0.21</v>
+    <v>5.9630000000000002E-4</v>
+    <v>5.0109999999999998E-4</v>
+    <v>0.25</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1109,25 +1109,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>419.48</v>
+    <v>423.19</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44736.985649976559</v>
+    <v>44739.949527407029</v>
     <v>28</v>
-    <v>410.68</v>
-    <v>109268800000</v>
+    <v>417.47</v>
+    <v>111565359750</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>415.84</v>
-    <v>18.131699999999999</v>
-    <v>410.62</v>
     <v>419.04</v>
-    <v>418.1</v>
+    <v>18.503499999999999</v>
+    <v>419.04</v>
+    <v>419.25</v>
+    <v>419.5</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>1767980</v>
-    <v>1351025</v>
+    <v>778196</v>
+    <v>1382268</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -1146,7 +1146,7 @@
     <v>32</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
     <v>33</v>
     <v>0</v>
@@ -1163,19 +1163,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>10</v>
+    <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
+    <v>12</v>
+    <v>13</v>
+    <v>Finance</v>
     <v>9</v>
-    <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>11</v>
-    <v>12</v>
-    <v>Finance</v>
-    <v>4</v>
     <v>263.31</v>
     <v>170.12</v>
-    <v>1.244</v>
-    <v>6.51</v>
-    <v>8.7510000000000007E-4</v>
-    <v>3.6919E-2</v>
-    <v>0.16</v>
+    <v>1.2442</v>
+    <v>1.38</v>
+    <v>4.0169999999999997E-3</v>
+    <v>7.548E-3</v>
+    <v>0.74</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1183,26 +1183,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>182.94</v>
+    <v>185.32</v>
     <v>34</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44736.988085196092</v>
+    <v>44739.937500010936</v>
     <v>35</v>
-    <v>177.13</v>
-    <v>116858309792</v>
+    <v>182.125</v>
+    <v>117740307536</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>177.76</v>
-    <v>14.3733</v>
-    <v>176.33</v>
+    <v>183</v>
+    <v>14.9039</v>
     <v>182.84</v>
-    <v>183</v>
+    <v>184.22</v>
+    <v>184.96</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>5346188</v>
-    <v>4187629</v>
+    <v>2829162</v>
+    <v>4087574</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1217,7 +1217,7 @@
     <v>38</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
     <v>39</v>
     <v>0</v>
@@ -1234,19 +1234,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>10</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>12</v>
+    <v>13</v>
+    <v>Finance</v>
     <v>9</v>
-    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>11</v>
-    <v>12</v>
-    <v>Finance</v>
-    <v>4</v>
     <v>349.67</v>
     <v>241.51</v>
-    <v>0.92920000000000003</v>
-    <v>8.84</v>
-    <v>1.8679999999999999E-3</v>
-    <v>3.415E-2</v>
-    <v>0.5</v>
+    <v>0.92869999999999997</v>
+    <v>-2.81</v>
+    <v>1.2080000000000001E-3</v>
+    <v>-1.0497000000000001E-2</v>
+    <v>0.32</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1254,26 +1254,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>267.98</v>
+    <v>268.3</v>
     <v>40</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44736.999952870312</v>
+    <v>44739.950719258595</v>
     <v>41</v>
-    <v>261.72000000000003</v>
-    <v>2002137000000</v>
+    <v>263.27999999999997</v>
+    <v>1981121051370</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>261.80799999999999</v>
-    <v>27.007200000000001</v>
-    <v>258.86</v>
+    <v>268.20499999999998</v>
+    <v>27.929500000000001</v>
     <v>267.7</v>
-    <v>268.2</v>
+    <v>264.89</v>
+    <v>265.20999999999998</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>33923231</v>
-    <v>30701502</v>
+    <v>24604081</v>
+    <v>30804192</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1294,14 +1294,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>177.62</v>
-    <v>144.61000000000001</v>
-    <v>0.57699999999999996</v>
-    <v>2.0299999999999998</v>
-    <v>-1.384E-3</v>
-    <v>1.2371E-2</v>
-    <v>-0.23</v>
+    <v>146.4</v>
+    <v>0.58360000000000001</v>
+    <v>0.22</v>
+    <v>3.5470000000000002E-3</v>
+    <v>1.3239999999999999E-3</v>
+    <v>0.59</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1309,25 +1309,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>166.19</v>
+    <v>167.13</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44736.986300497658</v>
+    <v>44739.94623186328</v>
     <v>44</v>
-    <v>163.94</v>
-    <v>229705292920</v>
+    <v>165.34</v>
+    <v>229705200000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>165.64</v>
-    <v>22.0304</v>
-    <v>164.1</v>
+    <v>165.87</v>
+    <v>22.302900000000001</v>
     <v>166.13</v>
-    <v>165.9</v>
+    <v>166.35</v>
+    <v>166.94</v>
     <v>1382684000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>5951692</v>
-    <v>5892532</v>
+    <v>4595787</v>
+    <v>5775584</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1348,14 +1348,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>171.12</v>
     <v>93.5</v>
-    <v>1.4852000000000001</v>
-    <v>2.92</v>
-    <v>1.807E-3</v>
-    <v>3.0196000000000001E-2</v>
-    <v>0.18</v>
+    <v>1.4882</v>
+    <v>0.5</v>
+    <v>4.4949999999999999E-3</v>
+    <v>5.019E-3</v>
+    <v>0.45</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -1363,25 +1363,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>100.5213</v>
+    <v>101.44</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44736.999457928127</v>
+    <v>44739.937500010936</v>
     <v>47</v>
-    <v>97.49</v>
-    <v>32738977332</v>
+    <v>98.75</v>
+    <v>32903296632</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>97.92</v>
-    <v>14.264799999999999</v>
-    <v>96.7</v>
+    <v>99.94</v>
+    <v>14.695499999999999</v>
     <v>99.62</v>
-    <v>99.8</v>
+    <v>100.12</v>
+    <v>100.57</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>4455167</v>
-    <v>2449605</v>
+    <v>1783307</v>
+    <v>2546540</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1396,7 +1396,7 @@
     <v>50</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_4c600be848f66590834841f27e6f786d&amp;qlt=95</v>
     <v>51</v>
     <v>0</v>
@@ -1413,19 +1413,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
+    <v>10</v>
+    <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
+    <v>12</v>
+    <v>13</v>
+    <v>Finance</v>
     <v>9</v>
-    <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>11</v>
-    <v>12</v>
-    <v>Finance</v>
-    <v>4</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
-    <v>1.3348</v>
-    <v>6.5</v>
-    <v>1.8929999999999999E-3</v>
-    <v>5.6521999999999996E-2</v>
-    <v>0.23</v>
+    <v>1.3313999999999999</v>
+    <v>-0.99</v>
+    <v>4.5639999999999995E-3</v>
+    <v>-8.147999999999999E-3</v>
+    <v>0.55000000000000004</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -1433,26 +1433,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>121.53</v>
+    <v>122.59</v>
     <v>52</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44736.975693842185</v>
+    <v>44739.939003807813</v>
     <v>53</v>
-    <v>115.68</v>
-    <v>27616536900</v>
+    <v>120.06</v>
+    <v>27391513266</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>116.06</v>
-    <v>9.3017000000000003</v>
-    <v>115</v>
+    <v>122</v>
+    <v>9.8274000000000008</v>
     <v>121.5</v>
-    <v>121.73</v>
+    <v>120.51</v>
+    <v>121.06</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>4002598</v>
-    <v>1730746</v>
+    <v>1664481</v>
+    <v>1828032</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1476,11 +1476,11 @@
     <v>4</v>
     <v>202.26</v>
     <v>149.1</v>
-    <v>0.98380000000000001</v>
-    <v>4.8099999999999996</v>
-    <v>3.431E-3</v>
-    <v>3.1824999999999999E-2</v>
-    <v>0.53500000000000003</v>
+    <v>0.96960000000000002</v>
+    <v>-0.33</v>
+    <v>1.2850000000000001E-4</v>
+    <v>-2.1160000000000003E-3</v>
+    <v>0.02</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
@@ -1488,25 +1488,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, P.O. BOX 660199, DALLAS, TX, 75266 US</v>
-    <v>156.13</v>
+    <v>157.62</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44736.993464617968</v>
+    <v>44739.954142812501</v>
     <v>56</v>
-    <v>152.49</v>
-    <v>143806781705</v>
+    <v>155.13</v>
+    <v>143502477518</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>153.01</v>
-    <v>17.282299999999999</v>
-    <v>151.13999999999999</v>
+    <v>156.99</v>
+    <v>17.8324</v>
     <v>155.94999999999999</v>
-    <v>156.48500000000001</v>
+    <v>155.62</v>
+    <v>155.63999999999999</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>6425872</v>
-    <v>5842497</v>
+    <v>5762349</v>
+    <v>5869644</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -1527,14 +1527,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>233.72</v>
     <v>165.34</v>
-    <v>1.1155999999999999</v>
-    <v>4.67</v>
-    <v>-3.3279999999999998E-3</v>
-    <v>2.6143E-2</v>
-    <v>-0.61</v>
+    <v>1.1324000000000001</v>
+    <v>-1.49</v>
+    <v>-8.25E-4</v>
+    <v>-8.1289999999999991E-3</v>
+    <v>-0.15</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -1542,25 +1542,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>184.62</v>
+    <v>184.96</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44736.998487372657</v>
+    <v>44739.946894664063</v>
     <v>59</v>
-    <v>180.77</v>
-    <v>160161381120</v>
+    <v>181.05</v>
+    <v>158859469184</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>180.77</v>
-    <v>14.567399999999999</v>
-    <v>178.63</v>
+    <v>184.85</v>
+    <v>14.9482</v>
     <v>183.3</v>
-    <v>182.69</v>
+    <v>181.81</v>
+    <v>181.66</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>4826547</v>
-    <v>3652678</v>
+    <v>1902444</v>
+    <v>3674728</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1584,11 +1584,11 @@
     <v>4</v>
     <v>56.85</v>
     <v>45.548900000000003</v>
-    <v>0.36799999999999999</v>
-    <v>-1.1299999999999999</v>
-    <v>-1.962E-4</v>
-    <v>-2.1692999999999997E-2</v>
-    <v>-0.01</v>
+    <v>0.39219999999999999</v>
+    <v>0.03</v>
+    <v>-9.8119999999999989E-5</v>
+    <v>5.8869999999999994E-4</v>
+    <v>-5.0000000000000001E-3</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
@@ -1596,25 +1596,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>52.15</v>
+    <v>51.49</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44736.999908240628</v>
+    <v>44739.960532187499</v>
     <v>62</v>
-    <v>50.57</v>
-    <v>214013800000</v>
+    <v>50.653300000000002</v>
+    <v>214139847560</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>52.03</v>
-    <v>10.1332</v>
-    <v>52.09</v>
+    <v>51.29</v>
+    <v>9.9133999999999993</v>
     <v>50.96</v>
-    <v>50.95</v>
+    <v>50.99</v>
+    <v>50.954999999999998</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>28490736</v>
-    <v>20119394</v>
+    <v>16973820</v>
+    <v>20364421</v>
     <v>1983</v>
   </rv>
   <rv s="2">
@@ -1924,7 +1924,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="14">
+  <spbData count="15">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1970,9 +1970,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2013,6 +2013,16 @@
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>from previous close</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
       <v>from close</v>
@@ -2028,7 +2038,7 @@
       <v>0</v>
     </spb>
     <spb s="9">
-      <v>10</v>
+      <v>11</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -2272,30 +2282,30 @@
     <tableColumn id="19" xr3:uid="{0D4021FB-72A6-4FAE-8878-F2BC7BFA553F}" name="Ticker">
       <calculatedColumnFormula>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="13">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="12">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="11">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="6">
+    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="10">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0AB95A9E-6D9E-473D-93EC-53E15CDF47CE}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="18" xr3:uid="{A931B3EF-00A4-4531-894A-E140C01F03C1}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Bond" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Bond" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="5" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2601,7 +2611,7 @@
   <dimension ref="B2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2707,7 @@
       </c>
       <c r="G3" s="7" cm="1">
         <f t="array" ref="G3">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.475200000000001</v>
+        <v>23.026199999999999</v>
       </c>
       <c r="H3" s="8">
         <v>0.92</v>
@@ -2750,7 +2760,7 @@
       </c>
       <c r="D4" s="10" cm="1">
         <f t="array" ref="D4">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>34.270000000000003</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2775,7 +2785,7 @@
       </c>
       <c r="K4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.5205719288006992E-2</v>
+        <v>8.39080459770115E-2</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>19</v>
@@ -2811,7 +2821,7 @@
       </c>
       <c r="D5" s="10" cm="1">
         <f t="array" ref="D5">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>261.64999999999998</v>
+        <v>259.33</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2823,7 +2833,7 @@
       </c>
       <c r="G5" s="7" cm="1">
         <f t="array" ref="G5">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>44.688899999999997</v>
+        <v>45.266800000000003</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2864,7 +2874,7 @@
       </c>
       <c r="D6" s="10" cm="1">
         <f t="array" ref="D6">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>647.78</v>
+        <v>636.91999999999996</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2876,7 +2886,7 @@
       </c>
       <c r="G6" s="7" cm="1">
         <f t="array" ref="G6">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>15.695</v>
+        <v>16.2746</v>
       </c>
       <c r="H6" s="8">
         <v>19.52</v>
@@ -2887,7 +2897,7 @@
       </c>
       <c r="K6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.013368736299361E-2</v>
+        <v>3.0647491050681406E-2</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>19</v>
@@ -2927,7 +2937,7 @@
       </c>
       <c r="D7" s="10" cm="1">
         <f t="array" ref="D7">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>222.33</v>
+        <v>223.5</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2939,7 +2949,7 @@
       </c>
       <c r="G7" s="7" cm="1">
         <f t="array" ref="G7">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.549399999999999</v>
+        <v>19.040099999999999</v>
       </c>
       <c r="H7" s="8">
         <v>5.04</v>
@@ -2950,7 +2960,7 @@
       </c>
       <c r="K7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2669005532316825E-2</v>
+        <v>2.2550335570469798E-2</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>19</v>
@@ -2990,7 +3000,7 @@
       </c>
       <c r="D8" s="10" cm="1">
         <f t="array" ref="D8">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>2359.5</v>
+        <v>2316.67</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3002,7 +3012,7 @@
       </c>
       <c r="G8" s="7" cm="1">
         <f t="array" ref="G8">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>20.3062</v>
+        <v>21.343399999999999</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -3015,7 +3025,7 @@
       </c>
       <c r="K8" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.2381860563678743E-2</v>
+        <v>4.3165405517402132E-2</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>13</v>
@@ -3055,7 +3065,7 @@
       </c>
       <c r="D9" s="10" cm="1">
         <f t="array" ref="D9">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>283</v>
+        <v>282.47000000000003</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3067,7 +3077,7 @@
       </c>
       <c r="G9" s="7" cm="1">
         <f t="array" ref="G9">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.4834</v>
+        <v>17.964600000000001</v>
       </c>
       <c r="H9" s="8">
         <v>7.6</v>
@@ -3078,7 +3088,7 @@
       </c>
       <c r="K9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6855123674911659E-2</v>
+        <v>2.690551208977944E-2</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>19</v>
@@ -3118,7 +3128,7 @@
       </c>
       <c r="D10" s="10" cm="1">
         <f t="array" ref="D10">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>117.32</v>
+        <v>116.4</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3130,7 +3140,7 @@
       </c>
       <c r="G10" s="7" cm="1">
         <f t="array" ref="G10">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>8.4537999999999993</v>
+        <v>8.7060999999999993</v>
       </c>
       <c r="H10" s="8">
         <v>4</v>
@@ -3141,7 +3151,7 @@
       </c>
       <c r="K10" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.4094783498124788E-2</v>
+        <v>3.4364261168384876E-2</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>19</v>
@@ -3181,7 +3191,7 @@
       </c>
       <c r="D11" s="10" cm="1">
         <f t="array" ref="D11">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>63.04</v>
+        <v>62.91</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3193,7 +3203,7 @@
       </c>
       <c r="G11" s="7" cm="1">
         <f t="array" ref="G11">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>26.098800000000001</v>
+        <v>26.588000000000001</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3234,7 +3244,7 @@
       </c>
       <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>419.04</v>
+        <v>419.25</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3246,7 +3256,7 @@
       </c>
       <c r="G12" s="7" cm="1">
         <f t="array" ref="G12">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.131699999999999</v>
+        <v>18.503499999999999</v>
       </c>
       <c r="H12" s="8">
         <v>11.2</v>
@@ -3257,7 +3267,7 @@
       </c>
       <c r="K12" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.672775868652157E-2</v>
+        <v>2.6714370900417412E-2</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>19</v>
@@ -3297,7 +3307,7 @@
       </c>
       <c r="D13" s="10" cm="1">
         <f t="array" ref="D13">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>182.84</v>
+        <v>184.22</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3309,7 +3319,7 @@
       </c>
       <c r="G13" s="7" cm="1">
         <f t="array" ref="G13">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.3733</v>
+        <v>14.9039</v>
       </c>
       <c r="H13" s="8">
         <v>4.2</v>
@@ -3320,7 +3330,7 @@
       </c>
       <c r="K13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2970903522205207E-2</v>
+        <v>2.2798827488872003E-2</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>19</v>
@@ -3360,7 +3370,7 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>267.7</v>
+        <v>264.89</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3372,7 +3382,7 @@
       </c>
       <c r="G14" s="7" cm="1">
         <f t="array" ref="G14">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>27.007200000000001</v>
+        <v>27.929500000000001</v>
       </c>
       <c r="H14" s="8">
         <v>2.48</v>
@@ -3385,7 +3395,7 @@
       </c>
       <c r="K14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.9884198729921554E-2</v>
+        <v>3.0201215598927859E-2</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>13</v>
@@ -3425,7 +3435,7 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>166.13</v>
+        <v>166.35</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3433,11 +3443,11 @@
       </c>
       <c r="F15" s="1" cm="1">
         <f t="array" ref="F15">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>144.61000000000001</v>
+        <v>146.4</v>
       </c>
       <c r="G15" s="7" cm="1">
         <f t="array" ref="G15">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.0304</v>
+        <v>22.302900000000001</v>
       </c>
       <c r="H15" s="8">
         <v>4.5999999999999996</v>
@@ -3448,7 +3458,7 @@
       </c>
       <c r="K15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7689159092277132E-2</v>
+        <v>2.765253982566877E-2</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>19</v>
@@ -3488,7 +3498,7 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>99.62</v>
+        <v>100.12</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3500,7 +3510,7 @@
       </c>
       <c r="G16" s="7" cm="1">
         <f t="array" ref="G16">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.264799999999999</v>
+        <v>14.695499999999999</v>
       </c>
       <c r="H16" s="8">
         <v>6.8</v>
@@ -3511,7 +3521,7 @@
       </c>
       <c r="K16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>6.8259385665528999E-2</v>
+        <v>6.7918497802636826E-2</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>19</v>
@@ -3551,7 +3561,7 @@
       </c>
       <c r="D17" s="10" cm="1">
         <f t="array" ref="D17">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>121.5</v>
+        <v>120.51</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3563,7 +3573,7 @@
       </c>
       <c r="G17" s="7" cm="1">
         <f t="array" ref="G17">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.3017000000000003</v>
+        <v>9.8274000000000008</v>
       </c>
       <c r="H17" s="8">
         <v>4.8</v>
@@ -3574,7 +3584,7 @@
       </c>
       <c r="K17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.9506172839506172E-2</v>
+        <v>3.9830719442369926E-2</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>19</v>
@@ -3614,7 +3624,7 @@
       </c>
       <c r="D18" s="10" cm="1">
         <f t="array" ref="D18">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>155.94999999999999</v>
+        <v>155.62</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3626,7 +3636,7 @@
       </c>
       <c r="G18" s="7" cm="1">
         <f t="array" ref="G18">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.282299999999999</v>
+        <v>17.8324</v>
       </c>
       <c r="H18" s="8">
         <v>4.5999999999999996</v>
@@ -3637,7 +3647,7 @@
       </c>
       <c r="K18" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.9496633536389868E-2</v>
+        <v>2.9559182624341342E-2</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>19</v>
@@ -3677,7 +3687,7 @@
       </c>
       <c r="D19" s="10" cm="1">
         <f t="array" ref="D19">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>183.3</v>
+        <v>181.81</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3689,7 +3699,7 @@
       </c>
       <c r="G19" s="7" cm="1">
         <f t="array" ref="G19">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.567399999999999</v>
+        <v>14.9482</v>
       </c>
       <c r="H19" s="8">
         <v>6.08</v>
@@ -3700,7 +3710,7 @@
       </c>
       <c r="K19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.3169667212220401E-2</v>
+        <v>3.3441504867719046E-2</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>19</v>
@@ -3740,7 +3750,7 @@
       </c>
       <c r="D20" s="10" cm="1">
         <f t="array" ref="D20">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>50.96</v>
+        <v>50.99</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3752,7 +3762,7 @@
       </c>
       <c r="G20" s="7" cm="1">
         <f t="array" ref="G20">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>10.1332</v>
+        <v>9.9133999999999993</v>
       </c>
       <c r="H20" s="8">
         <v>2.56</v>
@@ -3763,7 +3773,7 @@
       </c>
       <c r="K20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>5.0235478806907381E-2</v>
+        <v>5.0205922729947047E-2</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>19</v>

--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="557" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3424C633-4CD5-4BF7-AB53-98F0E61A9DAA}"/>
+  <xr:revisionPtr revIDLastSave="625" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C91C223A-12D1-4702-B4EE-BA4693861556}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
@@ -49,7 +49,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="19">
+  <futureMetadata name="XLRICHVALUE" count="20">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -183,13 +183,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="67"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="19">
+  <valueMetadata count="20">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -246,13 +253,16 @@
     </bk>
     <bk>
       <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Ticker</t>
   </si>
@@ -270,9 +280,6 @@
   </si>
   <si>
     <t>P/E</t>
-  </si>
-  <si>
-    <t>Bond</t>
   </si>
   <si>
     <t>E</t>
@@ -315,6 +322,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>DIV</t>
   </si>
 </sst>
 </file>
@@ -595,7 +608,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="65">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="68">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -614,11 +627,9 @@
     <v>4</v>
     <v>182.94</v>
     <v>129.04</v>
-    <v>1.1966000000000001</v>
-    <v>0</v>
-    <v>1.7649999999999999E-3</v>
-    <v>0</v>
-    <v>0.25</v>
+    <v>1.1950000000000001</v>
+    <v>-2.9649999999999999</v>
+    <v>-2.0930000000000001E-2</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
@@ -626,25 +637,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>143.49</v>
+    <v>143.422</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44739.961055995314</v>
+    <v>44740.735397742967</v>
     <v>0</v>
-    <v>140.965</v>
-    <v>2292792598800</v>
+    <v>138.505</v>
+    <v>2244803540100</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>142.69499999999999</v>
+    <v>142.1</v>
     <v>23.026199999999999</v>
     <v>141.66</v>
-    <v>141.66</v>
-    <v>141.91</v>
+    <v>138.69499999999999</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>70170814</v>
-    <v>92789191</v>
+    <v>37492836</v>
+    <v>90153682</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -669,29 +679,26 @@
     <v>42.18</v>
     <v>30.04</v>
     <v>3.0623999999999998</v>
-    <v>0.53</v>
-    <v>0</v>
-    <v>1.5465E-2</v>
-    <v>0</v>
+    <v>0.21</v>
+    <v>6.0340000000000003E-3</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>35.180999999999997</v>
+    <v>36.055</v>
     <v>ETF</v>
-    <v>44739.937500034372</v>
+    <v>44740.735289316406</v>
     <v>3</v>
-    <v>34.4</v>
+    <v>34.840000000000003</v>
     <v>6879973740.8900003</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>34.61</v>
-    <v>34.270000000000003</v>
+    <v>35.47</v>
     <v>34.799999999999997</v>
-    <v>34.799999999999997</v>
+    <v>35.01</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>2348671</v>
-    <v>3474352</v>
+    <v>1407024</v>
+    <v>3473027</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -716,14 +723,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>303.72000000000003</v>
     <v>220</v>
-    <v>0.46089999999999998</v>
-    <v>-2.3199999999999998</v>
-    <v>-1.2339999999999999E-3</v>
-    <v>-8.8669999999999999E-3</v>
-    <v>-0.32</v>
+    <v>0.46389999999999998</v>
+    <v>-3.51</v>
+    <v>-1.3534999999999998E-2</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
@@ -731,25 +736,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116 US</v>
-    <v>264.08999999999997</v>
+    <v>260.48</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44739.947364687498</v>
+    <v>44740.735399548437</v>
     <v>7</v>
-    <v>258.14</v>
-    <v>120509976742</v>
+    <v>254.98500000000001</v>
+    <v>118878888868</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>262.23</v>
-    <v>45.266800000000003</v>
-    <v>261.64999999999998</v>
+    <v>258.58999999999997</v>
+    <v>44.865400000000001</v>
     <v>259.33</v>
-    <v>259.01</v>
+    <v>255.82</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>2018915</v>
-    <v>2596548</v>
+    <v>816003</v>
+    <v>2604268</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -773,11 +777,9 @@
     <v>9</v>
     <v>973.16</v>
     <v>575.6</v>
-    <v>1.2642</v>
-    <v>-10.86</v>
-    <v>1.11E-2</v>
-    <v>-1.6765000000000002E-2</v>
-    <v>7.07</v>
+    <v>1.2695000000000001</v>
+    <v>-6.05</v>
+    <v>-9.4990000000000005E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
@@ -785,25 +787,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>652.75</v>
+    <v>648</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44739.949852568752</v>
+    <v>44740.724958807812</v>
     <v>10</v>
-    <v>633.86</v>
-    <v>96495481836</v>
+    <v>629.37</v>
+    <v>95578886871</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>650</v>
-    <v>16.2746</v>
-    <v>647.78</v>
+    <v>642.4</v>
+    <v>16.0017</v>
     <v>636.91999999999996</v>
-    <v>643.99</v>
+    <v>630.87</v>
     <v>151503300</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>637176</v>
-    <v>1054365</v>
+    <v>188656</v>
+    <v>1027812</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -824,14 +825,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>254.99</v>
     <v>182.66</v>
-    <v>0.92069999999999996</v>
-    <v>1.17</v>
-    <v>5.8170000000000001E-3</v>
-    <v>5.2620000000000002E-3</v>
-    <v>1.3</v>
+    <v>0.91610000000000003</v>
+    <v>-1.135</v>
+    <v>-5.078E-3</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
@@ -839,25 +838,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>226.24760000000001</v>
+    <v>227.97989999999999</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44739.937500022657</v>
+    <v>44740.735356330471</v>
     <v>13</v>
     <v>222.08</v>
-    <v>62067089850</v>
+    <v>61751894561</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>223.07</v>
-    <v>19.040099999999999</v>
-    <v>222.33</v>
+    <v>225</v>
+    <v>19.1403</v>
     <v>223.5</v>
-    <v>224.8</v>
+    <v>222.36500000000001</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>1277122</v>
-    <v>1439553</v>
+    <v>701016</v>
+    <v>1406291</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -881,11 +879,9 @@
     <v>9</v>
     <v>3030.9315000000001</v>
     <v>2037.6936000000001</v>
-    <v>1.0881000000000001</v>
-    <v>-42.83</v>
-    <v>1.573E-3</v>
-    <v>-1.8151999999999998E-2</v>
-    <v>3.645</v>
+    <v>1.0939000000000001</v>
+    <v>-70.45</v>
+    <v>-3.041E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -893,25 +889,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2371.59</v>
+    <v>2346.19</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44739.950395601561</v>
+    <v>44740.724953101562</v>
     <v>16</v>
-    <v>2303.5936999999999</v>
-    <v>1557259000000</v>
+    <v>2242.25</v>
+    <v>1530472000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2365.46</v>
-    <v>21.343399999999999</v>
-    <v>2359.5</v>
+    <v>2316.0500000000002</v>
+    <v>20.9559</v>
     <v>2316.67</v>
-    <v>2320.3150000000001</v>
+    <v>2246.2199999999998</v>
     <v>658499900</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1820245</v>
-    <v>1987778</v>
+    <v>954723</v>
+    <v>1992331</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -935,11 +930,9 @@
     <v>4</v>
     <v>420.61</v>
     <v>264.51</v>
-    <v>0.98319999999999996</v>
-    <v>-0.53</v>
-    <v>1.7690000000000002E-4</v>
-    <v>-1.8729999999999999E-3</v>
-    <v>0.05</v>
+    <v>0.98270000000000002</v>
+    <v>-9.73</v>
+    <v>-3.4418999999999998E-2</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
@@ -947,25 +940,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, 2455 PACES FERRY ROAD, ATLANTA, GA, 30339-4024 US</v>
-    <v>285</v>
+    <v>285.58999999999997</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44739.957064953123</v>
+    <v>44740.735345520312</v>
     <v>19</v>
-    <v>281.49</v>
-    <v>290309954850</v>
+    <v>271.45</v>
+    <v>280536004800</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>284.45999999999998</v>
-    <v>17.964600000000001</v>
-    <v>283</v>
-    <v>282.47000000000003</v>
-    <v>282.74</v>
+    <v>283.7</v>
+    <v>17.944900000000001</v>
+    <v>282.69</v>
+    <v>272.95999999999998</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>2538558</v>
-    <v>4799918</v>
+    <v>2354138</v>
+    <v>4693001</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -989,11 +981,9 @@
     <v>4</v>
     <v>172.96</v>
     <v>111.48</v>
-    <v>1.1329</v>
-    <v>-0.92</v>
-    <v>1.89E-3</v>
-    <v>-7.842E-3</v>
-    <v>0.22</v>
+    <v>1.1357999999999999</v>
+    <v>8.0600000000000005E-2</v>
+    <v>6.9260000000000003E-4</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
@@ -1001,25 +991,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>118.5</v>
+    <v>119.29</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44739.960860474217</v>
+    <v>44740.735347267968</v>
     <v>22</v>
-    <v>115.6417</v>
-    <v>341872736400</v>
+    <v>116.18</v>
+    <v>342050721690</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>118.06</v>
-    <v>8.7060999999999993</v>
-    <v>117.32</v>
-    <v>116.4</v>
-    <v>116.6</v>
+    <v>117.61</v>
+    <v>8.6363000000000003</v>
+    <v>116.38</v>
+    <v>116.4606</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>11277545</v>
-    <v>13896756</v>
+    <v>6673614</v>
+    <v>13837344</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -1043,11 +1032,9 @@
     <v>9</v>
     <v>67.2</v>
     <v>52.28</v>
-    <v>0.57320000000000004</v>
-    <v>-0.13</v>
-    <v>9.5369999999999993E-4</v>
-    <v>-2.062E-3</v>
-    <v>0.06</v>
+    <v>0.57289999999999996</v>
+    <v>-0.22500000000000001</v>
+    <v>-3.5770000000000003E-3</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
@@ -1055,25 +1042,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>63.286700000000003</v>
+    <v>63.76</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44739.947859073436</v>
+    <v>44740.724999964841</v>
     <v>25</v>
-    <v>62.63</v>
-    <v>272716674390</v>
+    <v>62.604999999999997</v>
+    <v>271741292865</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>62.98</v>
-    <v>26.588000000000001</v>
-    <v>63.04</v>
+    <v>63.08</v>
+    <v>26.533200000000001</v>
     <v>62.91</v>
-    <v>62.97</v>
+    <v>62.685000000000002</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>12141681</v>
-    <v>19565788</v>
+    <v>5699590</v>
+    <v>18791718</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1094,14 +1080,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>479.99</v>
     <v>324.2278</v>
-    <v>0.75929999999999997</v>
-    <v>0.21</v>
-    <v>5.9630000000000002E-4</v>
-    <v>5.0109999999999998E-4</v>
-    <v>0.25</v>
+    <v>0.75829999999999997</v>
+    <v>3.74</v>
+    <v>8.9210000000000001E-3</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1109,25 +1093,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>423.19</v>
+    <v>427.56</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44739.949527407029</v>
+    <v>44740.735365046094</v>
     <v>28</v>
-    <v>417.47</v>
-    <v>111565359750</v>
+    <v>420.7</v>
+    <v>111565400000</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>419.04</v>
-    <v>18.503499999999999</v>
-    <v>419.04</v>
+    <v>423.13</v>
+    <v>18.512699999999999</v>
     <v>419.25</v>
-    <v>419.5</v>
+    <v>422.99</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>778196</v>
-    <v>1382268</v>
+    <v>538189</v>
+    <v>1351837</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -1171,11 +1154,9 @@
     <v>9</v>
     <v>263.31</v>
     <v>170.12</v>
-    <v>1.2442</v>
-    <v>1.38</v>
-    <v>4.0169999999999997E-3</v>
-    <v>7.548E-3</v>
-    <v>0.74</v>
+    <v>1.2392000000000001</v>
+    <v>-6</v>
+    <v>-3.2570000000000002E-2</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1183,26 +1164,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>185.32</v>
+    <v>185.61</v>
     <v>34</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44739.937500010936</v>
+    <v>44740.724957013284</v>
     <v>35</v>
-    <v>182.125</v>
-    <v>117740307536</v>
+    <v>177.92</v>
+    <v>113905534736</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>183</v>
-    <v>14.9039</v>
-    <v>182.84</v>
+    <v>184.48</v>
+    <v>15.016400000000001</v>
     <v>184.22</v>
-    <v>184.96</v>
+    <v>178.22</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>2829162</v>
-    <v>4087574</v>
+    <v>2264395</v>
+    <v>3995460</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1242,11 +1222,9 @@
     <v>9</v>
     <v>349.67</v>
     <v>241.51</v>
-    <v>0.92869999999999997</v>
-    <v>-2.81</v>
-    <v>1.2080000000000001E-3</v>
-    <v>-1.0497000000000001E-2</v>
-    <v>0.32</v>
+    <v>0.93200000000000005</v>
+    <v>-6.28</v>
+    <v>-2.3708E-2</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1254,26 +1232,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>268.3</v>
+    <v>266.91000000000003</v>
     <v>40</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44739.950719258595</v>
+    <v>44740.725000103906</v>
     <v>41</v>
-    <v>263.27999999999997</v>
-    <v>1981121051370</v>
+    <v>258.01</v>
+    <v>1934152724130</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>268.20499999999998</v>
-    <v>27.929500000000001</v>
-    <v>267.7</v>
+    <v>263.98</v>
+    <v>27.636299999999999</v>
     <v>264.89</v>
-    <v>265.20999999999998</v>
+    <v>258.61</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>24604081</v>
-    <v>30804192</v>
+    <v>12732165</v>
+    <v>30481105</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1297,11 +1274,9 @@
     <v>9</v>
     <v>177.62</v>
     <v>146.4</v>
-    <v>0.58360000000000001</v>
-    <v>0.22</v>
-    <v>3.5470000000000002E-3</v>
-    <v>1.3239999999999999E-3</v>
-    <v>0.59</v>
+    <v>0.58179999999999998</v>
+    <v>-0.54</v>
+    <v>-3.2460000000000002E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1309,25 +1284,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>167.13</v>
+    <v>168.45</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44739.94623186328</v>
+    <v>44740.724995253906</v>
     <v>44</v>
-    <v>165.34</v>
-    <v>229705200000</v>
+    <v>165.63</v>
+    <v>230009400000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>165.87</v>
-    <v>22.302900000000001</v>
-    <v>166.13</v>
+    <v>167.15</v>
+    <v>22.3324</v>
     <v>166.35</v>
-    <v>166.94</v>
+    <v>165.81</v>
     <v>1382684000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>4595787</v>
-    <v>5775584</v>
+    <v>1643866</v>
+    <v>5702464</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1351,11 +1325,9 @@
     <v>9</v>
     <v>171.12</v>
     <v>93.5</v>
-    <v>1.4882</v>
-    <v>0.5</v>
-    <v>4.4949999999999999E-3</v>
-    <v>5.019E-3</v>
-    <v>0.45</v>
+    <v>1.4849000000000001</v>
+    <v>0.2</v>
+    <v>1.9980000000000002E-3</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -1363,25 +1335,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>101.44</v>
+    <v>102.48</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44739.937500010936</v>
+    <v>44740.724961515625</v>
     <v>47</v>
-    <v>98.75</v>
-    <v>32903296632</v>
+    <v>100.18</v>
+    <v>32969024351</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>99.94</v>
-    <v>14.695499999999999</v>
-    <v>99.62</v>
+    <v>101.43</v>
+    <v>14.769299999999999</v>
     <v>100.12</v>
-    <v>100.57</v>
+    <v>100.32</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>1783307</v>
-    <v>2546540</v>
+    <v>842289</v>
+    <v>2512711</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1421,11 +1392,9 @@
     <v>9</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
-    <v>1.3313999999999999</v>
-    <v>-0.99</v>
-    <v>4.5639999999999995E-3</v>
-    <v>-8.147999999999999E-3</v>
-    <v>0.55000000000000004</v>
+    <v>1.3328</v>
+    <v>-2.1953</v>
+    <v>-1.8217000000000001E-2</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -1433,26 +1402,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>122.59</v>
+    <v>122.69750000000001</v>
     <v>52</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44739.939003807813</v>
+    <v>44740.724942013279</v>
     <v>53</v>
-    <v>120.06</v>
-    <v>27391513266</v>
+    <v>118.18</v>
+    <v>26892529040</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>122</v>
-    <v>9.8274000000000008</v>
-    <v>121.5</v>
+    <v>121.29</v>
+    <v>9.7474000000000007</v>
     <v>120.51</v>
-    <v>121.06</v>
+    <v>118.3147</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>1664481</v>
-    <v>1828032</v>
+    <v>928890</v>
+    <v>1810395</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1476,11 +1444,9 @@
     <v>4</v>
     <v>202.26</v>
     <v>149.1</v>
-    <v>0.96960000000000002</v>
-    <v>-0.33</v>
-    <v>1.2850000000000001E-4</v>
-    <v>-2.1160000000000003E-3</v>
-    <v>0.02</v>
+    <v>0.97060000000000002</v>
+    <v>-0.25</v>
+    <v>-1.606E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
@@ -1488,25 +1454,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, P.O. BOX 660199, DALLAS, TX, 75266 US</v>
-    <v>157.62</v>
+    <v>158.99</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44739.954142812501</v>
+    <v>44740.735399478908</v>
     <v>56</v>
-    <v>155.13</v>
-    <v>143502477518</v>
+    <v>154.74</v>
+    <v>143271944043</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>156.99</v>
-    <v>17.8324</v>
-    <v>155.94999999999999</v>
+    <v>156.74</v>
+    <v>17.794599999999999</v>
     <v>155.62</v>
-    <v>155.63999999999999</v>
+    <v>155.37</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>5762349</v>
-    <v>5869644</v>
+    <v>1969359</v>
+    <v>5884153</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -1527,14 +1492,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>233.72</v>
     <v>165.34</v>
-    <v>1.1324000000000001</v>
-    <v>-1.49</v>
-    <v>-8.25E-4</v>
-    <v>-8.1289999999999991E-3</v>
-    <v>-0.15</v>
+    <v>1.1334</v>
+    <v>-1.2250000000000001</v>
+    <v>-6.7379999999999992E-3</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -1542,25 +1505,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>184.96</v>
+    <v>185.27250000000001</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44739.946894664063</v>
+    <v>44740.735349560156</v>
     <v>59</v>
-    <v>181.05</v>
-    <v>158859469184</v>
+    <v>180.3</v>
+    <v>157789105344</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>184.85</v>
-    <v>14.9482</v>
-    <v>183.3</v>
+    <v>182.7</v>
+    <v>14.826700000000001</v>
     <v>181.81</v>
-    <v>181.66</v>
+    <v>180.58500000000001</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>1902444</v>
-    <v>3674728</v>
+    <v>1064844</v>
+    <v>3575509</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1584,11 +1546,9 @@
     <v>4</v>
     <v>56.85</v>
     <v>45.548900000000003</v>
-    <v>0.39219999999999999</v>
-    <v>0.03</v>
-    <v>-9.8119999999999989E-5</v>
-    <v>5.8869999999999994E-4</v>
-    <v>-5.0000000000000001E-3</v>
+    <v>0.39129999999999998</v>
+    <v>-0.315</v>
+    <v>-6.1809999999999999E-3</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
@@ -1596,29 +1556,79 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>51.49</v>
+    <v>51.3</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44739.960532187499</v>
+    <v>44740.735373089847</v>
     <v>62</v>
-    <v>50.653300000000002</v>
-    <v>214139847560</v>
+    <v>50.58</v>
+    <v>212690970380</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>51.29</v>
+    <v>51.07</v>
     <v>9.9133999999999993</v>
     <v>50.96</v>
-    <v>50.99</v>
-    <v>50.954999999999998</v>
+    <v>50.645000000000003</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>16973820</v>
-    <v>20364421</v>
+    <v>8981343</v>
+    <v>20115961</v>
     <v>1983</v>
   </rv>
   <rv s="2">
     <v>63</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmf2&amp;q=XNAS%3aINTC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1vmf2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>INTEL CORPORATION (XNAS:INTC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>57.83</v>
+    <v>36.6</v>
+    <v>0.64629999999999999</v>
+    <v>-0.55000000000000004</v>
+    <v>-1.4237999999999999E-2</v>
+    <v>USD</v>
+    <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
+    <v>121100</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
+    <v>39.020000000000003</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>44740.735382534374</v>
+    <v>65</v>
+    <v>37.935000000000002</v>
+    <v>155709120000</v>
+    <v>INTEL CORPORATION</v>
+    <v>INTEL CORPORATION</v>
+    <v>38.630000000000003</v>
+    <v>6.4249000000000001</v>
+    <v>38.630000000000003</v>
+    <v>38.08</v>
+    <v>4089000000</v>
+    <v>INTC</v>
+    <v>INTEL CORPORATION (XNAS:INTC)</v>
+    <v>19937830</v>
+    <v>36544125</v>
+    <v>1989</v>
+  </rv>
+  <rv s="2">
+    <v>66</v>
   </rv>
 </rvData>
 </file>
@@ -1645,9 +1655,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1668,7 +1676,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1695,9 +1702,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -1712,7 +1717,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -1751,9 +1755,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1775,7 +1777,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1789,7 +1790,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1800,16 +1801,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1836,7 +1834,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="37">
+    <a count="34">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1847,16 +1845,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1875,7 +1870,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1886,16 +1881,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1962,19 +1954,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2004,29 +1990,20 @@
       <v>4</v>
       <v>7</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="7">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -2066,9 +2043,6 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -2116,9 +2090,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2126,9 +2097,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -2153,9 +2121,6 @@
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2163,9 +2128,6 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2200,9 +2162,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2272,8 +2231,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:S20" totalsRowShown="0">
-  <autoFilter ref="B2:S20" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:S21" totalsRowShown="0">
+  <autoFilter ref="B2:S21" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S20">
     <sortCondition ref="C2:C20"/>
   </sortState>
@@ -2299,7 +2258,7 @@
     <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="9"/>
     <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="8"/>
     <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Bond" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="5" dataCellStyle="Percent"/>
     <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="4" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="3" dataCellStyle="Percent"/>
@@ -2608,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09701121-D4EB-45B4-BB3E-1F27B86BB078}">
-  <dimension ref="B2:S20"/>
+  <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,7 +2584,8 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2649,40 +2609,40 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -2695,7 +2655,7 @@
       </c>
       <c r="D3" s="10" cm="1">
         <f t="array" ref="D3">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>141.66</v>
+        <v>138.69499999999999</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2720,13 +2680,13 @@
       </c>
       <c r="K3" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.2354934349851756E-2</v>
+        <v>4.3260391506543136E-2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3" s="2">
         <v>3.3300000000000003E-2</v>
@@ -2760,7 +2720,7 @@
       </c>
       <c r="D4" s="10" cm="1">
         <f t="array" ref="D4">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>34.799999999999997</v>
+        <v>35.01</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2778,20 +2738,20 @@
         <v>2.92</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1">
         <v>2.92</v>
       </c>
       <c r="K4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.39080459770115E-2</v>
+        <v>8.3404741502427882E-2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2821,7 +2781,7 @@
       </c>
       <c r="D5" s="10" cm="1">
         <f t="array" ref="D5">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>259.33</v>
+        <v>255.82</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2833,7 +2793,7 @@
       </c>
       <c r="G5" s="7" cm="1">
         <f t="array" ref="G5">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>45.266800000000003</v>
+        <v>44.865400000000001</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2843,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2874,7 +2834,7 @@
       </c>
       <c r="D6" s="10" cm="1">
         <f t="array" ref="D6">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>636.91999999999996</v>
+        <v>630.87</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2886,7 +2846,7 @@
       </c>
       <c r="G6" s="7" cm="1">
         <f t="array" ref="G6">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>16.2746</v>
+        <v>16.0017</v>
       </c>
       <c r="H6" s="8">
         <v>19.52</v>
@@ -2897,13 +2857,13 @@
       </c>
       <c r="K6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0647491050681406E-2</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
+        <v>3.0941398386355349E-2</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N6" s="2">
         <v>2.5000000000000001E-2</v>
@@ -2937,7 +2897,7 @@
       </c>
       <c r="D7" s="10" cm="1">
         <f t="array" ref="D7">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>223.5</v>
+        <v>222.36500000000001</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2949,7 +2909,7 @@
       </c>
       <c r="G7" s="7" cm="1">
         <f t="array" ref="G7">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>19.040099999999999</v>
+        <v>19.1403</v>
       </c>
       <c r="H7" s="8">
         <v>5.04</v>
@@ -2960,13 +2920,13 @@
       </c>
       <c r="K7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2550335570469798E-2</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
+        <v>2.2665437456434241E-2</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="2">
         <v>2.4E-2</v>
@@ -3000,7 +2960,7 @@
       </c>
       <c r="D8" s="10" cm="1">
         <f t="array" ref="D8">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>2316.67</v>
+        <v>2246.2199999999998</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3012,7 +2972,7 @@
       </c>
       <c r="G8" s="7" cm="1">
         <f t="array" ref="G8">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>21.343399999999999</v>
+        <v>20.9559</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -3025,13 +2985,13 @@
       </c>
       <c r="K8" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.3165405517402132E-2</v>
+        <v>4.4519236762204956E-2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8" s="2">
         <v>3.3000000000000002E-2</v>
@@ -3065,7 +3025,7 @@
       </c>
       <c r="D9" s="10" cm="1">
         <f t="array" ref="D9">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>282.47000000000003</v>
+        <v>272.95999999999998</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3077,7 +3037,7 @@
       </c>
       <c r="G9" s="7" cm="1">
         <f t="array" ref="G9">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.964600000000001</v>
+        <v>17.944900000000001</v>
       </c>
       <c r="H9" s="8">
         <v>7.6</v>
@@ -3088,13 +3048,13 @@
       </c>
       <c r="K9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.690551208977944E-2</v>
+        <v>2.784290738569754E-2</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" s="2">
         <v>2.1000000000000001E-2</v>
@@ -3128,7 +3088,7 @@
       </c>
       <c r="D10" s="10" cm="1">
         <f t="array" ref="D10">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>116.4</v>
+        <v>116.4606</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3140,7 +3100,7 @@
       </c>
       <c r="G10" s="7" cm="1">
         <f t="array" ref="G10">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>8.7060999999999993</v>
+        <v>8.6363000000000003</v>
       </c>
       <c r="H10" s="8">
         <v>4</v>
@@ -3151,13 +3111,13 @@
       </c>
       <c r="K10" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.4364261168384876E-2</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>19</v>
+        <v>3.4346379805702529E-2</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10" s="2">
         <v>0.03</v>
@@ -3191,7 +3151,7 @@
       </c>
       <c r="D11" s="10" cm="1">
         <f t="array" ref="D11">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>62.91</v>
+        <v>62.685000000000002</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3203,7 +3163,7 @@
       </c>
       <c r="G11" s="7" cm="1">
         <f t="array" ref="G11">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>26.588000000000001</v>
+        <v>26.533200000000001</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -3213,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3244,7 +3204,7 @@
       </c>
       <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>419.25</v>
+        <v>422.99</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3256,7 +3216,7 @@
       </c>
       <c r="G12" s="7" cm="1">
         <f t="array" ref="G12">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.503499999999999</v>
+        <v>18.512699999999999</v>
       </c>
       <c r="H12" s="8">
         <v>11.2</v>
@@ -3267,13 +3227,13 @@
       </c>
       <c r="K12" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6714370900417412E-2</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>19</v>
+        <v>2.6478167332561052E-2</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12" s="2">
         <v>2.7E-2</v>
@@ -3307,7 +3267,7 @@
       </c>
       <c r="D13" s="10" cm="1">
         <f t="array" ref="D13">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>184.22</v>
+        <v>178.22</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3319,7 +3279,7 @@
       </c>
       <c r="G13" s="7" cm="1">
         <f t="array" ref="G13">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.9039</v>
+        <v>15.016400000000001</v>
       </c>
       <c r="H13" s="8">
         <v>4.2</v>
@@ -3330,13 +3290,13 @@
       </c>
       <c r="K13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2798827488872003E-2</v>
+        <v>2.3566378633150042E-2</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N13" s="2">
         <v>1.4999999999999999E-2</v>
@@ -3370,7 +3330,7 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>264.89</v>
+        <v>258.61</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3382,7 +3342,7 @@
       </c>
       <c r="G14" s="7" cm="1">
         <f t="array" ref="G14">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>27.929500000000001</v>
+        <v>27.636299999999999</v>
       </c>
       <c r="H14" s="8">
         <v>2.48</v>
@@ -3395,13 +3355,13 @@
       </c>
       <c r="K14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0201215598927859E-2</v>
+        <v>3.0934611963961176E-2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" s="2">
         <v>3.3300000000000003E-2</v>
@@ -3435,7 +3395,7 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>166.35</v>
+        <v>165.81</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3447,7 +3407,7 @@
       </c>
       <c r="G15" s="7" cm="1">
         <f t="array" ref="G15">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.302900000000001</v>
+        <v>22.3324</v>
       </c>
       <c r="H15" s="8">
         <v>4.5999999999999996</v>
@@ -3458,13 +3418,13 @@
       </c>
       <c r="K15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.765253982566877E-2</v>
+        <v>2.7742596948314335E-2</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15" s="2">
         <v>2.8000000000000001E-2</v>
@@ -3498,7 +3458,7 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>100.12</v>
+        <v>100.32</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3510,7 +3470,7 @@
       </c>
       <c r="G16" s="7" cm="1">
         <f t="array" ref="G16">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.695499999999999</v>
+        <v>14.769299999999999</v>
       </c>
       <c r="H16" s="8">
         <v>6.8</v>
@@ -3521,13 +3481,13 @@
       </c>
       <c r="K16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>6.7918497802636826E-2</v>
+        <v>6.778309409888357E-2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N16" s="2">
         <v>4.4999999999999998E-2</v>
@@ -3561,7 +3521,7 @@
       </c>
       <c r="D17" s="10" cm="1">
         <f t="array" ref="D17">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>120.51</v>
+        <v>118.3147</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3573,7 +3533,7 @@
       </c>
       <c r="G17" s="7" cm="1">
         <f t="array" ref="G17">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.8274000000000008</v>
+        <v>9.7474000000000007</v>
       </c>
       <c r="H17" s="8">
         <v>4.8</v>
@@ -3584,13 +3544,13 @@
       </c>
       <c r="K17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.9830719442369926E-2</v>
+        <v>4.0569768591730358E-2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="2">
         <v>2.7E-2</v>
@@ -3624,7 +3584,7 @@
       </c>
       <c r="D18" s="10" cm="1">
         <f t="array" ref="D18">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>155.62</v>
+        <v>155.37</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3636,7 +3596,7 @@
       </c>
       <c r="G18" s="7" cm="1">
         <f t="array" ref="G18">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.8324</v>
+        <v>17.794599999999999</v>
       </c>
       <c r="H18" s="8">
         <v>4.5999999999999996</v>
@@ -3647,13 +3607,13 @@
       </c>
       <c r="K18" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.9559182624341342E-2</v>
+        <v>2.9606745188903903E-2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N18" s="2">
         <v>2.5000000000000001E-2</v>
@@ -3687,7 +3647,7 @@
       </c>
       <c r="D19" s="10" cm="1">
         <f t="array" ref="D19">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>181.81</v>
+        <v>180.58500000000001</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3699,7 +3659,7 @@
       </c>
       <c r="G19" s="7" cm="1">
         <f t="array" ref="G19">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.9482</v>
+        <v>14.826700000000001</v>
       </c>
       <c r="H19" s="8">
         <v>6.08</v>
@@ -3710,13 +3670,13 @@
       </c>
       <c r="K19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.3441504867719046E-2</v>
+        <v>3.3668355622006256E-2</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N19" s="2">
         <v>2.7E-2</v>
@@ -3750,7 +3710,7 @@
       </c>
       <c r="D20" s="10" cm="1">
         <f t="array" ref="D20">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>50.99</v>
+        <v>50.645000000000003</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3773,13 +3733,13 @@
       </c>
       <c r="K20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>5.0205922729947047E-2</v>
+        <v>5.0547931681311088E-2</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N20" s="2">
         <v>4.4999999999999998E-2</v>
@@ -3802,6 +3762,43 @@
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>51.199999999999996</v>
       </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>INTC</v>
+      </c>
+      <c r="D21" s="10" cm="1">
+        <f t="array" ref="D21">_FV(Table2[[#This Row],[Company]],"Price")</f>
+        <v>38.08</v>
+      </c>
+      <c r="E21" s="1" cm="1">
+        <f t="array" ref="E21">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+        <v>57.83</v>
+      </c>
+      <c r="F21" s="1" cm="1">
+        <f t="array" ref="F21">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+        <v>36.6</v>
+      </c>
+      <c r="G21" s="7" cm="1">
+        <f t="array" ref="G21">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
+        <v>6.4249000000000001</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="625" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C91C223A-12D1-4702-B4EE-BA4693861556}"/>
+  <xr:revisionPtr revIDLastSave="645" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B9BA30-D5DE-462A-9F59-FD9BA7D33A90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
   <sheets>
     <sheet name="WatchList" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Ticker</t>
   </si>
@@ -280,12 +280,6 @@
   </si>
   <si>
     <t>P/E</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>MML</t>
@@ -328,6 +322,9 @@
   </si>
   <si>
     <t>DIV</t>
+  </si>
+  <si>
+    <t>HYLG</t>
   </si>
 </sst>
 </file>
@@ -420,6 +417,17 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -450,16 +458,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -627,9 +625,11 @@
     <v>4</v>
     <v>182.94</v>
     <v>129.04</v>
-    <v>1.1950000000000001</v>
-    <v>-2.9649999999999999</v>
-    <v>-2.0930000000000001E-2</v>
+    <v>1.1947000000000001</v>
+    <v>2.21</v>
+    <v>6.4780000000000003E-4</v>
+    <v>1.6164000000000001E-2</v>
+    <v>0.09</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
@@ -637,24 +637,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>143.422</v>
+    <v>139.04</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44740.735397742967</v>
+    <v>44743.999905786717</v>
     <v>0</v>
-    <v>138.505</v>
-    <v>2244803540100</v>
+    <v>135.66</v>
+    <v>2248607000000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>142.1</v>
-    <v>23.026199999999999</v>
-    <v>141.66</v>
-    <v>138.69499999999999</v>
+    <v>136.04</v>
+    <v>22.223199999999999</v>
+    <v>136.72</v>
+    <v>138.93</v>
+    <v>139.02000000000001</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>37492836</v>
-    <v>90153682</v>
+    <v>71051552</v>
+    <v>85083165</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -679,26 +680,29 @@
     <v>42.18</v>
     <v>30.04</v>
     <v>3.0623999999999998</v>
-    <v>0.21</v>
-    <v>6.0340000000000003E-3</v>
+    <v>0.51</v>
+    <v>4.2909999999999997E-3</v>
+    <v>1.4803999999999999E-2</v>
+    <v>0.15</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>36.055</v>
+    <v>35.085000000000001</v>
     <v>ETF</v>
-    <v>44740.735289316406</v>
+    <v>44743.999329270315</v>
     <v>3</v>
-    <v>34.840000000000003</v>
+    <v>33.79</v>
     <v>6879973740.8900003</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>35.47</v>
-    <v>34.799999999999997</v>
-    <v>35.01</v>
+    <v>34.67</v>
+    <v>34.450000000000003</v>
+    <v>34.96</v>
+    <v>35.11</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>1407024</v>
-    <v>3473027</v>
+    <v>2068907</v>
+    <v>3527531</v>
   </rv>
   <rv s="2">
     <v>4</v>
@@ -726,9 +730,11 @@
     <v>4</v>
     <v>303.72000000000003</v>
     <v>220</v>
-    <v>0.46389999999999998</v>
-    <v>-3.51</v>
-    <v>-1.3534999999999998E-2</v>
+    <v>0.45810000000000001</v>
+    <v>2.81</v>
+    <v>1.9349999999999999E-4</v>
+    <v>1.0993999999999999E-2</v>
+    <v>0.05</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
@@ -736,24 +742,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116 US</v>
-    <v>260.48</v>
+    <v>259.03500000000003</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44740.735399548437</v>
+    <v>44743.992537106249</v>
     <v>7</v>
-    <v>254.98500000000001</v>
-    <v>118878888868</v>
+    <v>252.44</v>
+    <v>120077800000</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>258.58999999999997</v>
-    <v>44.865400000000001</v>
-    <v>259.33</v>
-    <v>255.82</v>
+    <v>254.53</v>
+    <v>44.218299999999999</v>
+    <v>255.59</v>
+    <v>258.39999999999998</v>
+    <v>258.45</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>816003</v>
-    <v>2604268</v>
+    <v>1363377</v>
+    <v>2551385</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -774,12 +781,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>973.16</v>
     <v>575.6</v>
-    <v>1.2695000000000001</v>
-    <v>-6.05</v>
-    <v>-9.4990000000000005E-3</v>
+    <v>1.2698</v>
+    <v>7.66</v>
+    <v>5.0270000000000002E-4</v>
+    <v>1.2577E-2</v>
+    <v>0.31</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
@@ -787,24 +796,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>648</v>
+    <v>619.27</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44740.724958807812</v>
+    <v>44743.997858680472</v>
     <v>10</v>
-    <v>629.37</v>
-    <v>95578886871</v>
+    <v>605.97799999999995</v>
+    <v>93432050000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>642.4</v>
-    <v>16.0017</v>
-    <v>636.91999999999996</v>
-    <v>630.87</v>
+    <v>607.25</v>
+    <v>15.301299999999999</v>
+    <v>609.04</v>
+    <v>616.70000000000005</v>
+    <v>617.01</v>
     <v>151503300</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>188656</v>
-    <v>1027812</v>
+    <v>502755</v>
+    <v>968705</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -828,9 +838,11 @@
     <v>4</v>
     <v>254.99</v>
     <v>182.66</v>
-    <v>0.91610000000000003</v>
-    <v>-1.135</v>
-    <v>-5.078E-3</v>
+    <v>0.89810000000000001</v>
+    <v>2.61</v>
+    <v>3.261E-3</v>
+    <v>1.1797E-2</v>
+    <v>0.73</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
@@ -838,24 +850,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>227.97989999999999</v>
+    <v>224.48</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44740.735356330471</v>
+    <v>44743.988253760937</v>
     <v>13</v>
-    <v>222.08</v>
-    <v>61751894561</v>
+    <v>219.73500000000001</v>
+    <v>62167070000</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>225</v>
-    <v>19.1403</v>
-    <v>223.5</v>
-    <v>222.36500000000001</v>
+    <v>221.24</v>
+    <v>18.947600000000001</v>
+    <v>221.25</v>
+    <v>223.86</v>
+    <v>224.59</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>701016</v>
-    <v>1406291</v>
+    <v>705833</v>
+    <v>1362969</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -876,12 +889,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>3030.9315000000001</v>
     <v>2037.6936000000001</v>
-    <v>1.0939000000000001</v>
-    <v>-70.45</v>
-    <v>-3.041E-2</v>
+    <v>1.1000000000000001</v>
+    <v>-4.51</v>
+    <v>-3.0990000000000002E-3</v>
+    <v>-2.0699999999999998E-3</v>
+    <v>-6.74</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -889,24 +904,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2346.19</v>
+    <v>2185</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44740.724953101562</v>
+    <v>44743.999931087499</v>
     <v>16</v>
-    <v>2242.25</v>
-    <v>1530472000000</v>
+    <v>2134.61</v>
+    <v>1434226000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2316.0500000000002</v>
-    <v>20.9559</v>
-    <v>2316.67</v>
-    <v>2246.2199999999998</v>
+    <v>2158.66</v>
+    <v>19.713000000000001</v>
+    <v>2179.2600000000002</v>
+    <v>2174.75</v>
+    <v>2168.0100000000002</v>
     <v>658499900</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>954723</v>
-    <v>1992331</v>
+    <v>1773783</v>
+    <v>1874009</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -930,9 +946,11 @@
     <v>4</v>
     <v>420.61</v>
     <v>264.51</v>
-    <v>0.98270000000000002</v>
-    <v>-9.73</v>
-    <v>-3.4418999999999998E-2</v>
+    <v>0.98970000000000002</v>
+    <v>4.8099999999999996</v>
+    <v>1.075E-3</v>
+    <v>1.7537000000000001E-2</v>
+    <v>0.3</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
@@ -940,24 +958,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, 2455 PACES FERRY ROAD, ATLANTA, GA, 30339-4024 US</v>
-    <v>285.58999999999997</v>
+    <v>280.75</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44740.735345520312</v>
+    <v>44743.99964704844</v>
     <v>19</v>
-    <v>271.45</v>
-    <v>280536004800</v>
+    <v>274.55</v>
+    <v>286825800000</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>283.7</v>
-    <v>17.944900000000001</v>
-    <v>282.69</v>
-    <v>272.95999999999998</v>
+    <v>275.73</v>
+    <v>17.410399999999999</v>
+    <v>274.27</v>
+    <v>279.08</v>
+    <v>279.38</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>2354138</v>
-    <v>4693001</v>
+    <v>2818310</v>
+    <v>4549713</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -980,10 +999,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>172.96</v>
-    <v>111.48</v>
-    <v>1.1357999999999999</v>
-    <v>8.0600000000000005E-2</v>
-    <v>6.9260000000000003E-4</v>
+    <v>110.93</v>
+    <v>1.1452</v>
+    <v>1.44</v>
+    <v>-4.3839999999999998E-4</v>
+    <v>1.2787E-2</v>
+    <v>-0.05</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
@@ -991,24 +1012,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>119.29</v>
+    <v>114.41500000000001</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44740.735347267968</v>
+    <v>44743.999971017969</v>
     <v>22</v>
-    <v>116.18</v>
-    <v>342050721690</v>
+    <v>111.16</v>
+    <v>334970600000</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>117.61</v>
-    <v>8.6363000000000003</v>
-    <v>116.38</v>
-    <v>116.4606</v>
+    <v>112.65</v>
+    <v>8.3566000000000003</v>
+    <v>112.61</v>
+    <v>114.05</v>
+    <v>114</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>6673614</v>
-    <v>13837344</v>
+    <v>10573577</v>
+    <v>13008337</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -1029,12 +1051,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>67.2</v>
     <v>52.28</v>
-    <v>0.57289999999999996</v>
-    <v>-0.22500000000000001</v>
-    <v>-3.5770000000000003E-3</v>
+    <v>0.5575</v>
+    <v>1.47</v>
+    <v>3.1070000000000002E-4</v>
+    <v>2.3366999999999999E-2</v>
+    <v>0.02</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
@@ -1042,24 +1066,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>63.76</v>
+    <v>64.45</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44740.724999964841</v>
+    <v>44743.999656550783</v>
     <v>25</v>
-    <v>62.604999999999997</v>
-    <v>271741292865</v>
+    <v>62.82</v>
+    <v>279089200000</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>63.08</v>
+    <v>63.12</v>
     <v>26.533200000000001</v>
     <v>62.91</v>
-    <v>62.685000000000002</v>
+    <v>64.38</v>
+    <v>64.400000000000006</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>5699590</v>
-    <v>18791718</v>
+    <v>15143204</v>
+    <v>17823571</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1083,9 +1108,11 @@
     <v>4</v>
     <v>479.99</v>
     <v>324.2278</v>
-    <v>0.75829999999999997</v>
-    <v>3.74</v>
-    <v>8.9210000000000001E-3</v>
+    <v>0.72709999999999997</v>
+    <v>3.56</v>
+    <v>5.3050000000000005E-4</v>
+    <v>8.2799999999999992E-3</v>
+    <v>0.23</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1093,24 +1120,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>427.56</v>
+    <v>434.96</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44740.735365046094</v>
+    <v>44743.992748738281</v>
     <v>28</v>
-    <v>420.7</v>
-    <v>111565400000</v>
+    <v>424.48</v>
+    <v>115362700000</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>423.13</v>
-    <v>18.512699999999999</v>
-    <v>419.25</v>
-    <v>422.99</v>
+    <v>429.74</v>
+    <v>18.985700000000001</v>
+    <v>429.96</v>
+    <v>433.52</v>
+    <v>433.75</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>538189</v>
-    <v>1351837</v>
+    <v>1296938</v>
+    <v>1321910</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -1129,7 +1157,7 @@
     <v>32</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
     <v>33</v>
     <v>0</v>
@@ -1146,17 +1174,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>263.31</v>
     <v>170.12</v>
-    <v>1.2392000000000001</v>
-    <v>-6</v>
-    <v>-3.2570000000000002E-2</v>
+    <v>1.25</v>
+    <v>2.69</v>
+    <v>-2.8760000000000001E-3</v>
+    <v>1.54E-2</v>
+    <v>-0.51</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1164,25 +1194,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>185.61</v>
+    <v>178.59</v>
     <v>34</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44740.724957013284</v>
+    <v>44743.999108645316</v>
     <v>35</v>
-    <v>177.92</v>
-    <v>113905534736</v>
+    <v>174.64</v>
+    <v>113355900000</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>184.48</v>
-    <v>15.016400000000001</v>
-    <v>184.22</v>
-    <v>178.22</v>
+    <v>175.83</v>
+    <v>14.238</v>
+    <v>174.67</v>
+    <v>177.36</v>
+    <v>176.85</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>2264395</v>
-    <v>3995460</v>
+    <v>3095545</v>
+    <v>3933634</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1197,7 +1228,7 @@
     <v>38</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
     <v>39</v>
     <v>0</v>
@@ -1214,17 +1245,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>349.67</v>
     <v>241.51</v>
-    <v>0.93200000000000005</v>
-    <v>-6.28</v>
-    <v>-2.3708E-2</v>
+    <v>0.93049999999999999</v>
+    <v>2.75</v>
+    <v>7.7049999999999992E-4</v>
+    <v>1.0707E-2</v>
+    <v>0.2</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1232,25 +1265,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>266.91000000000003</v>
+    <v>259.77</v>
     <v>40</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44740.725000103906</v>
+    <v>44743.999790856251</v>
     <v>41</v>
-    <v>258.01</v>
-    <v>1934152724130</v>
+    <v>254.61</v>
+    <v>1941407000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>263.98</v>
-    <v>27.636299999999999</v>
-    <v>264.89</v>
-    <v>258.61</v>
+    <v>256.39</v>
+    <v>26.795400000000001</v>
+    <v>256.83</v>
+    <v>259.58</v>
+    <v>259.77999999999997</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>12732165</v>
-    <v>30481105</v>
+    <v>22837692</v>
+    <v>29591601</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1271,12 +1305,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>177.62</v>
-    <v>146.4</v>
-    <v>0.58179999999999998</v>
-    <v>-0.54</v>
-    <v>-3.2460000000000002E-3</v>
+    <v>147.77000000000001</v>
+    <v>0.56599999999999995</v>
+    <v>2.73</v>
+    <v>5.9040000000000004E-5</v>
+    <v>1.6381E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1284,24 +1320,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>168.45</v>
+    <v>169.52</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44740.724995253906</v>
+    <v>44743.996959548436</v>
     <v>44</v>
-    <v>165.63</v>
-    <v>230009400000</v>
+    <v>165.76</v>
+    <v>234212800000</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>167.15</v>
-    <v>22.3324</v>
-    <v>166.35</v>
-    <v>165.81</v>
+    <v>166.74</v>
+    <v>22.373999999999999</v>
+    <v>166.66</v>
+    <v>169.39</v>
+    <v>169.4</v>
     <v>1382684000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>1643866</v>
-    <v>5702464</v>
+    <v>3918710</v>
+    <v>5605891</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1322,12 +1359,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>171.12</v>
-    <v>93.5</v>
-    <v>1.4849000000000001</v>
-    <v>0.2</v>
-    <v>1.9980000000000002E-3</v>
+    <v>93.2</v>
+    <v>1.4962</v>
+    <v>0.76</v>
+    <v>4.4940000000000006E-3</v>
+    <v>8.0070000000000002E-3</v>
+    <v>0.43</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -1335,24 +1374,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>102.48</v>
+    <v>95.97</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44740.724961515625</v>
+    <v>44743.993483124999</v>
     <v>47</v>
-    <v>100.18</v>
-    <v>32969024351</v>
+    <v>93.79</v>
+    <v>31444140000</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>101.43</v>
-    <v>14.769299999999999</v>
-    <v>100.12</v>
-    <v>100.32</v>
+    <v>94.35</v>
+    <v>14.0022</v>
+    <v>94.92</v>
+    <v>95.68</v>
+    <v>96.11</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>842289</v>
-    <v>2512711</v>
+    <v>1709191</v>
+    <v>2462374</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -1367,7 +1407,7 @@
     <v>50</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_4c600be848f66590834841f27e6f786d&amp;qlt=95</v>
     <v>51</v>
     <v>0</v>
@@ -1384,17 +1424,19 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
-    <v>1.3328</v>
-    <v>-2.1953</v>
-    <v>-1.8217000000000001E-2</v>
+    <v>1.3326</v>
+    <v>1.7</v>
+    <v>-8.6719999999999996E-5</v>
+    <v>1.4962999999999999E-2</v>
+    <v>-0.01</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -1402,25 +1444,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>122.69750000000001</v>
+    <v>115.675</v>
     <v>52</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44740.724942013279</v>
+    <v>44743.943950010937</v>
     <v>53</v>
-    <v>118.18</v>
-    <v>26892529040</v>
+    <v>113.13500000000001</v>
+    <v>26209570000</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>121.29</v>
-    <v>9.7474000000000007</v>
-    <v>120.51</v>
-    <v>118.3147</v>
+    <v>113.62</v>
+    <v>9.1892999999999994</v>
+    <v>113.61</v>
+    <v>115.31</v>
+    <v>115.3</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>928890</v>
-    <v>1810395</v>
+    <v>1310726</v>
+    <v>1813930</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -1443,10 +1486,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>202.26</v>
-    <v>149.1</v>
-    <v>0.97060000000000002</v>
-    <v>-0.25</v>
-    <v>-1.606E-3</v>
+    <v>147.02000000000001</v>
+    <v>0.9708</v>
+    <v>-5.1100000000000003</v>
+    <v>1.077E-3</v>
+    <v>-3.3257000000000002E-2</v>
+    <v>0.16</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
@@ -1454,24 +1499,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, P.O. BOX 660199, DALLAS, TX, 75266 US</v>
-    <v>158.99</v>
+    <v>152.28</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44740.735399478908</v>
+    <v>44743.995822974219</v>
     <v>56</v>
-    <v>154.74</v>
-    <v>143271944043</v>
+    <v>147.02000000000001</v>
+    <v>136973800000</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>156.74</v>
-    <v>17.794599999999999</v>
-    <v>155.62</v>
-    <v>155.37</v>
+    <v>150.35</v>
+    <v>17.569400000000002</v>
+    <v>153.65</v>
+    <v>148.54</v>
+    <v>148.69999999999999</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>1969359</v>
-    <v>5884153</v>
+    <v>8740209</v>
+    <v>5846536</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -1495,9 +1541,11 @@
     <v>4</v>
     <v>233.72</v>
     <v>165.34</v>
-    <v>1.1334</v>
-    <v>-1.2250000000000001</v>
-    <v>-6.7379999999999992E-3</v>
+    <v>1.1005</v>
+    <v>2.4500000000000002</v>
+    <v>-6.2170000000000003E-3</v>
+    <v>1.3422E-2</v>
+    <v>-1.1499999999999999</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -1505,24 +1553,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>185.27250000000001</v>
+    <v>186.11</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44740.735349560156</v>
+    <v>44743.996956770316</v>
     <v>59</v>
-    <v>180.3</v>
-    <v>157789105344</v>
+    <v>181.51</v>
+    <v>161638000000</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>182.7</v>
-    <v>14.826700000000001</v>
-    <v>181.81</v>
-    <v>180.58500000000001</v>
+    <v>181.78</v>
+    <v>14.886200000000001</v>
+    <v>182.54</v>
+    <v>184.99</v>
+    <v>183.84</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>1064844</v>
-    <v>3575509</v>
+    <v>2962475</v>
+    <v>3536465</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1546,9 +1595,11 @@
     <v>4</v>
     <v>56.85</v>
     <v>45.548900000000003</v>
-    <v>0.39129999999999998</v>
-    <v>-0.315</v>
-    <v>-6.1809999999999999E-3</v>
+    <v>0.37809999999999999</v>
+    <v>0.89</v>
+    <v>-1.1620000000000001E-3</v>
+    <v>1.7537000000000001E-2</v>
+    <v>-0.06</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
@@ -1556,24 +1607,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>51.3</v>
+    <v>51.77</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44740.735373089847</v>
+    <v>44743.999665578121</v>
     <v>62</v>
     <v>50.58</v>
-    <v>212690970380</v>
+    <v>216869600000</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>51.07</v>
-    <v>9.9133999999999993</v>
     <v>50.96</v>
-    <v>50.645000000000003</v>
+    <v>9.8725000000000005</v>
+    <v>50.75</v>
+    <v>51.64</v>
+    <v>51.58</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>8981343</v>
-    <v>20115961</v>
+    <v>14189318</v>
+    <v>19437573</v>
     <v>1983</v>
   </rv>
   <rv s="2">
@@ -1595,11 +1647,13 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>57.83</v>
-    <v>36.6</v>
-    <v>0.64629999999999999</v>
-    <v>-0.55000000000000004</v>
-    <v>-1.4237999999999999E-2</v>
+    <v>57.454999999999998</v>
+    <v>35.880000000000003</v>
+    <v>0.66739999999999999</v>
+    <v>-1.07</v>
+    <v>2.477E-3</v>
+    <v>-2.8601999999999999E-2</v>
+    <v>0.09</v>
     <v>USD</v>
     <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
     <v>121100</v>
@@ -1607,24 +1661,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
-    <v>39.020000000000003</v>
+    <v>37.200000000000003</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44740.735382534374</v>
+    <v>44743.999870520311</v>
     <v>65</v>
-    <v>37.935000000000002</v>
-    <v>155709120000</v>
+    <v>35.880000000000003</v>
+    <v>148594300000</v>
     <v>INTEL CORPORATION</v>
     <v>INTEL CORPORATION</v>
-    <v>38.630000000000003</v>
-    <v>6.4249000000000001</v>
-    <v>38.630000000000003</v>
-    <v>38.08</v>
+    <v>37.090000000000003</v>
+    <v>6.2220000000000004</v>
+    <v>37.409999999999997</v>
+    <v>36.340000000000003</v>
+    <v>36.43</v>
     <v>4089000000</v>
     <v>INTC</v>
     <v>INTEL CORPORATION (XNAS:INTC)</v>
-    <v>19937830</v>
-    <v>36544125</v>
+    <v>40596289</v>
+    <v>36407393</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -1655,7 +1710,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1676,6 +1733,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1702,7 +1760,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -1717,6 +1777,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -1755,7 +1816,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1777,6 +1840,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1790,7 +1854,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1801,13 +1865,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1834,7 +1901,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="34">
+    <a count="37">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1845,13 +1912,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1870,7 +1940,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1881,13 +1951,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1916,7 +1989,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="15">
+  <spbData count="14">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1954,13 +2027,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -1990,20 +2069,19 @@
       <v>4</v>
       <v>7</v>
       <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="7">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>from previous close</v>
       <v>GMT</v>
-    </spb>
-    <spb s="4">
       <v>Delayed 15 minutes</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>GMT</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -2015,7 +2093,7 @@
       <v>0</v>
     </spb>
     <spb s="9">
-      <v>11</v>
+      <v>10</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -2043,6 +2121,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -2090,6 +2171,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2097,6 +2181,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -2121,6 +2208,9 @@
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2128,6 +2218,9 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2162,6 +2255,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2257,14 +2353,14 @@
     <tableColumn id="18" xr3:uid="{A931B3EF-00A4-4531-894A-E140C01F03C1}" name="FCF" dataCellStyle="Currency"/>
     <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="9"/>
     <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2570,7 +2666,7 @@
   <dimension ref="B2:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,40 +2705,40 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="S2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
@@ -2655,7 +2751,7 @@
       </c>
       <c r="D3" s="10" cm="1">
         <f t="array" ref="D3">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>138.69499999999999</v>
+        <v>138.93</v>
       </c>
       <c r="E3" s="1" cm="1">
         <f t="array" ref="E3">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2667,7 +2763,7 @@
       </c>
       <c r="G3" s="7" cm="1">
         <f t="array" ref="G3">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>23.026199999999999</v>
+        <v>22.223199999999999</v>
       </c>
       <c r="H3" s="8">
         <v>0.92</v>
@@ -2680,14 +2776,12 @@
       </c>
       <c r="K3" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.3260391506543136E-2</v>
+        <v>4.3187216583891165E-2</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M3" s="6"/>
       <c r="N3" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
@@ -2720,7 +2814,7 @@
       </c>
       <c r="D4" s="10" cm="1">
         <f t="array" ref="D4">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>35.01</v>
+        <v>34.96</v>
       </c>
       <c r="E4" s="1" cm="1">
         <f t="array" ref="E4">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2738,20 +2832,20 @@
         <v>2.92</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1">
         <v>2.92</v>
       </c>
       <c r="K4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.3404741502427882E-2</v>
+        <v>8.3524027459954228E-2</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2781,7 +2875,7 @@
       </c>
       <c r="D5" s="10" cm="1">
         <f t="array" ref="D5">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>255.82</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="E5" s="1" cm="1">
         <f t="array" ref="E5">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2793,7 +2887,7 @@
       </c>
       <c r="G5" s="7" cm="1">
         <f t="array" ref="G5">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>44.865400000000001</v>
+        <v>44.218299999999999</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -2803,11 +2897,9 @@
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M5" s="6"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -2834,7 +2926,7 @@
       </c>
       <c r="D6" s="10" cm="1">
         <f t="array" ref="D6">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>630.87</v>
+        <v>616.70000000000005</v>
       </c>
       <c r="E6" s="1" cm="1">
         <f t="array" ref="E6">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2846,7 +2938,7 @@
       </c>
       <c r="G6" s="7" cm="1">
         <f t="array" ref="G6">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>16.0017</v>
+        <v>15.301299999999999</v>
       </c>
       <c r="H6" s="8">
         <v>19.52</v>
@@ -2857,14 +2949,12 @@
       </c>
       <c r="K6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0941398386355349E-2</v>
+        <v>3.1652343116588287E-2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2897,7 +2987,7 @@
       </c>
       <c r="D7" s="10" cm="1">
         <f t="array" ref="D7">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>222.36500000000001</v>
+        <v>223.86</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2909,7 +2999,7 @@
       </c>
       <c r="G7" s="7" cm="1">
         <f t="array" ref="G7">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>19.1403</v>
+        <v>18.947600000000001</v>
       </c>
       <c r="H7" s="8">
         <v>5.04</v>
@@ -2920,14 +3010,12 @@
       </c>
       <c r="K7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2665437456434241E-2</v>
+        <v>2.2514071294559099E-2</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="2">
         <v>2.4E-2</v>
       </c>
@@ -2960,7 +3048,7 @@
       </c>
       <c r="D8" s="10" cm="1">
         <f t="array" ref="D8">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>2246.2199999999998</v>
+        <v>2174.75</v>
       </c>
       <c r="E8" s="1" cm="1">
         <f t="array" ref="E8">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -2972,7 +3060,7 @@
       </c>
       <c r="G8" s="7" cm="1">
         <f t="array" ref="G8">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>20.9559</v>
+        <v>19.713000000000001</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -2985,14 +3073,12 @@
       </c>
       <c r="K8" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.4519236762204956E-2</v>
+        <v>4.5982296815725944E-2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3025,7 +3111,7 @@
       </c>
       <c r="D9" s="10" cm="1">
         <f t="array" ref="D9">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>272.95999999999998</v>
+        <v>279.08</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3037,7 +3123,7 @@
       </c>
       <c r="G9" s="7" cm="1">
         <f t="array" ref="G9">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.944900000000001</v>
+        <v>17.410399999999999</v>
       </c>
       <c r="H9" s="8">
         <v>7.6</v>
@@ -3048,14 +3134,12 @@
       </c>
       <c r="K9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.784290738569754E-2</v>
+        <v>2.7232334814390139E-2</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M9" s="6"/>
       <c r="N9" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -3088,7 +3172,7 @@
       </c>
       <c r="D10" s="10" cm="1">
         <f t="array" ref="D10">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>116.4606</v>
+        <v>114.05</v>
       </c>
       <c r="E10" s="1" cm="1">
         <f t="array" ref="E10">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3096,11 +3180,11 @@
       </c>
       <c r="F10" s="1" cm="1">
         <f t="array" ref="F10">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>111.48</v>
+        <v>110.93</v>
       </c>
       <c r="G10" s="7" cm="1">
         <f t="array" ref="G10">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>8.6363000000000003</v>
+        <v>8.3566000000000003</v>
       </c>
       <c r="H10" s="8">
         <v>4</v>
@@ -3111,14 +3195,12 @@
       </c>
       <c r="K10" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.4346379805702529E-2</v>
+        <v>3.5072336694432264E-2</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="2">
         <v>0.03</v>
       </c>
@@ -3151,7 +3233,7 @@
       </c>
       <c r="D11" s="10" cm="1">
         <f t="array" ref="D11">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>62.685000000000002</v>
+        <v>64.38</v>
       </c>
       <c r="E11" s="1" cm="1">
         <f t="array" ref="E11">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3173,11 +3255,9 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M11" s="6"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3204,7 +3284,7 @@
       </c>
       <c r="D12" s="10" cm="1">
         <f t="array" ref="D12">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>422.99</v>
+        <v>433.52</v>
       </c>
       <c r="E12" s="1" cm="1">
         <f t="array" ref="E12">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3216,7 +3296,7 @@
       </c>
       <c r="G12" s="7" cm="1">
         <f t="array" ref="G12">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.512699999999999</v>
+        <v>18.985700000000001</v>
       </c>
       <c r="H12" s="8">
         <v>11.2</v>
@@ -3227,14 +3307,12 @@
       </c>
       <c r="K12" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6478167332561052E-2</v>
+        <v>2.5835024912345451E-2</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="2">
         <v>2.7E-2</v>
       </c>
@@ -3267,7 +3345,7 @@
       </c>
       <c r="D13" s="10" cm="1">
         <f t="array" ref="D13">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>178.22</v>
+        <v>177.36</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3279,7 +3357,7 @@
       </c>
       <c r="G13" s="7" cm="1">
         <f t="array" ref="G13">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>15.016400000000001</v>
+        <v>14.238</v>
       </c>
       <c r="H13" s="8">
         <v>4.2</v>
@@ -3290,14 +3368,12 @@
       </c>
       <c r="K13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.3566378633150042E-2</v>
+        <v>2.3680649526387008E-2</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M13" s="6"/>
       <c r="N13" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3330,7 +3406,7 @@
       </c>
       <c r="D14" s="10" cm="1">
         <f t="array" ref="D14">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>258.61</v>
+        <v>259.58</v>
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3342,7 +3418,7 @@
       </c>
       <c r="G14" s="7" cm="1">
         <f t="array" ref="G14">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>27.636299999999999</v>
+        <v>26.795400000000001</v>
       </c>
       <c r="H14" s="8">
         <v>2.48</v>
@@ -3355,14 +3431,12 @@
       </c>
       <c r="K14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0934611963961176E-2</v>
+        <v>3.0819015332460131E-2</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
@@ -3395,7 +3469,7 @@
       </c>
       <c r="D15" s="10" cm="1">
         <f t="array" ref="D15">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>165.81</v>
+        <v>169.39</v>
       </c>
       <c r="E15" s="1" cm="1">
         <f t="array" ref="E15">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3403,11 +3477,11 @@
       </c>
       <c r="F15" s="1" cm="1">
         <f t="array" ref="F15">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>146.4</v>
+        <v>147.77000000000001</v>
       </c>
       <c r="G15" s="7" cm="1">
         <f t="array" ref="G15">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.3324</v>
+        <v>22.373999999999999</v>
       </c>
       <c r="H15" s="8">
         <v>4.5999999999999996</v>
@@ -3418,14 +3492,12 @@
       </c>
       <c r="K15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7742596948314335E-2</v>
+        <v>2.7156266603695613E-2</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -3458,7 +3530,7 @@
       </c>
       <c r="D16" s="10" cm="1">
         <f t="array" ref="D16">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>100.32</v>
+        <v>95.68</v>
       </c>
       <c r="E16" s="1" cm="1">
         <f t="array" ref="E16">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3466,11 +3538,11 @@
       </c>
       <c r="F16" s="1" cm="1">
         <f t="array" ref="F16">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>93.5</v>
+        <v>93.2</v>
       </c>
       <c r="G16" s="7" cm="1">
         <f t="array" ref="G16">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.769299999999999</v>
+        <v>14.0022</v>
       </c>
       <c r="H16" s="8">
         <v>6.8</v>
@@ -3481,14 +3553,12 @@
       </c>
       <c r="K16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>6.778309409888357E-2</v>
+        <v>7.1070234113712369E-2</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M16" s="6"/>
       <c r="N16" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -3521,7 +3591,7 @@
       </c>
       <c r="D17" s="10" cm="1">
         <f t="array" ref="D17">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>118.3147</v>
+        <v>115.31</v>
       </c>
       <c r="E17" s="1" cm="1">
         <f t="array" ref="E17">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3533,7 +3603,7 @@
       </c>
       <c r="G17" s="7" cm="1">
         <f t="array" ref="G17">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.7474000000000007</v>
+        <v>9.1892999999999994</v>
       </c>
       <c r="H17" s="8">
         <v>4.8</v>
@@ -3544,14 +3614,12 @@
       </c>
       <c r="K17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.0569768591730358E-2</v>
+        <v>4.1626918740785702E-2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M17" s="6"/>
       <c r="N17" s="2">
         <v>2.7E-2</v>
       </c>
@@ -3584,7 +3652,7 @@
       </c>
       <c r="D18" s="10" cm="1">
         <f t="array" ref="D18">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>155.37</v>
+        <v>148.54</v>
       </c>
       <c r="E18" s="1" cm="1">
         <f t="array" ref="E18">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3592,11 +3660,11 @@
       </c>
       <c r="F18" s="1" cm="1">
         <f t="array" ref="F18">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>149.1</v>
+        <v>147.02000000000001</v>
       </c>
       <c r="G18" s="7" cm="1">
         <f t="array" ref="G18">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.794599999999999</v>
+        <v>17.569400000000002</v>
       </c>
       <c r="H18" s="8">
         <v>4.5999999999999996</v>
@@ -3607,14 +3675,12 @@
       </c>
       <c r="K18" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.9606745188903903E-2</v>
+        <v>3.0968089403527667E-2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M18" s="6"/>
       <c r="N18" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3647,7 +3713,7 @@
       </c>
       <c r="D19" s="10" cm="1">
         <f t="array" ref="D19">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>180.58500000000001</v>
+        <v>184.99</v>
       </c>
       <c r="E19" s="1" cm="1">
         <f t="array" ref="E19">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3659,7 +3725,7 @@
       </c>
       <c r="G19" s="7" cm="1">
         <f t="array" ref="G19">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.826700000000001</v>
+        <v>14.886200000000001</v>
       </c>
       <c r="H19" s="8">
         <v>6.08</v>
@@ -3670,14 +3736,12 @@
       </c>
       <c r="K19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.3668355622006256E-2</v>
+        <v>3.2866641440077844E-2</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="M19" s="6"/>
       <c r="N19" s="2">
         <v>2.7E-2</v>
       </c>
@@ -3710,7 +3774,7 @@
       </c>
       <c r="D20" s="10" cm="1">
         <f t="array" ref="D20">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>50.645000000000003</v>
+        <v>51.64</v>
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
@@ -3722,7 +3786,7 @@
       </c>
       <c r="G20" s="7" cm="1">
         <f t="array" ref="G20">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.9133999999999993</v>
+        <v>9.8725000000000005</v>
       </c>
       <c r="H20" s="8">
         <v>2.56</v>
@@ -3733,13 +3797,13 @@
       </c>
       <c r="K20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>5.0547931681311088E-2</v>
+        <v>4.9573973663826494E-2</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="N20" s="2">
         <v>4.4999999999999998E-2</v>
@@ -3773,32 +3837,56 @@
       </c>
       <c r="D21" s="10" cm="1">
         <f t="array" ref="D21">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>38.08</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="E21" s="1" cm="1">
         <f t="array" ref="E21">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>57.83</v>
+        <v>57.454999999999998</v>
       </c>
       <c r="F21" s="1" cm="1">
         <f t="array" ref="F21">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>36.6</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="G21" s="7" cm="1">
         <f t="array" ref="G21">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>6.4249000000000001</v>
-      </c>
-      <c r="H21" s="8"/>
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1.46</v>
+      </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="J21" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="K21" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>4.0176114474408359E-2</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>50.34482758620689</v>
+      </c>
+      <c r="R21" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>47.096774193548384</v>
+      </c>
+      <c r="S21" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>41.714285714285708</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="645" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B9BA30-D5DE-462A-9F59-FD9BA7D33A90}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BB82D0-FE90-42A9-99CD-7787D503AFE3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
+    <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
   <sheets>
     <sheet name="WatchList" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="20">
+  <futureMetadata name="XLRICHVALUE" count="21">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -60,7 +60,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
+          <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
@@ -130,14 +130,14 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="37"/>
+          <xlrd:rvb i="33"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="43"/>
+          <xlrd:rvb i="40"/>
         </ext>
       </extLst>
     </bk>
@@ -158,7 +158,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="55"/>
+          <xlrd:rvb i="52"/>
         </ext>
       </extLst>
     </bk>
@@ -190,13 +190,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="70"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="20">
+  <valueMetadata count="21">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -256,13 +263,16 @@
     </bk>
     <bk>
       <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
   <si>
     <t>Ticker</t>
   </si>
@@ -326,6 +336,69 @@
   <si>
     <t>HYLG</t>
   </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>DG+</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>[Mar-Jun-Sep-Dec]</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>[Feb-May-Aug-Nov]</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>[Jan-Apr-Jul-Oct]</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>[Apr-Jul-Sep-Dec]</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>[Jan-May-Jul-Oct]</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>[Apr-Jun-Sep-Dec]</t>
+  </si>
+  <si>
+    <t>Div-Inc</t>
+  </si>
+  <si>
+    <t>Ex-Div</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +450,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -392,7 +471,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -408,30 +487,68 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -440,7 +557,16 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,6 +584,75 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -473,15 +668,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +792,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="68">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="71">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -626,10 +812,8 @@
     <v>182.94</v>
     <v>129.04</v>
     <v>1.1947000000000001</v>
-    <v>2.21</v>
-    <v>6.4780000000000003E-4</v>
-    <v>1.6164000000000001E-2</v>
-    <v>0.09</v>
+    <v>1.085</v>
+    <v>7.8100000000000001E-3</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
@@ -637,35 +821,39 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>139.04</v>
+    <v>140.36000000000001</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44743.999905786717</v>
+    <v>44747.756941897656</v>
     <v>0</v>
-    <v>135.66</v>
-    <v>2248607000000</v>
+    <v>136.935</v>
+    <v>2266167977700</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>136.04</v>
-    <v>22.223199999999999</v>
-    <v>136.72</v>
+    <v>137.69999999999999</v>
+    <v>22.5825</v>
     <v>138.93</v>
-    <v>139.02000000000001</v>
+    <v>140.01499999999999</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>71051552</v>
-    <v>85083165</v>
+    <v>44327596</v>
+    <v>84225919</v>
     <v>1977</v>
   </rv>
   <rv s="2">
     <v>1</v>
+  </rv>
+  <rv s="3">
+    <v>12</v>
+    <v>P/E</v>
+    <v>0</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1nfbh&amp;q=ARCX%3aAMLP&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="3">
+  <rv s="4">
     <v>en-US</v>
     <v>a1nfbh</v>
     <v>268435456</v>
@@ -679,38 +867,29 @@
     <v>8</v>
     <v>42.18</v>
     <v>30.04</v>
-    <v>3.0623999999999998</v>
-    <v>0.51</v>
-    <v>4.2909999999999997E-3</v>
-    <v>1.4803999999999999E-2</v>
-    <v>0.15</v>
+    <v>-1.81</v>
+    <v>-5.1773E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>35.085000000000001</v>
+    <v>34.450000000000003</v>
     <v>ETF</v>
-    <v>44743.999329270315</v>
-    <v>3</v>
-    <v>33.79</v>
-    <v>6879973740.8900003</v>
+    <v>44747.756798575778</v>
+    <v>4</v>
+    <v>32.97</v>
+    <v>5716911300.1700001</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>34.67</v>
-    <v>34.450000000000003</v>
+    <v>34.369999999999997</v>
     <v>34.96</v>
-    <v>35.11</v>
+    <v>33.15</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>2068907</v>
-    <v>3527531</v>
+    <v>2568871</v>
+    <v>3463136</v>
   </rv>
   <rv s="2">
-    <v>4</v>
-  </rv>
-  <rv s="4">
-    <v>12</v>
-    <v>P/E</v>
-    <v>0</v>
+    <v>5</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1ngur&amp;q=XNYS%3aAMT&amp;form=skydnc</v>
@@ -727,14 +906,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>303.72000000000003</v>
     <v>220</v>
     <v>0.45810000000000001</v>
-    <v>2.81</v>
-    <v>1.9349999999999999E-4</v>
-    <v>1.0993999999999999E-2</v>
-    <v>0.05</v>
+    <v>-4.63</v>
+    <v>-1.7918E-2</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
@@ -742,25 +919,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116 US</v>
-    <v>259.03500000000003</v>
+    <v>255.80600000000001</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44743.992537106249</v>
+    <v>44747.74653061328</v>
     <v>7</v>
-    <v>252.44</v>
-    <v>120077800000</v>
+    <v>249.63</v>
+    <v>117926259198</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>254.53</v>
-    <v>44.218299999999999</v>
-    <v>255.59</v>
+    <v>255.49</v>
+    <v>44.704500000000003</v>
     <v>258.39999999999998</v>
-    <v>258.45</v>
+    <v>253.77</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>1363377</v>
-    <v>2551385</v>
+    <v>696577</v>
+    <v>2510205</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -785,10 +961,8 @@
     <v>973.16</v>
     <v>575.6</v>
     <v>1.2698</v>
-    <v>7.66</v>
-    <v>5.0270000000000002E-4</v>
-    <v>1.2577E-2</v>
-    <v>0.31</v>
+    <v>-3.82</v>
+    <v>-6.1939999999999999E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
@@ -796,25 +970,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>619.27</v>
+    <v>613.09259999999995</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44743.997858680472</v>
+    <v>44747.75693459453</v>
     <v>10</v>
-    <v>605.97799999999995</v>
+    <v>597.50009999999997</v>
     <v>93432050000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>607.25</v>
-    <v>15.301299999999999</v>
-    <v>609.04</v>
+    <v>607.62</v>
+    <v>15.4937</v>
     <v>616.70000000000005</v>
-    <v>617.01</v>
+    <v>612.88</v>
     <v>151503300</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>502755</v>
-    <v>968705</v>
+    <v>254811</v>
+    <v>950444</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -839,10 +1012,8 @@
     <v>254.99</v>
     <v>182.66</v>
     <v>0.89810000000000001</v>
-    <v>2.61</v>
-    <v>3.261E-3</v>
-    <v>1.1797E-2</v>
-    <v>0.73</v>
+    <v>-12.315</v>
+    <v>-5.5011999999999998E-2</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
@@ -850,25 +1021,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>224.48</v>
+    <v>221.04</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44743.988253760937</v>
+    <v>44747.756930682815</v>
     <v>13</v>
-    <v>219.73500000000001</v>
-    <v>62167070000</v>
+    <v>209.84</v>
+    <v>58747125379</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>221.24</v>
-    <v>18.947600000000001</v>
-    <v>221.25</v>
+    <v>220.46</v>
+    <v>19.171099999999999</v>
     <v>223.86</v>
-    <v>224.59</v>
+    <v>211.54499999999999</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>705833</v>
-    <v>1362969</v>
+    <v>895971</v>
+    <v>1331254</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -889,14 +1059,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>3030.9315000000001</v>
     <v>2037.6936000000001</v>
     <v>1.1000000000000001</v>
-    <v>-4.51</v>
-    <v>-3.0990000000000002E-3</v>
-    <v>-2.0699999999999998E-3</v>
-    <v>-6.74</v>
+    <v>59.14</v>
+    <v>2.7193999999999999E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -904,25 +1072,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2185</v>
+    <v>2241.7399999999998</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44743.999931087499</v>
+    <v>44747.746538749998</v>
     <v>16</v>
-    <v>2134.61</v>
+    <v>2114.63</v>
     <v>1434226000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2158.66</v>
-    <v>19.713000000000001</v>
-    <v>2179.2600000000002</v>
+    <v>2142.0100000000002</v>
+    <v>19.6722</v>
     <v>2174.75</v>
-    <v>2168.0100000000002</v>
+    <v>2233.89</v>
     <v>658499900</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1773783</v>
-    <v>1874009</v>
+    <v>1174607</v>
+    <v>1864446</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -947,10 +1114,8 @@
     <v>420.61</v>
     <v>264.51</v>
     <v>0.98970000000000002</v>
-    <v>4.8099999999999996</v>
-    <v>1.075E-3</v>
-    <v>1.7537000000000001E-2</v>
-    <v>0.3</v>
+    <v>1.96</v>
+    <v>7.0230000000000006E-3</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
@@ -958,29 +1123,79 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2455 Paces Ferry Rd SE, 2455 PACES FERRY ROAD, ATLANTA, GA, 30339-4024 US</v>
-    <v>280.75</v>
+    <v>281.41000000000003</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44743.99964704844</v>
+    <v>44747.756945647656</v>
     <v>19</v>
-    <v>274.55</v>
-    <v>286825800000</v>
+    <v>275.5</v>
+    <v>288840265200</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>275.73</v>
-    <v>17.410399999999999</v>
-    <v>274.27</v>
+    <v>275.505</v>
+    <v>17.715699999999998</v>
     <v>279.08</v>
-    <v>279.38</v>
+    <v>281.04000000000002</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>2818310</v>
-    <v>4549713</v>
+    <v>1518984</v>
+    <v>4477928</v>
     <v>1978</v>
   </rv>
   <rv s="2">
     <v>20</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmf2&amp;q=XNAS%3aINTC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1vmf2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>INTEL CORPORATION (XNAS:INTC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>57.454999999999998</v>
+    <v>35.54</v>
+    <v>0.66739999999999999</v>
+    <v>-0.185</v>
+    <v>-5.091E-3</v>
+    <v>USD</v>
+    <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
+    <v>121100</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
+    <v>36.319899999999997</v>
+    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>Stock</v>
+    <v>44747.756953633594</v>
+    <v>22</v>
+    <v>35.54</v>
+    <v>147837795000</v>
+    <v>INTEL CORPORATION</v>
+    <v>INTEL CORPORATION</v>
+    <v>35.86</v>
+    <v>6.0439999999999996</v>
+    <v>36.340000000000003</v>
+    <v>36.155000000000001</v>
+    <v>4089000000</v>
+    <v>INTC</v>
+    <v>INTEL CORPORATION (XNAS:INTC)</v>
+    <v>18476168</v>
+    <v>36979921</v>
+    <v>1989</v>
+  </rv>
+  <rv s="2">
+    <v>23</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
@@ -999,12 +1214,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>172.96</v>
-    <v>110.93</v>
+    <v>109.3</v>
     <v>1.1452</v>
-    <v>1.44</v>
-    <v>-4.3839999999999998E-4</v>
-    <v>1.2787E-2</v>
-    <v>-0.05</v>
+    <v>-1.61</v>
+    <v>-1.4240999999999998E-2</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
@@ -1012,29 +1225,28 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>114.41500000000001</v>
+    <v>111.565</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44743.999971017969</v>
-    <v>22</v>
-    <v>111.16</v>
+    <v>44747.75695760391</v>
+    <v>25</v>
+    <v>109.3</v>
     <v>334970600000</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>112.65</v>
-    <v>8.3566000000000003</v>
-    <v>112.61</v>
-    <v>114.05</v>
-    <v>114</v>
+    <v>110.9</v>
+    <v>8.3892000000000007</v>
+    <v>113.05</v>
+    <v>111.44</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>10573577</v>
-    <v>13008337</v>
+    <v>6621714</v>
+    <v>12920065</v>
     <v>1968</v>
   </rv>
   <rv s="2">
-    <v>23</v>
+    <v>26</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
@@ -1051,14 +1263,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>67.2</v>
     <v>52.28</v>
     <v>0.5575</v>
-    <v>1.47</v>
-    <v>3.1070000000000002E-4</v>
-    <v>2.3366999999999999E-2</v>
-    <v>0.02</v>
+    <v>-1.4</v>
+    <v>-2.1745999999999998E-2</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
@@ -1066,29 +1276,28 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>64.45</v>
+    <v>64.180000000000007</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44743.999656550783</v>
-    <v>25</v>
-    <v>62.82</v>
-    <v>279089200000</v>
+    <v>44747.746530497658</v>
+    <v>28</v>
+    <v>62.414999999999999</v>
+    <v>273020126420</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>63.12</v>
-    <v>26.533200000000001</v>
-    <v>62.91</v>
+    <v>64.180000000000007</v>
+    <v>27.153199999999998</v>
     <v>64.38</v>
-    <v>64.400000000000006</v>
+    <v>62.98</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>15143204</v>
-    <v>17823571</v>
+    <v>7027968</v>
+    <v>17814880</v>
     <v>1919</v>
   </rv>
   <rv s="2">
-    <v>26</v>
+    <v>29</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wzw7&amp;q=XNYS%3aLMT&amp;form=skydnc</v>
@@ -1109,10 +1318,8 @@
     <v>479.99</v>
     <v>324.2278</v>
     <v>0.72709999999999997</v>
-    <v>3.56</v>
-    <v>5.3050000000000005E-4</v>
-    <v>8.2799999999999992E-3</v>
-    <v>0.23</v>
+    <v>-21.445</v>
+    <v>-4.9466999999999997E-2</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1120,29 +1327,28 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>434.96</v>
+    <v>425.45030000000003</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44743.992748738281</v>
-    <v>28</v>
-    <v>424.48</v>
-    <v>115362700000</v>
+    <v>44747.756894154685</v>
+    <v>31</v>
+    <v>407.21</v>
+    <v>109656042025</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>429.74</v>
-    <v>18.985700000000001</v>
-    <v>429.96</v>
+    <v>424.41</v>
+    <v>19.142900000000001</v>
     <v>433.52</v>
-    <v>433.75</v>
+    <v>412.07499999999999</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>1296938</v>
-    <v>1321910</v>
+    <v>1099244</v>
+    <v>1332494</v>
     <v>1994</v>
   </rv>
   <rv s="2">
-    <v>29</v>
+    <v>32</v>
   </rv>
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Public_domain</v>
@@ -1153,13 +1359,13 @@
     <v>Wikipedia</v>
   </rv>
   <rv s="5">
-    <v>31</v>
-    <v>32</v>
+    <v>34</v>
+    <v>35</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
-    <v>33</v>
+    <v>36</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
     <v>Image of LOWE'S COMPANIES, INC.</v>
@@ -1174,19 +1380,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>9</v>
+    <v>10</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>11</v>
     <v>12</v>
+    <v>13</v>
     <v>Finance</v>
     <v>4</v>
     <v>263.31</v>
     <v>170.12</v>
     <v>1.25</v>
-    <v>2.69</v>
-    <v>-2.8760000000000001E-3</v>
-    <v>1.54E-2</v>
-    <v>-0.51</v>
+    <v>1.33</v>
+    <v>7.4990000000000005E-3</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1194,43 +1398,42 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>178.59</v>
-    <v>34</v>
+    <v>178.7525</v>
+    <v>37</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44743.999108645316</v>
-    <v>35</v>
-    <v>174.64</v>
-    <v>113355900000</v>
+    <v>44747.756942071093</v>
+    <v>38</v>
+    <v>174.48929999999999</v>
+    <v>114205925272</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>175.83</v>
-    <v>14.238</v>
-    <v>174.67</v>
+    <v>175.4</v>
+    <v>14.4573</v>
     <v>177.36</v>
-    <v>176.85</v>
+    <v>178.69</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>3095545</v>
-    <v>3933634</v>
+    <v>1746562</v>
+    <v>3897998</v>
     <v>1952</v>
   </rv>
   <rv s="2">
-    <v>36</v>
+    <v>39</v>
   </rv>
   <rv s="0">
     <v>https://en.wikipedia.org/wiki/Microsoft</v>
     <v>Wikipedia</v>
   </rv>
   <rv s="5">
-    <v>31</v>
-    <v>38</v>
+    <v>34</v>
+    <v>41</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
-    <v>39</v>
+    <v>42</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
     <v>Image of MICROSOFT CORPORATION</v>
@@ -1245,19 +1448,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>9</v>
+    <v>10</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>11</v>
     <v>12</v>
+    <v>13</v>
     <v>Finance</v>
     <v>4</v>
     <v>349.67</v>
     <v>241.51</v>
     <v>0.93049999999999999</v>
-    <v>2.75</v>
-    <v>7.7049999999999992E-4</v>
-    <v>1.0707E-2</v>
-    <v>0.2</v>
+    <v>-0.40739999999999998</v>
+    <v>-1.5690000000000001E-3</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1265,30 +1466,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>259.77</v>
-    <v>40</v>
+    <v>260.30500000000001</v>
+    <v>43</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44743.999790856251</v>
-    <v>41</v>
-    <v>254.61</v>
-    <v>1941407000000</v>
+    <v>44747.756964825778</v>
+    <v>44</v>
+    <v>254.75</v>
+    <v>1938360428095</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>256.39</v>
-    <v>26.795400000000001</v>
-    <v>256.83</v>
+    <v>256.02999999999997</v>
+    <v>27.0823</v>
     <v>259.58</v>
-    <v>259.77999999999997</v>
+    <v>259.17259999999999</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>22837692</v>
-    <v>29591601</v>
+    <v>12263082</v>
+    <v>29363191</v>
     <v>1993</v>
   </rv>
   <rv s="2">
-    <v>42</v>
+    <v>45</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=axyhnm&amp;q=XNAS%3aPEP&amp;form=skydnc</v>
@@ -1309,10 +1509,8 @@
     <v>177.62</v>
     <v>147.77000000000001</v>
     <v>0.56599999999999995</v>
-    <v>2.73</v>
-    <v>5.9040000000000004E-5</v>
-    <v>1.6381E-2</v>
-    <v>0.01</v>
+    <v>-2.4049999999999998</v>
+    <v>-1.4197999999999999E-2</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1320,29 +1518,28 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>169.52</v>
+    <v>169.39</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44743.996959548436</v>
-    <v>44</v>
-    <v>165.76</v>
-    <v>234212800000</v>
+    <v>44747.756946885936</v>
+    <v>47</v>
+    <v>165.33</v>
+    <v>230887487740</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>166.74</v>
-    <v>22.373999999999999</v>
-    <v>166.66</v>
+    <v>169.24</v>
+    <v>22.740500000000001</v>
     <v>169.39</v>
-    <v>169.4</v>
+    <v>166.98500000000001</v>
     <v>1382684000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>3918710</v>
-    <v>5605891</v>
+    <v>2141167</v>
+    <v>5531398</v>
     <v>1986</v>
   </rv>
   <rv s="2">
-    <v>45</v>
+    <v>48</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23d6h&amp;q=XNYS%3aSPG&amp;form=skydnc</v>
@@ -1363,10 +1560,8 @@
     <v>171.12</v>
     <v>93.2</v>
     <v>1.4962</v>
-    <v>0.76</v>
-    <v>4.4940000000000006E-3</v>
-    <v>8.0070000000000002E-3</v>
-    <v>0.43</v>
+    <v>0.95</v>
+    <v>9.9290000000000003E-3</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -1374,42 +1569,41 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>95.97</v>
+    <v>96.79</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44743.993483124999</v>
-    <v>47</v>
-    <v>93.79</v>
-    <v>31444140000</v>
+    <v>44747.756673726566</v>
+    <v>50</v>
+    <v>93.545000000000002</v>
+    <v>31756347918</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>94.35</v>
-    <v>14.0022</v>
-    <v>94.92</v>
+    <v>95.165000000000006</v>
+    <v>14.1143</v>
     <v>95.68</v>
-    <v>96.11</v>
+    <v>96.63</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>1709191</v>
-    <v>2462374</v>
+    <v>910796</v>
+    <v>2437745</v>
     <v>1998</v>
   </rv>
   <rv s="2">
-    <v>48</v>
+    <v>51</v>
   </rv>
   <rv s="0">
     <v>http://it.wikipedia.org/wiki/T._Rowe_Price</v>
     <v>Wikipedia</v>
   </rv>
   <rv s="5">
-    <v>31</v>
-    <v>50</v>
+    <v>34</v>
+    <v>53</v>
   </rv>
   <rv s="6">
-    <v>13</v>
+    <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_4c600be848f66590834841f27e6f786d&amp;qlt=95</v>
-    <v>51</v>
+    <v>54</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=t.+rowe+price</v>
     <v>Image of T. ROWE PRICE GROUP, INC.</v>
@@ -1424,19 +1618,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>9</v>
+    <v>10</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>11</v>
     <v>12</v>
+    <v>13</v>
     <v>Finance</v>
     <v>4</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
     <v>1.3326</v>
-    <v>1.7</v>
-    <v>-8.6719999999999996E-5</v>
-    <v>1.4962999999999999E-2</v>
-    <v>-0.01</v>
+    <v>-0.18</v>
+    <v>-1.5609999999999999E-3</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -1444,30 +1636,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>115.675</v>
-    <v>52</v>
+    <v>115.34</v>
+    <v>55</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44743.943950010937</v>
-    <v>53</v>
-    <v>113.13500000000001</v>
-    <v>26209570000</v>
+    <v>44747.75692274297</v>
+    <v>56</v>
+    <v>112.32</v>
+    <v>26168657558</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>113.62</v>
-    <v>9.1892999999999994</v>
-    <v>113.61</v>
+    <v>113.3</v>
+    <v>9.3268000000000004</v>
     <v>115.31</v>
-    <v>115.3</v>
+    <v>115.13</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>1310726</v>
-    <v>1813930</v>
+    <v>527629</v>
+    <v>1802103</v>
     <v>2000</v>
   </rv>
   <rv s="2">
-    <v>54</v>
+    <v>57</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24p1h&amp;q=XNAS%3aTXN&amp;form=skydnc</v>
@@ -1484,14 +1675,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>202.26</v>
-    <v>147.02000000000001</v>
+    <v>144.4589</v>
     <v>0.9708</v>
-    <v>-5.1100000000000003</v>
-    <v>1.077E-3</v>
-    <v>-3.3257000000000002E-2</v>
-    <v>0.16</v>
+    <v>-1.2649999999999999</v>
+    <v>-8.516000000000001E-3</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
@@ -1499,29 +1688,28 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, P.O. BOX 660199, DALLAS, TX, 75266 US</v>
-    <v>152.28</v>
+    <v>147.75</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44743.995822974219</v>
-    <v>56</v>
-    <v>147.02000000000001</v>
-    <v>136973800000</v>
+    <v>44747.746493182814</v>
+    <v>59</v>
+    <v>144.4589</v>
+    <v>135807270122</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>150.35</v>
-    <v>17.569400000000002</v>
-    <v>153.65</v>
+    <v>145.72999999999999</v>
+    <v>16.984999999999999</v>
     <v>148.54</v>
-    <v>148.69999999999999</v>
+    <v>147.27500000000001</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>8740209</v>
-    <v>5846536</v>
+    <v>4419179</v>
+    <v>6007660</v>
     <v>1938</v>
   </rv>
   <rv s="2">
-    <v>57</v>
+    <v>60</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24ynm&amp;q=XNYS%3aUPS&amp;form=skydnc</v>
@@ -1542,10 +1730,8 @@
     <v>233.72</v>
     <v>165.34</v>
     <v>1.1005</v>
-    <v>2.4500000000000002</v>
-    <v>-6.2170000000000003E-3</v>
-    <v>1.3422E-2</v>
-    <v>-1.1499999999999999</v>
+    <v>-1.85</v>
+    <v>-1.0000999999999999E-2</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -1553,29 +1739,28 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>186.11</v>
+    <v>184.33</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44743.996956770316</v>
-    <v>59</v>
-    <v>181.51</v>
-    <v>161638000000</v>
+    <v>44747.75687192109</v>
+    <v>62</v>
+    <v>181.73</v>
+    <v>160021578496</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>181.78</v>
-    <v>14.886200000000001</v>
-    <v>182.54</v>
+    <v>182.58</v>
+    <v>15.086</v>
     <v>184.99</v>
-    <v>183.84</v>
+    <v>183.14</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>2962475</v>
-    <v>3536465</v>
+    <v>1284136</v>
+    <v>3520160</v>
     <v>1999</v>
   </rv>
   <rv s="2">
-    <v>60</v>
+    <v>63</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25obh&amp;q=XNYS%3aVZ&amp;form=skydnc</v>
@@ -1596,10 +1781,8 @@
     <v>56.85</v>
     <v>45.548900000000003</v>
     <v>0.37809999999999999</v>
-    <v>0.89</v>
-    <v>-1.1620000000000001E-3</v>
-    <v>1.7537000000000001E-2</v>
-    <v>-0.06</v>
+    <v>-0.65</v>
+    <v>-1.2586999999999999E-2</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
@@ -1607,83 +1790,79 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>51.77</v>
+    <v>51.45</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44743.999665578121</v>
-    <v>62</v>
-    <v>50.58</v>
-    <v>216869600000</v>
+    <v>44747.756894096878</v>
+    <v>65</v>
+    <v>50.48</v>
+    <v>214139847560</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>50.96</v>
-    <v>9.8725000000000005</v>
-    <v>50.75</v>
+    <v>51.42</v>
+    <v>10.0457</v>
     <v>51.64</v>
-    <v>51.58</v>
+    <v>50.99</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>14189318</v>
-    <v>19437573</v>
+    <v>11374655</v>
+    <v>19211886</v>
     <v>1983</v>
   </rv>
   <rv s="2">
-    <v>63</v>
+    <v>66</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmf2&amp;q=XNAS%3aINTC&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xoc7&amp;q=XNYS%3aMKC&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a1vmf2</v>
+    <v>a1xoc7</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>INTEL CORPORATION (XNAS:INTC)</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>57.454999999999998</v>
-    <v>35.880000000000003</v>
-    <v>0.66739999999999999</v>
-    <v>-1.07</v>
-    <v>2.477E-3</v>
-    <v>-2.8601999999999999E-2</v>
-    <v>0.09</v>
+    <v>107.35</v>
+    <v>77.849999999999994</v>
+    <v>0.49469999999999997</v>
+    <v>0.86</v>
+    <v>1.0403000000000001E-2</v>
     <v>USD</v>
-    <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
-    <v>121100</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
-    <v>37.200000000000003</v>
-    <v>Semiconductors &amp; Semiconductor Equipment</v>
+    <v>McCormick &amp; Company, Incorporated is engaged in manufacturing, marketing and distributing spices, seasoning mixes, condiments and other flavorful products to the entire food industry retailers, food manufacturers and foodservice businesses. The Company operates through two business segments: Consumer and Flavor Solutions. In Consumer segment, it sells its products under the McCormick brand and a variety of brands around the world, including French's, Frank's RedHot, Lawry’s, Zatarain’s, Simply Asia, Thai Kitchen, Ducros, Vahine, Cholula, Schwartz, Club House, Kamis, DaQiao, Drogheria &amp; Alimentari, Stubb's, OLD BAY and Gourmet Garden. In Flavor Solutions segment, the Company provides a range of products to multinational food manufacturers and foodservice customers. Its sales, distribution and production facilities are located in North America, Europe and China, and additional facilities are based in Australia, Central America, Thailand and South Africa.</v>
+    <v>14000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>24 Schilling Road, HUNT VALLEY, MD, 21031 US</v>
+    <v>83.844999999999999</v>
+    <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44743.999870520311</v>
-    <v>65</v>
-    <v>35.880000000000003</v>
-    <v>148594300000</v>
-    <v>INTEL CORPORATION</v>
-    <v>INTEL CORPORATION</v>
-    <v>37.090000000000003</v>
-    <v>6.2220000000000004</v>
-    <v>37.409999999999997</v>
-    <v>36.340000000000003</v>
-    <v>36.43</v>
-    <v>4089000000</v>
-    <v>INTC</v>
-    <v>INTEL CORPORATION (XNAS:INTC)</v>
-    <v>40596289</v>
-    <v>36407393</v>
-    <v>1989</v>
+    <v>44747.756759339842</v>
+    <v>68</v>
+    <v>81.760000000000005</v>
+    <v>22180450000</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
+    <v>82.7</v>
+    <v>32.647500000000001</v>
+    <v>82.67</v>
+    <v>83.53</v>
+    <v>268296700</v>
+    <v>MKC</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
+    <v>817273</v>
+    <v>1410232</v>
+    <v>1915</v>
   </rv>
   <rv s="2">
-    <v>66</v>
+    <v>69</v>
   </rv>
 </rvData>
 </file>
@@ -1710,9 +1889,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1733,7 +1910,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1743,6 +1919,11 @@
   </s>
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
+  </s>
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="field" t="s"/>
+    <k n="subType" t="i"/>
   </s>
   <s t="_linkedentitycore">
     <k n="%EntityCulture" t="s"/>
@@ -1758,11 +1939,8 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
-    <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -1777,16 +1955,10 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
     <k n="Volume average"/>
-  </s>
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="field" t="s"/>
-    <k n="subType" t="i"/>
   </s>
   <s t="_sourceattribution">
     <k n="License" t="r"/>
@@ -1816,9 +1988,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1840,7 +2010,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1854,7 +2023,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1865,16 +2034,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1901,7 +2067,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="37">
+    <a count="33">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1912,16 +2078,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1932,7 +2095,6 @@
       <v t="s">Volume</v>
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
-      <v t="s">Beta</v>
       <v t="s">Instrument type</v>
       <v t="s">_Flags</v>
       <v t="s">UniqueName</v>
@@ -1940,7 +2102,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1951,16 +2113,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1989,7 +2148,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="14">
+  <spbData count="15">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -2027,19 +2186,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2053,7 +2206,6 @@
     </spb>
     <spb s="6">
       <v>1</v>
-      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -2069,19 +2221,20 @@
       <v>4</v>
       <v>7</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="7">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>GMT</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
-      <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -2093,7 +2246,7 @@
       <v>0</v>
     </spb>
     <spb s="9">
-      <v>10</v>
+      <v>11</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -2121,9 +2274,6 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -2171,9 +2321,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2181,9 +2328,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -2192,7 +2336,6 @@
   </s>
   <s>
     <k n="Low" t="i"/>
-    <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
     <k n="Open" t="i"/>
@@ -2208,9 +2351,6 @@
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2218,9 +2358,6 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2255,9 +2392,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2327,40 +2461,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:S21" totalsRowShown="0">
-  <autoFilter ref="B2:S21" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:S20">
-    <sortCondition ref="C2:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:U22" totalsRowShown="0">
+  <autoFilter ref="B2:U22" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:T21">
+    <sortCondition ref="B2:B21"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{B52242EB-A076-4D9B-9BD0-7A8D77EE5FD2}" name="Company"/>
+  <tableColumns count="20">
     <tableColumn id="19" xr3:uid="{0D4021FB-72A6-4FAE-8878-F2BC7BFA553F}" name="Ticker">
-      <calculatedColumnFormula>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="13">
-      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Price")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="10">
+      <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="12">
-      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="21">
+      <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="11">
-      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="20">
+      <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="10">
-      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="19">
+      <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0AB95A9E-6D9E-473D-93EC-53E15CDF47CE}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="18" xr3:uid="{A931B3EF-00A4-4531-894A-E140C01F03C1}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{30D7B8FE-2C2A-4708-B0E5-B46D899BC480}" name="Div-Inc" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="22" xr3:uid="{DE22146C-89DC-41BC-A945-68A0FE353621}" name="Ex-Div" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="17"/>
+    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="14" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{821399A3-CD94-45E1-9CF5-B50E506B06BD}" name="Company" dataDxfId="9" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2663,1233 +2799,1477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09701121-D4EB-45B4-BB3E-1F27B86BB078}">
-  <dimension ref="B2:S21"/>
+  <dimension ref="B2:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="str" cm="1">
+        <f t="array" ref="B3">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="C3" s="1" cm="1">
+        <f t="array" ref="C3">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>140.01499999999999</v>
+      </c>
+      <c r="D3" s="1" cm="1">
+        <f t="array" ref="D3">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>182.94</v>
+      </c>
+      <c r="E3" s="1" cm="1">
+        <f t="array" ref="E3">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>129.04</v>
+      </c>
+      <c r="F3" s="7" cm="1">
+        <f t="array" ref="F3">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>22.5825</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>4.2852551512337966E-2</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>AAPL</v>
-      </c>
-      <c r="D3" s="10" cm="1">
-        <f t="array" ref="D3">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>138.93</v>
-      </c>
-      <c r="E3" s="1" cm="1">
-        <f t="array" ref="E3">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>182.94</v>
-      </c>
-      <c r="F3" s="1" cm="1">
-        <f t="array" ref="F3">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>129.04</v>
-      </c>
-      <c r="G3" s="7" cm="1">
-        <f t="array" ref="G3">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.223199999999999</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.92</v>
-      </c>
-      <c r="I3" s="8">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.3187216583891165E-2</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="2">
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>0.04</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>180.18018018018017</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>150</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>128.47965738758032</v>
       </c>
+      <c r="U3" s="2" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="e" vm="2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="str" cm="1">
+        <f t="array" ref="B4">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>AMLP</v>
+      </c>
+      <c r="C4" s="1" cm="1">
+        <f t="array" ref="C4">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>33.15</v>
+      </c>
+      <c r="D4" s="1" cm="1">
+        <f t="array" ref="D4">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>42.18</v>
+      </c>
+      <c r="E4" s="1" cm="1">
+        <f t="array" ref="E4">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>30.04</v>
+      </c>
+      <c r="F4" s="7" t="e" cm="1" vm="2">
+        <f t="array" ref="F4">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C4" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>AMLP</v>
-      </c>
-      <c r="D4" s="10" cm="1">
-        <f t="array" ref="D4">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>34.96</v>
-      </c>
-      <c r="E4" s="1" cm="1">
-        <f t="array" ref="E4">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>42.18</v>
-      </c>
-      <c r="F4" s="1" cm="1">
-        <f t="array" ref="F4">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>30.04</v>
-      </c>
-      <c r="G4" s="7" t="e" cm="1" vm="3">
-        <f t="array" ref="G4">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
         <v>2.92</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1">
         <v>2.92</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.3524027459954228E-2</v>
-      </c>
-      <c r="L4" s="5" t="s">
+        <v>8.8084464555052797E-2</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
         <v>0.08</v>
       </c>
-      <c r="Q4" s="3" t="e">
+      <c r="R4" s="3" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="3" t="e">
+      <c r="S4" s="13" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>36.5</v>
       </c>
+      <c r="U4" s="2" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" t="e" vm="4">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="str" cm="1">
+        <f t="array" ref="B5">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>AMT</v>
+      </c>
+      <c r="C5" s="1" cm="1">
+        <f t="array" ref="C5">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>253.77</v>
+      </c>
+      <c r="D5" s="1" cm="1">
+        <f t="array" ref="D5">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>303.72000000000003</v>
+      </c>
+      <c r="E5" s="1" cm="1">
+        <f t="array" ref="E5">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>220</v>
+      </c>
+      <c r="F5" s="7" cm="1">
+        <f t="array" ref="F5">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>44.704500000000003</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5.72</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.72</v>
+      </c>
+      <c r="L5" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.2540095361941914E-2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>286</v>
+      </c>
+      <c r="S5" s="13">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>254.22222222222223</v>
+      </c>
+      <c r="T5" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>228.79999999999998</v>
+      </c>
+      <c r="U5" s="2" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C5" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>AMT</v>
-      </c>
-      <c r="D5" s="10" cm="1">
-        <f t="array" ref="D5">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>258.39999999999998</v>
-      </c>
-      <c r="E5" s="1" cm="1">
-        <f t="array" ref="E5">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>303.72000000000003</v>
-      </c>
-      <c r="F5" s="1" cm="1">
-        <f t="array" ref="F5">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" cm="1">
-        <f t="array" ref="G5">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>44.218299999999999</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2">
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" t="str" cm="1">
+        <f t="array" ref="B6">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>BLK</v>
+      </c>
+      <c r="C6" s="1" cm="1">
+        <f t="array" ref="C6">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>612.88</v>
+      </c>
+      <c r="D6" s="1" cm="1">
+        <f t="array" ref="D6">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>973.16</v>
+      </c>
+      <c r="E6" s="1" cm="1">
+        <f t="array" ref="E6">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>575.6</v>
+      </c>
+      <c r="F6" s="7" cm="1">
+        <f t="array" ref="F6">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>15.4937</v>
+      </c>
+      <c r="G6" s="8">
+        <v>19.52</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1">
+        <v>19.52</v>
+      </c>
+      <c r="L6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
+        <v>3.1849627985902622E-2</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>BLK</v>
-      </c>
-      <c r="D6" s="10" cm="1">
-        <f t="array" ref="D6">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>616.70000000000005</v>
-      </c>
-      <c r="E6" s="1" cm="1">
-        <f t="array" ref="E6">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>973.16</v>
-      </c>
-      <c r="F6" s="1" cm="1">
-        <f t="array" ref="F6">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>575.6</v>
-      </c>
-      <c r="G6" s="7" cm="1">
-        <f t="array" ref="G6">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>15.301299999999999</v>
-      </c>
-      <c r="H6" s="8">
-        <v>19.52</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="1">
-        <v>19.52</v>
-      </c>
-      <c r="K6" s="2">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.1652343116588287E-2</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="2">
+      <c r="N6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>780.8</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>722.96296296296293</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>650.66666666666663</v>
       </c>
+      <c r="U6" s="2" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="str" cm="1">
+        <f t="array" ref="B7">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>GD</v>
       </c>
-      <c r="D7" s="10" cm="1">
-        <f t="array" ref="D7">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>223.86</v>
+      <c r="C7" s="1" cm="1">
+        <f t="array" ref="C7">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>211.54499999999999</v>
+      </c>
+      <c r="D7" s="1" cm="1">
+        <f t="array" ref="D7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>254.99</v>
       </c>
       <c r="E7" s="1" cm="1">
-        <f t="array" ref="E7">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>254.99</v>
-      </c>
-      <c r="F7" s="1" cm="1">
-        <f t="array" ref="F7">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+        <f t="array" ref="E7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>182.66</v>
       </c>
-      <c r="G7" s="7" cm="1">
-        <f t="array" ref="G7">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.947600000000001</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="F7" s="7" cm="1">
+        <f t="array" ref="F7">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>19.171099999999999</v>
+      </c>
+      <c r="G7" s="8">
         <v>5.04</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="1">
+      <c r="H7" s="8"/>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="1">
         <v>5.04</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2514071294559099E-2</v>
-      </c>
-      <c r="L7" s="6" t="s">
+        <v>2.3824718145075516E-2</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="2">
+      <c r="N7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="R7" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>210</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>186.66666666666666</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>162.58064516129033</v>
       </c>
+      <c r="U7" s="2" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>GOOGL</v>
       </c>
-      <c r="D8" s="10" cm="1">
-        <f t="array" ref="D8">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>2174.75</v>
+      <c r="C8" s="1" cm="1">
+        <f t="array" ref="C8">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>2233.89</v>
+      </c>
+      <c r="D8" s="1" cm="1">
+        <f t="array" ref="D8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>3030.9315000000001</v>
       </c>
       <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>3030.9315000000001</v>
-      </c>
-      <c r="F8" s="1" cm="1">
-        <f t="array" ref="F8">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+        <f t="array" ref="E8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>2037.6936000000001</v>
       </c>
-      <c r="G8" s="7" cm="1">
-        <f t="array" ref="G8">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>19.713000000000001</v>
+      <c r="F8" s="7" cm="1">
+        <f t="array" ref="F8">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>19.6722</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
         <v>98</v>
       </c>
-      <c r="J8" s="1">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.5982296815725944E-2</v>
-      </c>
-      <c r="L8" s="5" t="s">
+        <v>4.4764961569280497E-2</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="2">
+      <c r="N8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>0.04</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>3030.30303030303</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>2141.3276231263385</v>
       </c>
+      <c r="U8" s="2" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="D9" s="10" cm="1">
-        <f t="array" ref="D9">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>279.08</v>
+      <c r="C9" s="1" cm="1">
+        <f t="array" ref="C9">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>281.04000000000002</v>
+      </c>
+      <c r="D9" s="1" cm="1">
+        <f t="array" ref="D9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>420.61</v>
       </c>
       <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>420.61</v>
-      </c>
-      <c r="F9" s="1" cm="1">
-        <f t="array" ref="F9">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+        <f t="array" ref="E9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>264.51</v>
       </c>
-      <c r="G9" s="7" cm="1">
-        <f t="array" ref="G9">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.410399999999999</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="7" cm="1">
+        <f t="array" ref="F9">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>17.715699999999998</v>
+      </c>
+      <c r="G9" s="8">
         <v>7.6</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="1">
+      <c r="H9" s="8"/>
+      <c r="I9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1">
         <v>7.6</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7232334814390139E-2</v>
-      </c>
-      <c r="L9" s="6" t="s">
+        <v>2.7042413891261028E-2</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="2">
+      <c r="N9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>361.90476190476187</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>330.43478260869563</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>281.48148148148147</v>
       </c>
+      <c r="U9" s="2" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" t="e" vm="9">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>INTC</v>
+      </c>
+      <c r="C10" s="1" cm="1">
+        <f t="array" ref="C10">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>36.155000000000001</v>
+      </c>
+      <c r="D10" s="1" cm="1">
+        <f t="array" ref="D10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>57.454999999999998</v>
+      </c>
+      <c r="E10" s="1" cm="1">
+        <f t="array" ref="E10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>35.54</v>
+      </c>
+      <c r="F10" s="7" cm="1">
+        <f t="array" ref="F10">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>4.0381689946065551E-2</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R10" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>50.34482758620689</v>
+      </c>
+      <c r="S10" s="13">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>47.096774193548384</v>
+      </c>
+      <c r="T10" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>41.714285714285708</v>
+      </c>
+      <c r="U10" s="2" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="C10" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>JPM</v>
       </c>
-      <c r="D10" s="10" cm="1">
-        <f t="array" ref="D10">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>114.05</v>
-      </c>
-      <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C11" s="1" cm="1">
+        <f t="array" ref="C11">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>111.44</v>
+      </c>
+      <c r="D11" s="1" cm="1">
+        <f t="array" ref="D11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>172.96</v>
       </c>
-      <c r="F10" s="1" cm="1">
-        <f t="array" ref="F10">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>110.93</v>
-      </c>
-      <c r="G10" s="7" cm="1">
-        <f t="array" ref="G10">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>8.3566000000000003</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="E11" s="1" cm="1">
+        <f t="array" ref="E11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>109.3</v>
+      </c>
+      <c r="F11" s="7" cm="1">
+        <f t="array" ref="F11">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>8.3892000000000007</v>
+      </c>
+      <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="1">
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L11" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.5072336694432264E-2</v>
-      </c>
-      <c r="L10" s="6" t="s">
+        <v>3.5893754486719311E-2</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="2">
+      <c r="N11" s="6"/>
+      <c r="O11" s="2">
         <v>0.03</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P11" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q11" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R11" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S11" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>121.2121212121212</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T11" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>100</v>
       </c>
+      <c r="U11" s="2" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" t="e" vm="10">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>KO</v>
+      </c>
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>62.98</v>
+      </c>
+      <c r="D12" s="1" cm="1">
+        <f t="array" ref="D12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>67.2</v>
+      </c>
+      <c r="E12" s="1" cm="1">
+        <f t="array" ref="E12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>52.28</v>
+      </c>
+      <c r="F12" s="7" cm="1">
+        <f t="array" ref="F12">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>27.153199999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="L12" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.794537948555097E-2</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P12" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="R12" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>58.666666666666671</v>
+      </c>
+      <c r="S12" s="13">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>53.333333333333329</v>
+      </c>
+      <c r="T12" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>44</v>
+      </c>
+      <c r="U12" s="2" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>KO</v>
-      </c>
-      <c r="D11" s="10" cm="1">
-        <f t="array" ref="D11">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>64.38</v>
-      </c>
-      <c r="E11" s="1" cm="1">
-        <f t="array" ref="E11">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>67.2</v>
-      </c>
-      <c r="F11" s="1" cm="1">
-        <f t="array" ref="F11">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>52.28</v>
-      </c>
-      <c r="G11" s="7" cm="1">
-        <f t="array" ref="G11">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>26.533200000000001</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>LMT</v>
+      </c>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>412.07499999999999</v>
+      </c>
+      <c r="D13" s="1" cm="1">
+        <f t="array" ref="D13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>479.99</v>
+      </c>
+      <c r="E13" s="1" cm="1">
+        <f t="array" ref="E13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>324.2278</v>
+      </c>
+      <c r="F13" s="7" cm="1">
+        <f t="array" ref="F13">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>19.142900000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="L13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
+        <v>2.7179518291573133E-2</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="3" t="e">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>LMT</v>
-      </c>
-      <c r="D12" s="10" cm="1">
-        <f t="array" ref="D12">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>433.52</v>
-      </c>
-      <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>479.99</v>
-      </c>
-      <c r="F12" s="1" cm="1">
-        <f t="array" ref="F12">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>324.2278</v>
-      </c>
-      <c r="G12" s="7" cm="1">
-        <f t="array" ref="G12">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>18.985700000000001</v>
-      </c>
-      <c r="H12" s="8">
-        <v>11.2</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="K12" s="2">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.5835024912345451E-2</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="2">
+      <c r="N13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P13" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q13" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R13" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>414.81481481481478</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S13" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>361.29032258064512</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T13" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>319.99999999999994</v>
       </c>
+      <c r="U13" s="2" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>LOW</v>
       </c>
-      <c r="D13" s="10" cm="1">
-        <f t="array" ref="D13">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>177.36</v>
-      </c>
-      <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C14" s="1" cm="1">
+        <f t="array" ref="C14">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>178.69</v>
+      </c>
+      <c r="D14" s="1" cm="1">
+        <f t="array" ref="D14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>263.31</v>
       </c>
-      <c r="F13" s="1" cm="1">
-        <f t="array" ref="F13">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E14" s="1" cm="1">
+        <f t="array" ref="E14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>170.12</v>
       </c>
-      <c r="G13" s="7" cm="1">
-        <f t="array" ref="G13">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.238</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="F14" s="7" cm="1">
+        <f t="array" ref="F14">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>14.4573</v>
+      </c>
+      <c r="G14" s="8">
         <v>4.2</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="1">
+      <c r="H14" s="8"/>
+      <c r="I14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1">
         <v>4.2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.3680649526387008E-2</v>
-      </c>
-      <c r="L13" s="6" t="s">
+        <v>2.3504393082992896E-2</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="2">
+      <c r="N14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P14" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q14" s="2">
         <v>0.02</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R14" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>280</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S14" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>233.33333333333337</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T14" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>210</v>
       </c>
+      <c r="U14" s="2" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="D14" s="10" cm="1">
-        <f t="array" ref="D14">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>259.58</v>
-      </c>
-      <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C15" s="1" cm="1">
+        <f t="array" ref="C15">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>259.17259999999999</v>
+      </c>
+      <c r="D15" s="1" cm="1">
+        <f t="array" ref="D15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>349.67</v>
       </c>
-      <c r="F14" s="1" cm="1">
-        <f t="array" ref="F14">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E15" s="1" cm="1">
+        <f t="array" ref="E15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>241.51</v>
       </c>
-      <c r="G14" s="7" cm="1">
-        <f t="array" ref="G14">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>26.795400000000001</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="F15" s="7" cm="1">
+        <f t="array" ref="F15">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>27.0823</v>
+      </c>
+      <c r="G15" s="8">
         <v>2.48</v>
       </c>
-      <c r="I14" s="8">
+      <c r="H15" s="8">
         <v>7.38</v>
       </c>
-      <c r="J14" s="1">
+      <c r="I15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="1">
         <v>8</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0819015332460131E-2</v>
-      </c>
-      <c r="L14" s="5" t="s">
+        <v>3.0867460526305637E-2</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="2">
+      <c r="N15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P15" s="2">
         <v>0.04</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q15" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R15" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>240.24024024024021</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S15" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T15" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>171.30620985010708</v>
       </c>
+      <c r="U15" s="2" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>PEP</v>
       </c>
-      <c r="D15" s="10" cm="1">
-        <f t="array" ref="D15">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>169.39</v>
-      </c>
-      <c r="E15" s="1" cm="1">
-        <f t="array" ref="E15">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C16" s="1" cm="1">
+        <f t="array" ref="C16">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>166.98500000000001</v>
+      </c>
+      <c r="D16" s="1" cm="1">
+        <f t="array" ref="D16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>177.62</v>
       </c>
-      <c r="F15" s="1" cm="1">
-        <f t="array" ref="F15">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E16" s="1" cm="1">
+        <f t="array" ref="E16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>147.77000000000001</v>
       </c>
-      <c r="G15" s="7" cm="1">
-        <f t="array" ref="G15">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>22.373999999999999</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="F16" s="7" cm="1">
+        <f t="array" ref="F16">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>22.740500000000001</v>
+      </c>
+      <c r="G16" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="1">
+      <c r="H16" s="8"/>
+      <c r="I16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7156266603695613E-2</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>2.7547384495613374E-2</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="2">
+      <c r="N16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P16" s="2">
         <v>0.03</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q16" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R16" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>164.28571428571428</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S16" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T16" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>139.39393939393938</v>
       </c>
+      <c r="U16" s="2" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>SPG</v>
       </c>
-      <c r="D16" s="10" cm="1">
-        <f t="array" ref="D16">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>95.68</v>
-      </c>
-      <c r="E16" s="1" cm="1">
-        <f t="array" ref="E16">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C17" s="1" cm="1">
+        <f t="array" ref="C17">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>96.63</v>
+      </c>
+      <c r="D17" s="1" cm="1">
+        <f t="array" ref="D17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>171.12</v>
       </c>
-      <c r="F16" s="1" cm="1">
-        <f t="array" ref="F16">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E17" s="1" cm="1">
+        <f t="array" ref="E17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>93.2</v>
       </c>
-      <c r="G16" s="7" cm="1">
-        <f t="array" ref="G16">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.0022</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="F17" s="7" cm="1">
+        <f t="array" ref="F17">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>14.1143</v>
+      </c>
+      <c r="G17" s="8">
         <v>6.8</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="1">
+      <c r="H17" s="8"/>
+      <c r="I17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="1">
         <v>6.8</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>7.1070234113712369E-2</v>
-      </c>
-      <c r="L16" s="5" t="s">
+        <v>7.0371520231812063E-2</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="2">
+      <c r="N17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P17" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q17" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R17" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>151.11111111111111</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S17" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>123.63636363636363</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T17" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>104.61538461538461</v>
       </c>
+      <c r="U17" s="2" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TROW</v>
       </c>
-      <c r="D17" s="10" cm="1">
-        <f t="array" ref="D17">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>115.31</v>
-      </c>
-      <c r="E17" s="1" cm="1">
-        <f t="array" ref="E17">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C18" s="1" cm="1">
+        <f t="array" ref="C18">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>115.13</v>
+      </c>
+      <c r="D18" s="1" cm="1">
+        <f t="array" ref="D18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>224.55500000000001</v>
       </c>
-      <c r="F17" s="1" cm="1">
-        <f t="array" ref="F17">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E18" s="1" cm="1">
+        <f t="array" ref="E18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>104.72</v>
       </c>
-      <c r="G17" s="7" cm="1">
-        <f t="array" ref="G17">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.1892999999999994</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="F18" s="7" cm="1">
+        <f t="array" ref="F18">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>9.3268000000000004</v>
+      </c>
+      <c r="G18" s="8">
         <v>4.8</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1">
+      <c r="H18" s="8"/>
+      <c r="I18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1">
         <v>4.8</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L18" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.1626918740785702E-2</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>4.1692000347433339E-2</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="2">
+      <c r="N18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P18" s="2">
         <v>0.03</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q18" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R18" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>177.77777777777777</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S18" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>160</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T18" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>145.45454545454544</v>
       </c>
+      <c r="U18" s="2" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TXN</v>
       </c>
-      <c r="D18" s="10" cm="1">
-        <f t="array" ref="D18">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>148.54</v>
-      </c>
-      <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C19" s="1" cm="1">
+        <f t="array" ref="C19">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>147.27500000000001</v>
+      </c>
+      <c r="D19" s="1" cm="1">
+        <f t="array" ref="D19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>202.26</v>
       </c>
-      <c r="F18" s="1" cm="1">
-        <f t="array" ref="F18">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>147.02000000000001</v>
-      </c>
-      <c r="G18" s="7" cm="1">
-        <f t="array" ref="G18">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>17.569400000000002</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="E19" s="1" cm="1">
+        <f t="array" ref="E19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>144.4589</v>
+      </c>
+      <c r="F19" s="7" cm="1">
+        <f t="array" ref="F19">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>16.984999999999999</v>
+      </c>
+      <c r="G19" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="1">
+      <c r="H19" s="8"/>
+      <c r="I19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0968089403527667E-2</v>
-      </c>
-      <c r="L18" s="5" t="s">
+        <v>3.1234085893736205E-2</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="2">
+      <c r="N19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P19" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q19" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R19" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>183.99999999999997</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S19" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>170.37037037037035</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T19" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>153.33333333333331</v>
       </c>
+      <c r="U19" s="2" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" t="str" cm="1">
+        <f t="array" ref="B20">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>UPS</v>
       </c>
-      <c r="D19" s="10" cm="1">
-        <f t="array" ref="D19">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>184.99</v>
-      </c>
-      <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C20" s="1" cm="1">
+        <f t="array" ref="C20">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>183.14</v>
+      </c>
+      <c r="D20" s="1" cm="1">
+        <f t="array" ref="D20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>233.72</v>
       </c>
-      <c r="F19" s="1" cm="1">
-        <f t="array" ref="F19">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E20" s="1" cm="1">
+        <f t="array" ref="E20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>165.34</v>
       </c>
-      <c r="G19" s="7" cm="1">
-        <f t="array" ref="G19">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>14.886200000000001</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="F20" s="7" cm="1">
+        <f t="array" ref="F20">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>15.086</v>
+      </c>
+      <c r="G20" s="8">
         <v>6.08</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="1">
+      <c r="H20" s="8"/>
+      <c r="I20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="1">
         <v>6.08</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.2866641440077844E-2</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>3.3198645844708968E-2</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="2">
+      <c r="N20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P20" s="2">
         <v>0.03</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q20" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="R20" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>225.18518518518519</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S20" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>202.66666666666669</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T20" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>173.71428571428569</v>
       </c>
+      <c r="U20" s="2" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
-      <c r="D20" s="10" cm="1">
-        <f t="array" ref="D20">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>51.64</v>
-      </c>
-      <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
+      <c r="C21" s="1" cm="1">
+        <f t="array" ref="C21">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>50.99</v>
+      </c>
+      <c r="D21" s="1" cm="1">
+        <f t="array" ref="D21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>56.85</v>
       </c>
-      <c r="F20" s="1" cm="1">
-        <f t="array" ref="F20">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
+      <c r="E21" s="1" cm="1">
+        <f t="array" ref="E21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>45.548900000000003</v>
       </c>
-      <c r="G20" s="7" cm="1">
-        <f t="array" ref="G20">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>9.8725000000000005</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="F21" s="7" cm="1">
+        <f t="array" ref="F21">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>10.0457</v>
+      </c>
+      <c r="G21" s="8">
         <v>2.56</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1">
+      <c r="H21" s="8"/>
+      <c r="I21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1">
         <v>2.56</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L21" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.9573973663826494E-2</v>
-      </c>
-      <c r="L20" s="5" t="s">
+        <v>5.0205922729947047E-2</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="N21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O21" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P21" s="2">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q21" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R21" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>56.888888888888893</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S21" s="13">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>53.89473684210526</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T21" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>51.199999999999996</v>
       </c>
+      <c r="U21" s="2" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" t="e" vm="20">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="str" cm="1">
+        <f t="array" ref="B22">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>MKC</v>
+      </c>
+      <c r="C22" s="1" cm="1">
+        <f t="array" ref="C22">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>83.53</v>
+      </c>
+      <c r="D22" s="1" cm="1">
+        <f t="array" ref="D22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>107.35</v>
+      </c>
+      <c r="E22" s="1" cm="1">
+        <f t="array" ref="E22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>77.849999999999994</v>
+      </c>
+      <c r="F22" s="7" cm="1">
+        <f t="array" ref="F22">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>32.647500000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="L22" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>1.7718185083203639E-2</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R22" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>74</v>
+      </c>
+      <c r="S22" s="13">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>67.27272727272728</v>
+      </c>
+      <c r="T22" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="U22" s="2" t="e" vm="21">
         <v>#VALUE!</v>
-      </c>
-      <c r="C21" t="str">
-        <f>_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>INTC</v>
-      </c>
-      <c r="D21" s="10" cm="1">
-        <f t="array" ref="D21">_FV(Table2[[#This Row],[Company]],"Price")</f>
-        <v>36.340000000000003</v>
-      </c>
-      <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">_FV(Table2[[#This Row],[Company]],"52 week high",TRUE)</f>
-        <v>57.454999999999998</v>
-      </c>
-      <c r="F21" s="1" cm="1">
-        <f t="array" ref="F21">_FV(Table2[[#This Row],[Company]],"52 week low",TRUE)</f>
-        <v>35.880000000000003</v>
-      </c>
-      <c r="G21" s="7" cm="1">
-        <f t="array" ref="G21">_FV(Table2[[#This Row],[Company]],"P/E",TRUE)</f>
-        <v>6.2220000000000004</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1.46</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1">
-        <v>1.46</v>
-      </c>
-      <c r="K21" s="2">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.0176114474408359E-2</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>3.1E-2</v>
-      </c>
-      <c r="P21" s="2">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
-        <v>50.34482758620689</v>
-      </c>
-      <c r="R21" s="3">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
-        <v>47.096774193548384</v>
-      </c>
-      <c r="S21" s="3">
-        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
-        <v>41.714285714285708</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>T3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>T3</formula>
+      <formula>R3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BB82D0-FE90-42A9-99CD-7787D503AFE3}"/>
+  <xr:revisionPtr revIDLastSave="1229" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AE5B9F-46B5-46F3-9DD7-081B994AC2C6}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
+    <workbookView xWindow="28620" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
   <sheets>
     <sheet name="WatchList" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="21">
+  <futureMetadata name="XLRICHVALUE" count="28">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -74,136 +74,185 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
+          <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
+          <xlrd:rvb i="10"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
+          <xlrd:rvb i="13"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
+          <xlrd:rvb i="20"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="21"/>
+          <xlrd:rvb i="23"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="24"/>
+          <xlrd:rvb i="26"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="27"/>
+          <xlrd:rvb i="29"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="30"/>
+          <xlrd:rvb i="32"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="33"/>
+          <xlrd:rvb i="35"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="40"/>
+          <xlrd:rvb i="38"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="46"/>
+          <xlrd:rvb i="41"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="49"/>
+          <xlrd:rvb i="44"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="52"/>
+          <xlrd:rvb i="47"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="58"/>
+          <xlrd:rvb i="50"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="61"/>
+          <xlrd:rvb i="56"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="64"/>
+          <xlrd:rvb i="62"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="67"/>
+          <xlrd:rvb i="65"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="70"/>
+          <xlrd:rvb i="68"/>
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="71"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="77"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="80"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="83"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="86"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="89"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="92"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="21">
+  <valueMetadata count="28">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -266,13 +315,34 @@
     </bk>
     <bk>
       <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
+    <bk>
+      <rc t="2" v="26"/>
+    </bk>
+    <bk>
+      <rc t="2" v="27"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>Ticker</t>
   </si>
@@ -301,16 +371,7 @@
     <t>MOS</t>
   </si>
   <si>
-    <t>PMOS</t>
-  </si>
-  <si>
     <t>FCF</t>
-  </si>
-  <si>
-    <t>FPL</t>
-  </si>
-  <si>
-    <t>FPH</t>
   </si>
   <si>
     <t>Type</t>
@@ -399,15 +460,49 @@
   <si>
     <t>Ex-Div</t>
   </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>MOSP</t>
+  </si>
+  <si>
+    <t>HighPrice</t>
+  </si>
+  <si>
+    <t>LowPrice</t>
+  </si>
+  <si>
+    <t>REIT</t>
+  </si>
+  <si>
+    <t>[Mar-May-Aug-Dec]</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Market cap</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -452,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +566,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -490,18 +585,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -543,6 +642,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -553,13 +655,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -580,25 +693,36 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -641,18 +765,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
@@ -661,13 +774,13 @@
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,7 +905,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="71">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="93">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -811,9 +924,11 @@
     <v>4</v>
     <v>182.94</v>
     <v>129.04</v>
-    <v>1.1947000000000001</v>
-    <v>1.085</v>
-    <v>7.8100000000000001E-3</v>
+    <v>1.1983999999999999</v>
+    <v>-2.17</v>
+    <v>4.1419999999999998E-4</v>
+    <v>-1.4758E-2</v>
+    <v>0.06</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
@@ -821,24 +936,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>140.36000000000001</v>
+    <v>146.63999999999999</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44747.756941897656</v>
+    <v>44753.921710092189</v>
     <v>0</v>
-    <v>136.935</v>
-    <v>2266167977700</v>
+    <v>143.78</v>
+    <v>2344747026600</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>137.69999999999999</v>
-    <v>22.5825</v>
-    <v>138.93</v>
-    <v>140.01499999999999</v>
+    <v>145.66999999999999</v>
+    <v>23.900700000000001</v>
+    <v>147.04</v>
+    <v>144.87</v>
+    <v>144.93</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>44327596</v>
-    <v>84225919</v>
+    <v>63139947</v>
+    <v>80974331</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -867,29 +983,38 @@
     <v>8</v>
     <v>42.18</v>
     <v>30.04</v>
-    <v>-1.81</v>
-    <v>-5.1773E-2</v>
+    <v>2.9746999999999999</v>
+    <v>-0.2</v>
+    <v>4.5950000000000001E-3</v>
+    <v>-5.7110000000000008E-3</v>
+    <v>0.16</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>34.450000000000003</v>
+    <v>35.01</v>
     <v>ETF</v>
-    <v>44747.756798575778</v>
+    <v>44753.891055231252</v>
     <v>4</v>
-    <v>32.97</v>
+    <v>34.18</v>
     <v>5716911300.1700001</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>34.369999999999997</v>
-    <v>34.96</v>
-    <v>33.15</v>
+    <v>34.65</v>
+    <v>35.020000000000003</v>
+    <v>34.82</v>
+    <v>34.979999999999997</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>2568871</v>
-    <v>3463136</v>
+    <v>1275413</v>
+    <v>3423000</v>
   </rv>
   <rv s="2">
     <v>5</v>
+  </rv>
+  <rv s="3">
+    <v>12</v>
+    <v>Industry</v>
+    <v>0</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1ngur&amp;q=XNYS%3aAMT&amp;form=skydnc</v>
@@ -909,38 +1034,41 @@
     <v>9</v>
     <v>303.72000000000003</v>
     <v>220</v>
-    <v>0.45810000000000001</v>
-    <v>-4.63</v>
-    <v>-1.7918E-2</v>
+    <v>0.45440000000000003</v>
+    <v>2.98</v>
+    <v>-1.124E-3</v>
+    <v>1.1686E-2</v>
+    <v>-0.28999999999999998</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>116 Huntington Ave, BOSTON, MA, 02116 US</v>
-    <v>255.80600000000001</v>
+    <v>116 Huntington Ave, BOSTON, MA, 02116-5749 US</v>
+    <v>258.45999999999998</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44747.74653061328</v>
-    <v>7</v>
-    <v>249.63</v>
-    <v>117926259198</v>
+    <v>44753.88380275391</v>
+    <v>8</v>
+    <v>252.49</v>
+    <v>119887282226</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>255.49</v>
-    <v>44.704500000000003</v>
-    <v>258.39999999999998</v>
-    <v>253.77</v>
+    <v>255</v>
+    <v>44.118000000000002</v>
+    <v>255.01</v>
+    <v>257.99</v>
+    <v>257.7</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>696577</v>
-    <v>2510205</v>
+    <v>1299529</v>
+    <v>2390086</v>
     <v>1996</v>
   </rv>
   <rv s="2">
-    <v>8</v>
+    <v>9</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1om4c&amp;q=XNYS%3aBLK&amp;form=skydnc</v>
@@ -960,9 +1088,11 @@
     <v>4</v>
     <v>973.16</v>
     <v>575.6</v>
-    <v>1.2698</v>
-    <v>-3.82</v>
-    <v>-6.1939999999999999E-3</v>
+    <v>1.2668999999999999</v>
+    <v>-15.04</v>
+    <v>3.3059999999999999E-3</v>
+    <v>-2.4275000000000001E-2</v>
+    <v>2</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
@@ -970,28 +1100,104 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>613.09259999999995</v>
+    <v>613.88499999999999</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44747.75693459453</v>
-    <v>10</v>
-    <v>597.50009999999997</v>
-    <v>93432050000</v>
+    <v>44753.92151490703</v>
+    <v>11</v>
+    <v>603.73</v>
+    <v>91586774916</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>607.62</v>
-    <v>15.4937</v>
-    <v>616.70000000000005</v>
-    <v>612.88</v>
+    <v>612.04</v>
+    <v>15.5656</v>
+    <v>619.55999999999995</v>
+    <v>604.52</v>
+    <v>607</v>
     <v>151503300</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>254811</v>
-    <v>950444</v>
+    <v>460064</v>
+    <v>785224</v>
     <v>2006</v>
   </rv>
   <rv s="2">
-    <v>11</v>
+    <v>12</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/The_Walt_Disney_Company</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="5">
+    <v>14</v>
+    <v>15</v>
+  </rv>
+  <rv s="6">
+    <v>14</v>
+    <v>https://www.bing.com/th?id=AMMS_0aa288ba528f6f45e3de87d97e250136&amp;qlt=95</v>
+    <v>16</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=the+walt+disney+company</v>
+    <v>Image of THE WALT DISNEY COMPANY</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1r2z2&amp;q=XNYS%3aDIS&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="7">
+    <v>en-US</v>
+    <v>a1r2z2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>10</v>
+    <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
+    <v>12</v>
+    <v>13</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>187.57990000000001</v>
+    <v>92.01</v>
+    <v>1.2337</v>
+    <v>-2.19</v>
+    <v>3.2039999999999998E-4</v>
+    <v>-2.2846000000000002E-2</v>
+    <v>0.03</v>
+    <v>USD</v>
+    <v>The Walt Disney Company is a worldwide entertainment company. The Company’s segments include Disney Media and Entertainment Distribution (DMED), and Disney Parks, Experiences and Products (DPEP). The DMED segment encompasses the Company’s global film and episodic television content production and distribution activities. The Company’s DMED’s lines of business consists of Linear Networks, Direct-to-Consumer and Content Sales/Licensing. The Company’s DPEP segment business consists of sale of admissions to theme parks, the sale of food, beverage and merchandise at its theme parks and resorts, sales of cruise vacations, sales and rentals of vacation club properties, royalties from licensing its intellectual properties (IP) for use on consumer goods and the sale of branded merchandise. The Content Sales/Licensing business consist of selling film and episodic television content in the television and subscription video-on-demand (TV/SVOD) and home entertainment markets.</v>
+    <v>190000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
+    <v>95.337500000000006</v>
+    <v>17</v>
+    <v>Media &amp; Publishing</v>
+    <v>Stock</v>
+    <v>44753.92132865703</v>
+    <v>18</v>
+    <v>93.43</v>
+    <v>170618406280</v>
+    <v>THE WALT DISNEY COMPANY</v>
+    <v>THE WALT DISNEY COMPANY</v>
+    <v>95</v>
+    <v>64.811400000000006</v>
+    <v>95.86</v>
+    <v>93.67</v>
+    <v>93.67</v>
+    <v>1821484000</v>
+    <v>DIS</v>
+    <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
+    <v>7643369</v>
+    <v>11000736</v>
+    <v>2018</v>
+  </rv>
+  <rv s="2">
+    <v>19</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1tppr&amp;q=XNYS%3aGD&amp;form=skydnc</v>
@@ -1008,12 +1214,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>254.99</v>
     <v>182.66</v>
-    <v>0.89810000000000001</v>
-    <v>-12.315</v>
-    <v>-5.5011999999999998E-2</v>
+    <v>0.89429999999999998</v>
+    <v>-1.36</v>
+    <v>0</v>
+    <v>-6.1510000000000002E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
@@ -1021,28 +1229,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>221.04</v>
+    <v>221.86</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44747.756930682815</v>
-    <v>13</v>
-    <v>209.84</v>
-    <v>58747125379</v>
+    <v>44753.910719640626</v>
+    <v>21</v>
+    <v>218.8</v>
+    <v>61025695725</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>220.46</v>
-    <v>19.171099999999999</v>
-    <v>223.86</v>
-    <v>211.54499999999999</v>
+    <v>219.68</v>
+    <v>18.935600000000001</v>
+    <v>221.11</v>
+    <v>219.75</v>
+    <v>219.75</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>895971</v>
-    <v>1331254</v>
+    <v>652226</v>
+    <v>1293485</v>
     <v>1952</v>
   </rv>
   <rv s="2">
-    <v>14</v>
+    <v>22</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1u3rw&amp;q=XNAS%3aGOOGL&amp;form=skydnc</v>
@@ -1062,9 +1271,11 @@
     <v>9</v>
     <v>3030.9315000000001</v>
     <v>2037.6936000000001</v>
-    <v>1.1000000000000001</v>
-    <v>59.14</v>
-    <v>2.7193999999999999E-2</v>
+    <v>1.1086</v>
+    <v>-73.540000000000006</v>
+    <v>5.2729999999999997E-4</v>
+    <v>-3.0807999999999999E-2</v>
+    <v>1.22</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -1072,28 +1283,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2241.7399999999998</v>
+    <v>2359.96</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44747.746538749998</v>
-    <v>16</v>
-    <v>2114.63</v>
-    <v>1434226000000</v>
+    <v>44753.910930786718</v>
+    <v>24</v>
+    <v>2306.61</v>
+    <v>1576993000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2142.0100000000002</v>
-    <v>19.6722</v>
-    <v>2174.75</v>
-    <v>2233.89</v>
+    <v>2359.96</v>
+    <v>21.5928</v>
+    <v>2387.0700000000002</v>
+    <v>2313.5300000000002</v>
+    <v>2314.75</v>
     <v>658499900</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1174607</v>
-    <v>1864446</v>
+    <v>1559522</v>
+    <v>1851498</v>
     <v>2015</v>
   </rv>
   <rv s="2">
-    <v>17</v>
+    <v>25</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1uj52&amp;q=XNYS%3aHD&amp;form=skydnc</v>
@@ -1113,38 +1325,149 @@
     <v>4</v>
     <v>420.61</v>
     <v>264.51</v>
-    <v>0.98970000000000002</v>
-    <v>1.96</v>
-    <v>7.0230000000000006E-3</v>
+    <v>0.99119999999999997</v>
+    <v>-0.2</v>
+    <v>7.333000000000001E-4</v>
+    <v>-6.9819999999999995E-4</v>
+    <v>0.21</v>
     <v>USD</v>
     <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>2455 Paces Ferry Rd SE, 2455 PACES FERRY ROAD, ATLANTA, GA, 30339-4024 US</v>
-    <v>281.41000000000003</v>
+    <v>2455 Paces Ferry Rd SE, ATLANTA, GA, 30339-6444 US</v>
+    <v>289.58999999999997</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44747.756945647656</v>
-    <v>19</v>
-    <v>275.5</v>
-    <v>288840265200</v>
+    <v>44753.917661365624</v>
+    <v>27</v>
+    <v>285.14</v>
+    <v>294215423850</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>275.505</v>
-    <v>17.715699999999998</v>
-    <v>279.08</v>
-    <v>281.04000000000002</v>
+    <v>285.18</v>
+    <v>18.184799999999999</v>
+    <v>286.47000000000003</v>
+    <v>286.27</v>
+    <v>286.60000000000002</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>1518984</v>
-    <v>4477928</v>
+    <v>2453164</v>
+    <v>4212151</v>
     <v>1978</v>
   </rv>
   <rv s="2">
-    <v>20</v>
+    <v>28</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1uv7w&amp;q=XNYS%3aHRL&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1uv7w</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>HORMEL FOODS CORPORATION (XNYS:HRL)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>55.11</v>
+    <v>40.479999999999997</v>
+    <v>0.1086</v>
+    <v>0.25</v>
+    <v>5.0210000000000003E-3</v>
+    <v>5.2580000000000005E-3</v>
+    <v>0.24</v>
+    <v>USD</v>
+    <v>Hormel Foods Corporation is a global food company. Its segments include Grocery Products, Refrigerated Foods, Jennie-O Turkey Store, and International &amp; Other. The Grocery Products segment consists primarily of the processing, marketing, and sale of shelf-stable food products sold predominantly in the retail market, along with the sale of nutritional and private label shelf-stable products to retail, foodservice, and industrial customers. The Refrigerated Foods segment consists primarily of the processing, marketing, and sale of branded and unbranded pork, beef, and poultry products for retail, foodservice, deli, convenience store, and commercial customers. The Jennie-O Turkey Store segment consists primarily of the processing, marketing, and sale of branded and unbranded turkey products for retail, foodservice, and commercial customers. The International &amp; Other segment includes Hormel Foods International, which manufactures, markets, and sells Company's products internationally.</v>
+    <v>20000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 Hormel Pl, AUSTIN, MN, 55912-3680 US</v>
+    <v>48.085000000000001</v>
+    <v>Food &amp; Tobacco</v>
+    <v>Stock</v>
+    <v>44753.906703066408</v>
+    <v>30</v>
+    <v>47.6</v>
+    <v>26101457680</v>
+    <v>HORMEL FOODS CORPORATION</v>
+    <v>HORMEL FOODS CORPORATION</v>
+    <v>47.61</v>
+    <v>27.1662</v>
+    <v>47.55</v>
+    <v>47.8</v>
+    <v>48.04</v>
+    <v>546055600</v>
+    <v>HRL</v>
+    <v>HORMEL FOODS CORPORATION (XNYS:HRL)</v>
+    <v>1275572</v>
+    <v>1932810</v>
+    <v>1928</v>
+  </rv>
+  <rv s="2">
+    <v>31</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1uwu2&amp;q=XNYS%3aHSY&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1uwu2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>231.595</v>
+    <v>167.8</v>
+    <v>0.33</v>
+    <v>0.71</v>
+    <v>0</v>
+    <v>3.2300000000000002E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>The Hershey Company is a confectionery company. It produces snack, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and also distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
+    <v>16620</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
+    <v>222.31</v>
+    <v>Food &amp; Tobacco</v>
+    <v>Stock</v>
+    <v>44753.866116712503</v>
+    <v>33</v>
+    <v>219.73</v>
+    <v>45335814300</v>
+    <v>THE HERSHEY COMPANY</v>
+    <v>THE HERSHEY COMPANY</v>
+    <v>219.73</v>
+    <v>28.259899999999998</v>
+    <v>219.79</v>
+    <v>220.5</v>
+    <v>220.5</v>
+    <v>205604600</v>
+    <v>HSY</v>
+    <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
+    <v>582497</v>
+    <v>1103690</v>
+    <v>1927</v>
+  </rv>
+  <rv s="2">
+    <v>34</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1vmf2&amp;q=XNAS%3aINTC&amp;form=skydnc</v>
@@ -1164,9 +1487,11 @@
     <v>4</v>
     <v>57.454999999999998</v>
     <v>35.54</v>
-    <v>0.66739999999999999</v>
-    <v>-0.185</v>
-    <v>-5.091E-3</v>
+    <v>0.66749999999999998</v>
+    <v>-0.79</v>
+    <v>3.7630000000000003E-3</v>
+    <v>-2.0794999999999998E-2</v>
+    <v>0.14000000000000001</v>
     <v>USD</v>
     <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
     <v>121100</v>
@@ -1174,28 +1499,29 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
-    <v>36.319899999999997</v>
+    <v>37.674999999999997</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44747.756953633594</v>
-    <v>22</v>
-    <v>35.54</v>
-    <v>147837795000</v>
+    <v>44753.92031415469</v>
+    <v>36</v>
+    <v>37.03</v>
+    <v>152110800000</v>
     <v>INTEL CORPORATION</v>
     <v>INTEL CORPORATION</v>
-    <v>35.86</v>
-    <v>6.0439999999999996</v>
-    <v>36.340000000000003</v>
-    <v>36.155000000000001</v>
+    <v>37.659999999999997</v>
+    <v>6.3185000000000002</v>
+    <v>37.99</v>
+    <v>37.200000000000003</v>
+    <v>37.340000000000003</v>
     <v>4089000000</v>
     <v>INTC</v>
     <v>INTEL CORPORATION (XNAS:INTC)</v>
-    <v>18476168</v>
-    <v>36979921</v>
+    <v>25903622</v>
+    <v>36373478</v>
     <v>1989</v>
   </rv>
   <rv s="2">
-    <v>23</v>
+    <v>37</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
@@ -1212,12 +1538,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>172.96</v>
     <v>109.3</v>
-    <v>1.1452</v>
-    <v>-1.61</v>
-    <v>-1.4240999999999998E-2</v>
+    <v>1.1428</v>
+    <v>-1.5</v>
+    <v>8.8610000000000007E-5</v>
+    <v>-1.3116000000000001E-2</v>
+    <v>0.01</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
@@ -1225,28 +1553,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>111.565</v>
+    <v>114.23</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44747.75695760391</v>
-    <v>25</v>
-    <v>109.3</v>
-    <v>334970600000</v>
+    <v>44753.909283089844</v>
+    <v>39</v>
+    <v>112.215</v>
+    <v>331475575860</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>110.9</v>
-    <v>8.3892000000000007</v>
-    <v>113.05</v>
-    <v>111.44</v>
+    <v>113.55</v>
+    <v>8.4863999999999997</v>
+    <v>114.36</v>
+    <v>112.86</v>
+    <v>112.87</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>6621714</v>
-    <v>12920065</v>
+    <v>7938609</v>
+    <v>12415074</v>
     <v>1968</v>
   </rv>
   <rv s="2">
-    <v>26</v>
+    <v>40</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
@@ -1263,12 +1592,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>67.2</v>
     <v>52.28</v>
-    <v>0.5575</v>
-    <v>-1.4</v>
-    <v>-2.1745999999999998E-2</v>
+    <v>0.55500000000000005</v>
+    <v>-0.17</v>
+    <v>-6.355E-4</v>
+    <v>-2.6919999999999999E-3</v>
+    <v>-0.04</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
@@ -1276,28 +1607,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>64.180000000000007</v>
+    <v>63.46</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44747.746530497658</v>
-    <v>28</v>
-    <v>62.414999999999999</v>
-    <v>273020126420</v>
+    <v>44753.920900937497</v>
+    <v>42</v>
+    <v>62.585000000000001</v>
+    <v>272976776130</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>64.180000000000007</v>
-    <v>27.153199999999998</v>
-    <v>64.38</v>
-    <v>62.98</v>
+    <v>62.99</v>
+    <v>26.630199999999999</v>
+    <v>63.14</v>
+    <v>62.97</v>
+    <v>62.9</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>7027968</v>
-    <v>17814880</v>
+    <v>12702130</v>
+    <v>16338050</v>
     <v>1919</v>
   </rv>
   <rv s="2">
-    <v>29</v>
+    <v>43</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1wzw7&amp;q=XNYS%3aLMT&amp;form=skydnc</v>
@@ -1314,12 +1646,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>479.99</v>
     <v>324.2278</v>
-    <v>0.72709999999999997</v>
-    <v>-21.445</v>
-    <v>-4.9466999999999997E-2</v>
+    <v>0.72009999999999996</v>
+    <v>-1.28</v>
+    <v>0</v>
+    <v>-3.045E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1327,70 +1661,53 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>425.45030000000003</v>
+    <v>423</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44747.756894154685</v>
-    <v>31</v>
-    <v>407.21</v>
-    <v>109656042025</v>
+    <v>44753.904047753909</v>
+    <v>45</v>
+    <v>415.38</v>
+    <v>111517460490</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>424.41</v>
-    <v>19.142900000000001</v>
-    <v>433.52</v>
-    <v>412.07499999999999</v>
+    <v>417.9</v>
+    <v>18.561299999999999</v>
+    <v>420.35</v>
+    <v>419.07</v>
+    <v>419.07</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>1099244</v>
-    <v>1332494</v>
+    <v>602638</v>
+    <v>1271297</v>
     <v>1994</v>
   </rv>
   <rv s="2">
-    <v>32</v>
-  </rv>
-  <rv s="0">
-    <v>http://en.wikipedia.org/wiki/Public_domain</v>
-    <v>Public domain</v>
-  </rv>
-  <rv s="0">
-    <v>http://ja.wikipedia.org/wiki/ロウズ</v>
-    <v>Wikipedia</v>
-  </rv>
-  <rv s="5">
-    <v>34</v>
-    <v>35</v>
-  </rv>
-  <rv s="6">
-    <v>14</v>
-    <v>https://www.bing.com/th?id=AMMS_4afbc0a090454dfb219470553edb70e4&amp;qlt=95</v>
-    <v>36</v>
-    <v>0</v>
-    <v>https://www.bing.com/images/search?form=xlimg&amp;q=lowe%27s</v>
-    <v>Image of LOWE'S COMPANIES, INC.</v>
+    <v>46</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1x2ur&amp;q=XNYS%3aLOW&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
-  <rv s="7">
+  <rv s="1">
     <v>en-US</v>
     <v>a1x2ur</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>0</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>12</v>
-    <v>13</v>
+    <v>2</v>
+    <v>3</v>
     <v>Finance</v>
     <v>4</v>
     <v>263.31</v>
     <v>170.12</v>
-    <v>1.25</v>
-    <v>1.33</v>
-    <v>7.4990000000000005E-3</v>
+    <v>1.2493000000000001</v>
+    <v>-1.57</v>
+    <v>0</v>
+    <v>-8.6439999999999989E-3</v>
+    <v>0</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1398,42 +1715,113 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>178.7525</v>
-    <v>37</v>
+    <v>183</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44747.756942071093</v>
-    <v>38</v>
-    <v>174.48929999999999</v>
-    <v>114205925272</v>
+    <v>44753.915593228907</v>
+    <v>48</v>
+    <v>179.66</v>
+    <v>115081531728</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>175.4</v>
-    <v>14.4573</v>
-    <v>177.36</v>
-    <v>178.69</v>
+    <v>181.22399999999999</v>
+    <v>14.805300000000001</v>
+    <v>181.63</v>
+    <v>180.06</v>
+    <v>180.11</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>1746562</v>
-    <v>3897998</v>
+    <v>2285104</v>
+    <v>3746944</v>
     <v>1952</v>
   </rv>
   <rv s="2">
-    <v>39</v>
+    <v>49</v>
+  </rv>
+  <rv s="0">
+    <v>http://zh.wikipedia.org/wiki/味可美</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="5">
+    <v>14</v>
+    <v>51</v>
+  </rv>
+  <rv s="6">
+    <v>14</v>
+    <v>https://www.bing.com/th?id=AMMS_8d96836a886471f7120ce0135f3ca8bd&amp;qlt=95</v>
+    <v>52</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=mccormick+%26+company</v>
+    <v>Image of MCCORMICK &amp; COMPANY, INCORPORATED</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xoc7&amp;q=XNYS%3aMKC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="7">
+    <v>en-US</v>
+    <v>a1xoc7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>10</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
+    <v>12</v>
+    <v>13</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>107.35</v>
+    <v>77.849999999999994</v>
+    <v>0.48949999999999999</v>
+    <v>0.26</v>
+    <v>0</v>
+    <v>3.1680000000000002E-3</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>McCormick &amp; Company, Incorporated is engaged in manufacturing, marketing and distributing spices, seasoning mixes, condiments and other flavorful products to the entire food industry retailers, food manufacturers and foodservice businesses. The Company operates through two business segments: Consumer and Flavor Solutions. In Consumer segment, it sells its products under the McCormick brand and a variety of brands around the world, including French's, Frank's RedHot, Lawry’s, Zatarain’s, Simply Asia, Thai Kitchen, Ducros, Vahine, Cholula, Schwartz, Club House, Kamis, DaQiao, Drogheria &amp; Alimentari, Stubb's, OLD BAY and Gourmet Garden. In Flavor Solutions segment, the Company provides a range of products to multinational food manufacturers and foodservice customers. Its sales, distribution and production facilities are located in North America, Europe and China, and additional facilities are based in Australia, Central America, Thailand and South Africa.</v>
+    <v>14000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>24 Schilling Road, HUNT VALLEY, MD, 21031 US</v>
+    <v>83.075000000000003</v>
+    <v>53</v>
+    <v>Food &amp; Tobacco</v>
+    <v>Stock</v>
+    <v>44753.840277789066</v>
+    <v>54</v>
+    <v>82.034999999999997</v>
+    <v>22028380000</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
+    <v>82.16</v>
+    <v>32.410600000000002</v>
+    <v>82.07</v>
+    <v>82.33</v>
+    <v>82.33</v>
+    <v>268296700</v>
+    <v>MKC</v>
+    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
+    <v>890667</v>
+    <v>1281230</v>
+    <v>1915</v>
+  </rv>
+  <rv s="2">
+    <v>55</v>
   </rv>
   <rv s="0">
     <v>https://en.wikipedia.org/wiki/Microsoft</v>
     <v>Wikipedia</v>
   </rv>
   <rv s="5">
-    <v>34</v>
-    <v>41</v>
+    <v>14</v>
+    <v>57</v>
   </rv>
   <rv s="6">
     <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
-    <v>42</v>
+    <v>58</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
     <v>Image of MICROSOFT CORPORATION</v>
@@ -1457,8 +1845,10 @@
     <v>349.67</v>
     <v>241.51</v>
     <v>0.93049999999999999</v>
-    <v>-0.40739999999999998</v>
-    <v>-1.5690000000000001E-3</v>
+    <v>-3.15</v>
+    <v>-4.1590000000000003E-4</v>
+    <v>-1.1769E-2</v>
+    <v>-0.11</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1466,29 +1856,30 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>260.30500000000001</v>
-    <v>43</v>
+    <v>266.52999999999997</v>
+    <v>59</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44747.756964825778</v>
-    <v>44</v>
-    <v>254.75</v>
-    <v>1938360428095</v>
+    <v>44753.921677140628</v>
+    <v>60</v>
+    <v>262.18</v>
+    <v>1978279018830</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>256.02999999999997</v>
-    <v>27.0823</v>
-    <v>259.58</v>
-    <v>259.17259999999999</v>
+    <v>265.64999999999998</v>
+    <v>27.9253</v>
+    <v>267.66000000000003</v>
+    <v>264.51</v>
+    <v>264.39999999999998</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>12263082</v>
-    <v>29363191</v>
+    <v>19454990</v>
+    <v>28254467</v>
     <v>1993</v>
   </rv>
   <rv s="2">
-    <v>45</v>
+    <v>61</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=axyhnm&amp;q=XNAS%3aPEP&amp;form=skydnc</v>
@@ -1507,10 +1898,12 @@
     <v>Finance</v>
     <v>4</v>
     <v>177.62</v>
-    <v>147.77000000000001</v>
-    <v>0.56599999999999995</v>
-    <v>-2.4049999999999998</v>
-    <v>-1.4197999999999999E-2</v>
+    <v>148.78</v>
+    <v>0.56759999999999999</v>
+    <v>-1.41</v>
+    <v>-1.0560000000000001E-3</v>
+    <v>-8.2030000000000002E-3</v>
+    <v>-0.18</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1518,28 +1911,83 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>169.39</v>
+    <v>172.8</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44747.756946885936</v>
-    <v>47</v>
-    <v>165.33</v>
-    <v>230887487740</v>
+    <v>44753.921401678126</v>
+    <v>63</v>
+    <v>170.02</v>
+    <v>235706141480</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>169.24</v>
-    <v>22.740500000000001</v>
-    <v>169.39</v>
-    <v>166.98500000000001</v>
+    <v>171.41</v>
+    <v>23.0748</v>
+    <v>171.88</v>
+    <v>170.47</v>
+    <v>170.29</v>
     <v>1382684000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>2141167</v>
-    <v>5531398</v>
+    <v>4920893</v>
+    <v>4998707</v>
     <v>1986</v>
   </rv>
   <rv s="2">
-    <v>48</v>
+    <v>64</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zsjc&amp;q=XNYS%3aPG&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1zsjc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>9</v>
+    <v>165.35</v>
+    <v>129.5</v>
+    <v>0.38279999999999997</v>
+    <v>1.02</v>
+    <v>1.369E-3</v>
+    <v>7.0340000000000003E-3</v>
+    <v>0.2</v>
+    <v>USD</v>
+    <v>The Procter &amp; Gamble Company is focused on providing branded consumer packaged goods to the consumers across the world. The Company operates through five segments: Beauty; Grooming; Health Care; Fabric &amp; Home Care, and Baby, Feminine &amp; Family Care. The Company sells its products in countries and territories primarily through mass merchandisers, grocery stores, membership club stores, drug stores, department stores, distributors, wholesalers, baby stores, specialty beauty stores, e-commerce, high-frequency stores, pharmacies, electronics stores and professional channels. It offers products under the brands, such as Head &amp; Shoulders, Herbal Essences, Pantene, Rejoice, Olay, Old Spice, Safeguard, Secret, SK-II, Braun, Gillette, Venus, Crest, Oral-B, Metamucil, Neurobion, Pepto-Bismol, Vicks, Ariel, Downy, Gain, Tide, Cascade, Dawn, Fairy, Febreze, Mr. Clean, Swiffer, Luvs, Pampers, Always, Always Discreet, Tampax, Bounty, Charmin and Puffs.</v>
+    <v>101000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>ONE PROCTER &amp; GAMBLE PLAZA, ONE PROCTER &amp; GAMBLE PLAZA, CINCINNATI, OH, 45202 US</v>
+    <v>146.58000000000001</v>
+    <v>Personal &amp; Household Products &amp; Services</v>
+    <v>Stock</v>
+    <v>44753.907456017965</v>
+    <v>66</v>
+    <v>144.68</v>
+    <v>350393333880</v>
+    <v>THE PROCTER &amp; GAMBLE COMPANY</v>
+    <v>THE PROCTER &amp; GAMBLE COMPANY</v>
+    <v>145.15</v>
+    <v>25.343</v>
+    <v>145.02000000000001</v>
+    <v>146.04</v>
+    <v>146.24</v>
+    <v>2399297000</v>
+    <v>PG</v>
+    <v>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</v>
+    <v>5482894</v>
+    <v>7586353</v>
+    <v>1905</v>
+  </rv>
+  <rv s="2">
+    <v>67</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a23d6h&amp;q=XNYS%3aSPG&amp;form=skydnc</v>
@@ -1559,9 +2007,11 @@
     <v>4</v>
     <v>171.12</v>
     <v>93.2</v>
-    <v>1.4962</v>
-    <v>0.95</v>
-    <v>9.9290000000000003E-3</v>
+    <v>1.4957</v>
+    <v>-0.56000000000000005</v>
+    <v>2.16E-3</v>
+    <v>-5.7320000000000001E-3</v>
+    <v>0.21</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -1569,41 +2019,42 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>96.79</v>
+    <v>97.51</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44747.756673726566</v>
-    <v>50</v>
-    <v>93.545000000000002</v>
-    <v>31756347918</v>
+    <v>44753.921052048434</v>
+    <v>69</v>
+    <v>95.73</v>
+    <v>31920667218</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>95.165000000000006</v>
-    <v>14.1143</v>
-    <v>95.68</v>
-    <v>96.63</v>
+    <v>96.98</v>
+    <v>14.4108</v>
+    <v>97.69</v>
+    <v>97.13</v>
+    <v>97.43</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>910796</v>
-    <v>2437745</v>
+    <v>1032393</v>
+    <v>2286029</v>
     <v>1998</v>
   </rv>
   <rv s="2">
-    <v>51</v>
+    <v>70</v>
   </rv>
   <rv s="0">
     <v>http://it.wikipedia.org/wiki/T._Rowe_Price</v>
     <v>Wikipedia</v>
   </rv>
   <rv s="5">
-    <v>34</v>
-    <v>53</v>
+    <v>14</v>
+    <v>72</v>
   </rv>
   <rv s="6">
     <v>14</v>
     <v>https://www.bing.com/th?id=AMMS_4c600be848f66590834841f27e6f786d&amp;qlt=95</v>
-    <v>54</v>
+    <v>73</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=t.+rowe+price</v>
     <v>Image of T. ROWE PRICE GROUP, INC.</v>
@@ -1623,12 +2074,14 @@
     <v>12</v>
     <v>13</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
-    <v>1.3326</v>
-    <v>-0.18</v>
-    <v>-1.5609999999999999E-3</v>
+    <v>1.33</v>
+    <v>-2.86</v>
+    <v>6.012E-3</v>
+    <v>-2.4664000000000002E-2</v>
+    <v>0.68</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -1636,29 +2089,84 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>115.34</v>
-    <v>55</v>
+    <v>114.77</v>
+    <v>74</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44747.75692274297</v>
-    <v>56</v>
-    <v>112.32</v>
-    <v>26168657558</v>
+    <v>44753.897861816404</v>
+    <v>75</v>
+    <v>112.33</v>
+    <v>25707245460</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>113.3</v>
-    <v>9.3268000000000004</v>
-    <v>115.31</v>
-    <v>115.13</v>
+    <v>113.95</v>
+    <v>9.3793000000000006</v>
+    <v>115.96</v>
+    <v>113.1</v>
+    <v>113.78</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>527629</v>
-    <v>1802103</v>
+    <v>1536469</v>
+    <v>1716244</v>
     <v>2000</v>
   </rv>
   <rv s="2">
-    <v>57</v>
+    <v>76</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24km7&amp;q=XNYS%3aTSN&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a24km7</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>TYSON FOODS, INC. (XNYS:TSN)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>100.72</v>
+    <v>69.88</v>
+    <v>0.67330000000000001</v>
+    <v>-2.2200000000000002</v>
+    <v>-1.2219999999999999E-4</v>
+    <v>-2.6394000000000001E-2</v>
+    <v>-0.01</v>
+    <v>USD</v>
+    <v>Tyson Foods, Inc. is a protein-focused food company. Its segments include Beef, Pork, Chicken, and Prepared Foods. Beef segment includes its operations related to processing live fed cattle and fabricating dressed beef carcasses into primal and sub-primal cuts and case-ready products. It also includes sales from allied products such as hides and variety meats, as well as logistics operations to move products through the supply chain. Pork segment includes operations related to processing live market hogs and fabricating pork carcasses into primal and sub-primal cuts and case-ready products. Chicken segment includes domestic operations related to raising and processing live chickens into, and purchasing raw materials for, fresh, frozen, and value-added chicken products, as well as sales from allied products. Prepared Foods includes operations related to manufacturing and marketing, frozen and refrigerated food products and logistics operations to move products through the supply chain.</v>
+    <v>137000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2200 DON TYSON PARKWAY, SPRINGDALE, AR, 72762-6999 US</v>
+    <v>84.29</v>
+    <v>Food &amp; Tobacco</v>
+    <v>Stock</v>
+    <v>44753.91337884219</v>
+    <v>78</v>
+    <v>81.739999999999995</v>
+    <v>29607272177</v>
+    <v>TYSON FOODS, INC.</v>
+    <v>TYSON FOODS, INC.</v>
+    <v>83.55</v>
+    <v>7.6231</v>
+    <v>84.11</v>
+    <v>81.89</v>
+    <v>81.8</v>
+    <v>361549300</v>
+    <v>TSN</v>
+    <v>TYSON FOODS, INC. (XNYS:TSN)</v>
+    <v>2510930</v>
+    <v>1762501</v>
+    <v>1986</v>
+  </rv>
+  <rv s="2">
+    <v>79</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24p1h&amp;q=XNAS%3aTXN&amp;form=skydnc</v>
@@ -1678,38 +2186,41 @@
     <v>9</v>
     <v>202.26</v>
     <v>144.4589</v>
-    <v>0.9708</v>
-    <v>-1.2649999999999999</v>
-    <v>-8.516000000000001E-3</v>
+    <v>0.96819999999999995</v>
+    <v>-1.97</v>
+    <v>2.8649999999999999E-3</v>
+    <v>-1.2666E-2</v>
+    <v>0.44</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>12500 T I Blvd, P.O. BOX 660199, DALLAS, TX, 75266 US</v>
-    <v>147.75</v>
+    <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
+    <v>155.02000000000001</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44747.746493182814</v>
-    <v>59</v>
-    <v>144.4589</v>
-    <v>135807270122</v>
+    <v>44753.903307974222</v>
+    <v>81</v>
+    <v>152.62</v>
+    <v>141602881684</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>145.72999999999999</v>
-    <v>16.984999999999999</v>
-    <v>148.54</v>
-    <v>147.27500000000001</v>
+    <v>154.12</v>
+    <v>17.784300000000002</v>
+    <v>155.53</v>
+    <v>153.56</v>
+    <v>154</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>4419179</v>
-    <v>6007660</v>
+    <v>4051115</v>
+    <v>5922747</v>
     <v>1938</v>
   </rv>
   <rv s="2">
-    <v>60</v>
+    <v>82</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a24ynm&amp;q=XNYS%3aUPS&amp;form=skydnc</v>
@@ -1726,12 +2237,14 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>9</v>
     <v>233.72</v>
     <v>165.34</v>
-    <v>1.1005</v>
-    <v>-1.85</v>
-    <v>-1.0000999999999999E-2</v>
+    <v>1.0973999999999999</v>
+    <v>-0.76</v>
+    <v>1.6249999999999999E-4</v>
+    <v>-4.0990000000000002E-3</v>
+    <v>0.03</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -1739,28 +2252,29 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>184.33</v>
+    <v>186.82</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44747.75687192109</v>
-    <v>62</v>
-    <v>181.73</v>
-    <v>160021578496</v>
+    <v>44753.906627476565</v>
+    <v>84</v>
+    <v>183.72</v>
+    <v>161332228096</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>182.58</v>
-    <v>15.086</v>
-    <v>184.99</v>
-    <v>183.14</v>
+    <v>183.72</v>
+    <v>15.1195</v>
+    <v>185.4</v>
+    <v>184.64</v>
+    <v>184.67</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>1284136</v>
-    <v>3520160</v>
+    <v>2275892</v>
+    <v>3192187</v>
     <v>1999</v>
   </rv>
   <rv s="2">
-    <v>63</v>
+    <v>85</v>
   </rv>
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a25obh&amp;q=XNYS%3aVZ&amp;form=skydnc</v>
@@ -1780,9 +2294,11 @@
     <v>4</v>
     <v>56.85</v>
     <v>45.548900000000003</v>
-    <v>0.37809999999999999</v>
-    <v>-0.65</v>
-    <v>-1.2586999999999999E-2</v>
+    <v>0.37559999999999999</v>
+    <v>-0.03</v>
+    <v>-2.9700000000000001E-4</v>
+    <v>-5.9420000000000002E-4</v>
+    <v>-1.4999999999999999E-2</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
@@ -1790,79 +2306,83 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>51.45</v>
+    <v>50.734999999999999</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44747.756894096878</v>
-    <v>65</v>
-    <v>50.48</v>
-    <v>214139847560</v>
+    <v>44753.919557753907</v>
+    <v>87</v>
+    <v>50.26</v>
+    <v>211914036240</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>51.42</v>
-    <v>10.0457</v>
-    <v>51.64</v>
-    <v>50.99</v>
+    <v>50.37</v>
+    <v>9.8218999999999994</v>
+    <v>50.49</v>
+    <v>50.46</v>
+    <v>50.484999999999999</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>11374655</v>
-    <v>19211886</v>
+    <v>12259038</v>
+    <v>18931088</v>
     <v>1983</v>
   </rv>
   <rv s="2">
-    <v>66</v>
+    <v>88</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xoc7&amp;q=XNYS%3aMKC&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25ya2&amp;q=XNYS%3aWMT&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="1">
     <v>en-US</v>
-    <v>a1xoc7</v>
+    <v>a25ya2</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>0</v>
-    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
-    <v>107.35</v>
-    <v>77.849999999999994</v>
-    <v>0.49469999999999997</v>
-    <v>0.86</v>
-    <v>1.0403000000000001E-2</v>
+    <v>9</v>
+    <v>160.77000000000001</v>
+    <v>117.27</v>
+    <v>0.52070000000000005</v>
+    <v>0.05</v>
+    <v>3.9859999999999999E-4</v>
+    <v>3.9870000000000004E-4</v>
+    <v>0.05</v>
     <v>USD</v>
-    <v>McCormick &amp; Company, Incorporated is engaged in manufacturing, marketing and distributing spices, seasoning mixes, condiments and other flavorful products to the entire food industry retailers, food manufacturers and foodservice businesses. The Company operates through two business segments: Consumer and Flavor Solutions. In Consumer segment, it sells its products under the McCormick brand and a variety of brands around the world, including French's, Frank's RedHot, Lawry’s, Zatarain’s, Simply Asia, Thai Kitchen, Ducros, Vahine, Cholula, Schwartz, Club House, Kamis, DaQiao, Drogheria &amp; Alimentari, Stubb's, OLD BAY and Gourmet Garden. In Flavor Solutions segment, the Company provides a range of products to multinational food manufacturers and foodservice customers. Its sales, distribution and production facilities are located in North America, Europe and China, and additional facilities are based in Australia, Central America, Thailand and South Africa.</v>
-    <v>14000</v>
+    <v>Walmart Inc. offers shopping opportunities in both retail stores and through e-commerce and provides access to its other service offerings. The Company offers an assortment of merchandise and services at everyday low prices (EDLP). The Company operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment is a merchandiser of consumer products, operating under the Walmart and Walmart Neighborhood Market brands, as well as walmart.com and other e-commerce brands, and it operates in the United States. The Walmart International segment includes various formats divided into two categories: retail and wholesale. These categories consist of various formats, including supercenters, supermarkets, hypermarkets, warehouse clubs (including Sam's Clubs) and cash &amp; carry, as well as e-commerce through walmart.com.mx, walmart.ca, flipkart.com and other sites. The Sam's Club segment is a membership-only warehouse club that also operates samsclub.com.</v>
+    <v>2300000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>24 Schilling Road, HUNT VALLEY, MD, 21031 US</v>
-    <v>83.844999999999999</v>
-    <v>Food &amp; Tobacco</v>
+    <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
+    <v>126.33</v>
+    <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44747.756759339842</v>
-    <v>68</v>
-    <v>81.760000000000005</v>
-    <v>22180450000</v>
-    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
-    <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
-    <v>82.7</v>
-    <v>32.647500000000001</v>
-    <v>82.67</v>
-    <v>83.53</v>
-    <v>268296700</v>
-    <v>MKC</v>
-    <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
-    <v>817273</v>
-    <v>1410232</v>
-    <v>1915</v>
+    <v>44753.909109953122</v>
+    <v>90</v>
+    <v>124.62</v>
+    <v>343877267500</v>
+    <v>WALMART INC.</v>
+    <v>WALMART INC.</v>
+    <v>125.02</v>
+    <v>26.942</v>
+    <v>125.4</v>
+    <v>125.45</v>
+    <v>125.5</v>
+    <v>2741150000</v>
+    <v>WMT</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
+    <v>3844320</v>
+    <v>7646323</v>
+    <v>1969</v>
   </rv>
   <rv s="2">
-    <v>69</v>
+    <v>91</v>
   </rv>
 </rvData>
 </file>
@@ -1889,7 +2409,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1910,6 +2432,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1939,8 +2462,11 @@
     <k n="_SubLabel" t="spb"/>
     <k n="52 week high"/>
     <k n="52 week low"/>
+    <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -1955,6 +2481,7 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -1988,7 +2515,9 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2010,6 +2539,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2023,7 +2553,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2034,13 +2564,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2067,7 +2600,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="33">
+    <a count="37">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2078,13 +2611,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2095,6 +2631,7 @@
       <v t="s">Volume</v>
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
+      <v t="s">Beta</v>
       <v t="s">Instrument type</v>
       <v t="s">_Flags</v>
       <v t="s">UniqueName</v>
@@ -2102,7 +2639,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2113,13 +2650,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2186,13 +2726,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2206,6 +2752,7 @@
     </spb>
     <spb s="6">
       <v>1</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -2221,20 +2768,29 @@
       <v>4</v>
       <v>7</v>
       <v>9</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="7">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>from previous close</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -2274,6 +2830,9 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
@@ -2321,6 +2880,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2328,6 +2890,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -2336,6 +2901,7 @@
   </s>
   <s>
     <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
     <k n="Open" t="i"/>
@@ -2351,6 +2917,9 @@
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2358,6 +2927,9 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2392,6 +2964,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2461,42 +3036,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:U22" totalsRowShown="0">
-  <autoFilter ref="B2:U22" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:T21">
-    <sortCondition ref="B2:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:W28" totalsRowShown="0">
+  <autoFilter ref="B2:W28" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W28">
+    <sortCondition ref="B2:B28"/>
   </sortState>
-  <tableColumns count="20">
+  <tableColumns count="22">
     <tableColumn id="19" xr3:uid="{0D4021FB-72A6-4FAE-8878-F2BC7BFA553F}" name="Ticker">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="23">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="22">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="21">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="19">
+    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0AB95A9E-6D9E-473D-93EC-53E15CDF47CE}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="18" xr3:uid="{A931B3EF-00A4-4531-894A-E140C01F03C1}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="23" xr3:uid="{30D7B8FE-2C2A-4708-B0E5-B46D899BC480}" name="Div-Inc" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="22" xr3:uid="{DE22146C-89DC-41BC-A945-68A0FE353621}" name="Ex-Div" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="14" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="FPL" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="FPH" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="PMOS" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{821399A3-CD94-45E1-9CF5-B50E506B06BD}" name="Company" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{30D7B8FE-2C2A-4708-B0E5-B46D899BC480}" name="Div-Inc" dataDxfId="19" dataCellStyle="Currency"/>
+    <tableColumn id="22" xr3:uid="{DE22146C-89DC-41BC-A945-68A0FE353621}" name="Ex-Div" dataDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="16"/>
+    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="13" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="HighPrice" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="LowPrice" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="MOSP" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{821399A3-CD94-45E1-9CF5-B50E506B06BD}" name="Company" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="16" xr3:uid="{273BD3BC-1AD8-4ED9-BCF9-836846D51025}" name="Industry">
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Industry")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{A4F71198-A356-44A1-8C97-C41CE9C0779A}" name="Market cap" dataDxfId="4">
+      <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2799,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09701121-D4EB-45B4-BB3E-1F27B86BB078}">
-  <dimension ref="B2:U22"/>
+  <dimension ref="B2:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,11 +3398,16 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2838,28 +3424,28 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
       <c r="O2" t="s">
         <v>6</v>
@@ -2870,27 +3456,33 @@
       <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>12</v>
+      <c r="R2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
       </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
       <c r="C3" s="1" cm="1">
         <f t="array" ref="C3">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>140.01499999999999</v>
+        <v>144.87</v>
       </c>
       <c r="D3" s="1" cm="1">
         <f t="array" ref="D3">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -2902,7 +3494,7 @@
       </c>
       <c r="F3" s="7" cm="1">
         <f t="array" ref="F3">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>22.5825</v>
+        <v>23.900700000000001</v>
       </c>
       <c r="G3" s="8">
         <v>0.92</v>
@@ -2911,23 +3503,23 @@
         <v>6</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1">
         <v>6</v>
       </c>
       <c r="L3" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.2852551512337966E-2</v>
+        <v>4.141644232760406E-2</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O3" s="2">
         <v>3.3300000000000003E-2</v>
@@ -2938,11 +3530,11 @@
       <c r="Q3" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>180.18018018018017</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>150</v>
       </c>
@@ -2950,18 +3542,26 @@
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>128.47965738758032</v>
       </c>
-      <c r="U3" s="2" t="e" vm="1">
+      <c r="U3" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
+      <c r="V3" t="str" cm="1">
+        <f t="array" ref="V3">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="W3" s="16" cm="1">
+        <f t="array" ref="W3">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>2344747026600</v>
+      </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AMLP</v>
       </c>
       <c r="C4" s="1" cm="1">
         <f t="array" ref="C4">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>33.15</v>
+        <v>34.82</v>
       </c>
       <c r="D4" s="1" cm="1">
         <f t="array" ref="D4">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -2979,37 +3579,37 @@
         <v>2.92</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1">
         <v>2.92</v>
       </c>
       <c r="L4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.8084464555052797E-2</v>
+        <v>8.3859850660539914E-2</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2">
         <v>0.08</v>
       </c>
-      <c r="R4" s="3" t="e">
+      <c r="R4" s="15" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="13" t="e">
+      <c r="S4" s="3" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>#DIV/0!</v>
       </c>
@@ -3017,18 +3617,26 @@
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>36.5</v>
       </c>
-      <c r="U4" s="2" t="e" vm="3">
+      <c r="U4" s="13" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
+      <c r="V4" t="e" cm="1" vm="4">
+        <f t="array" ref="V4">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="16" cm="1">
+        <f t="array" ref="W4">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>5716911300.1700001</v>
+      </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AMT</v>
       </c>
       <c r="C5" s="1" cm="1">
         <f t="array" ref="C5">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>253.77</v>
+        <v>257.99</v>
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3040,30 +3648,32 @@
       </c>
       <c r="F5" s="7" cm="1">
         <f t="array" ref="F5">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>44.704500000000003</v>
+        <v>44.118000000000002</v>
       </c>
       <c r="G5" s="8">
         <v>5.72</v>
       </c>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>7.6</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1">
         <v>5.72</v>
       </c>
       <c r="L5" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2540095361941914E-2</v>
+        <v>2.2171401992325281E-2</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="O5" s="2">
         <v>0.02</v>
@@ -3074,11 +3684,11 @@
       <c r="Q5" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>286</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>254.22222222222223</v>
       </c>
@@ -3086,18 +3696,26 @@
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>228.79999999999998</v>
       </c>
-      <c r="U5" s="2" t="e" vm="4">
+      <c r="U5" s="13" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
+      <c r="V5" t="str" cm="1">
+        <f t="array" ref="V5">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Residential &amp; Commercial REIT</v>
+      </c>
+      <c r="W5" s="16" cm="1">
+        <f t="array" ref="W5">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>119887282226</v>
+      </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>BLK</v>
       </c>
       <c r="C6" s="1" cm="1">
         <f t="array" ref="C6">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>612.88</v>
+        <v>604.52</v>
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3109,30 +3727,32 @@
       </c>
       <c r="F6" s="7" cm="1">
         <f t="array" ref="F6">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>15.4937</v>
+        <v>15.5656</v>
       </c>
       <c r="G6" s="8">
         <v>19.52</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8">
+        <v>29.81</v>
+      </c>
       <c r="I6" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1">
         <v>19.52</v>
       </c>
       <c r="L6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.1849627985902622E-2</v>
+        <v>3.2290081386885466E-2</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="O6" s="2">
         <v>2.5000000000000001E-2</v>
@@ -3143,11 +3763,11 @@
       <c r="Q6" s="2">
         <v>0.03</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>780.8</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>722.96296296296293</v>
       </c>
@@ -3155,1117 +3775,1756 @@
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>650.66666666666663</v>
       </c>
-      <c r="U6" s="2" t="e" vm="5">
+      <c r="U6" s="13" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
+      <c r="V6" t="str" cm="1">
+        <f t="array" ref="V6">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="W6" s="16" cm="1">
+        <f t="array" ref="W6">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>91586774916</v>
+      </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>GD</v>
+        <v>DIS</v>
       </c>
       <c r="C7" s="1" cm="1">
         <f t="array" ref="C7">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>211.54499999999999</v>
+        <v>93.67</v>
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" ref="D7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
-        <v>254.99</v>
+        <v>187.57990000000001</v>
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>182.66</v>
+        <v>92.01</v>
       </c>
       <c r="F7" s="7" cm="1">
         <f t="array" ref="F7">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>19.171099999999999</v>
+        <v>64.811400000000006</v>
       </c>
       <c r="G7" s="8">
-        <v>5.04</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="1">
-        <v>5.04</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.3824718145075516E-2</v>
+        <v>6.4054659976513287E-2</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="R7" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>127.65957446808511</v>
+      </c>
+      <c r="S7" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>120</v>
+      </c>
+      <c r="T7" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="U7" s="13" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" t="str" cm="1">
+        <f t="array" ref="V7">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Media &amp; Publishing</v>
+      </c>
+      <c r="W7" s="16" cm="1">
+        <f t="array" ref="W7">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>170618406280</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" t="str" cm="1">
+        <f t="array" ref="B8">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>GD</v>
+      </c>
+      <c r="C8" s="1" cm="1">
+        <f t="array" ref="C8">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>219.75</v>
+      </c>
+      <c r="D8" s="1" cm="1">
+        <f t="array" ref="D8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>254.99</v>
+      </c>
+      <c r="E8" s="1" cm="1">
+        <f t="array" ref="E8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>182.66</v>
+      </c>
+      <c r="F8" s="7" cm="1">
+        <f t="array" ref="F8">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>18.935600000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5.04</v>
+      </c>
+      <c r="H8" s="8">
+        <v>12</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.2935153583617748E-2</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R8" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>210</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S8" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>186.66666666666666</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T8" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>162.58064516129033</v>
       </c>
-      <c r="U7" s="2" t="e" vm="6">
+      <c r="U8" s="13" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
+      <c r="V8" t="str" cm="1">
+        <f t="array" ref="V8">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Aerospace &amp; Defense</v>
+      </c>
+      <c r="W8" s="16" cm="1">
+        <f t="array" ref="W8">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>61025695725</v>
+      </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" t="str" cm="1">
-        <f t="array" ref="B8">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" t="str" cm="1">
+        <f t="array" ref="B9">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>GOOGL</v>
       </c>
-      <c r="C8" s="1" cm="1">
-        <f t="array" ref="C8">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>2233.89</v>
-      </c>
-      <c r="D8" s="1" cm="1">
-        <f t="array" ref="D8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C9" s="1" cm="1">
+        <f t="array" ref="C9">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>2313.5300000000002</v>
+      </c>
+      <c r="D9" s="1" cm="1">
+        <f t="array" ref="D9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>3030.9315000000001</v>
       </c>
-      <c r="E8" s="1" cm="1">
-        <f t="array" ref="E8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E9" s="1" cm="1">
+        <f t="array" ref="E9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>2037.6936000000001</v>
       </c>
-      <c r="F8" s="7" cm="1">
-        <f t="array" ref="F8">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>19.6722</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F9" s="7" cm="1">
+        <f t="array" ref="F9">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>21.5928</v>
+      </c>
+      <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <v>98</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="1">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="1">
         <v>100</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.4764961569280497E-2</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="2">
+        <v>4.3223991043989052E-2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P9" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q9" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R9" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>3030.30303030303</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S9" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>2500</v>
       </c>
-      <c r="T8" s="10">
+      <c r="T9" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>2141.3276231263385</v>
       </c>
-      <c r="U8" s="2" t="e" vm="7">
+      <c r="U9" s="13" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
+      <c r="V9" t="str" cm="1">
+        <f t="array" ref="V9">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="W9" s="16" cm="1">
+        <f t="array" ref="W9">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>1576993000000</v>
+      </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" t="str" cm="1">
-        <f t="array" ref="B9">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
-      <c r="C9" s="1" cm="1">
-        <f t="array" ref="C9">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>281.04000000000002</v>
-      </c>
-      <c r="D9" s="1" cm="1">
-        <f t="array" ref="D9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C10" s="1" cm="1">
+        <f t="array" ref="C10">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>286.27</v>
+      </c>
+      <c r="D10" s="1" cm="1">
+        <f t="array" ref="D10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>420.61</v>
       </c>
-      <c r="E9" s="1" cm="1">
-        <f t="array" ref="E9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E10" s="1" cm="1">
+        <f t="array" ref="E10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>264.51</v>
       </c>
-      <c r="F9" s="7" cm="1">
-        <f t="array" ref="F9">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>17.715699999999998</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F10" s="7" cm="1">
+        <f t="array" ref="F10">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>18.184799999999999</v>
+      </c>
+      <c r="G10" s="8">
         <v>7.6</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="H10" s="8">
+        <v>13.24</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1">
         <v>7.6</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7042413891261028E-2</v>
-      </c>
-      <c r="M9" s="6" t="s">
+        <v>2.6548363433122578E-2</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="O10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R10" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>361.90476190476187</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S10" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>330.43478260869563</v>
       </c>
-      <c r="T9" s="10">
+      <c r="T10" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>281.48148148148147</v>
       </c>
-      <c r="U9" s="2" t="e" vm="8">
+      <c r="U10" s="13" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
+      <c r="V10" t="str" cm="1">
+        <f t="array" ref="V10">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="W10" s="16" cm="1">
+        <f t="array" ref="W10">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>294215423850</v>
+      </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>HRL</v>
+      </c>
+      <c r="C11" s="1" cm="1">
+        <f t="array" ref="C11">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>47.8</v>
+      </c>
+      <c r="D11" s="1" cm="1">
+        <f t="array" ref="D11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>55.11</v>
+      </c>
+      <c r="E11" s="1" cm="1">
+        <f t="array" ref="E11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>40.479999999999997</v>
+      </c>
+      <c r="F11" s="7" cm="1">
+        <f t="array" ref="F11">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>27.1662</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.04</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="L11" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.175732217573222E-2</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R11" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>52</v>
+      </c>
+      <c r="S11" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>46.222222222222229</v>
+      </c>
+      <c r="T11" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>41.6</v>
+      </c>
+      <c r="U11" s="13" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V11" t="str" cm="1">
+        <f t="array" ref="V11">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Food &amp; Tobacco</v>
+      </c>
+      <c r="W11" s="16" cm="1">
+        <f t="array" ref="W11">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>26101457680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" t="str" cm="1">
+        <f t="array" ref="B12">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>HSY</v>
+      </c>
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>220.5</v>
+      </c>
+      <c r="D12" s="1" cm="1">
+        <f t="array" ref="D12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>231.595</v>
+      </c>
+      <c r="E12" s="1" cm="1">
+        <f t="array" ref="E12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>167.8</v>
+      </c>
+      <c r="F12" s="7" cm="1">
+        <f t="array" ref="F12">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>28.259899999999998</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="H12" s="8">
+        <v>7.64</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L12" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>1.6326530612244899E-2</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R12" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>180</v>
+      </c>
+      <c r="S12" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>160</v>
+      </c>
+      <c r="T12" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>144</v>
+      </c>
+      <c r="U12" s="13" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" t="str" cm="1">
+        <f t="array" ref="V12">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Food &amp; Tobacco</v>
+      </c>
+      <c r="W12" s="16" cm="1">
+        <f t="array" ref="W12">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>45335814300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" t="str" cm="1">
+        <f t="array" ref="B13">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>INTC</v>
       </c>
-      <c r="C10" s="1" cm="1">
-        <f t="array" ref="C10">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>36.155000000000001</v>
-      </c>
-      <c r="D10" s="1" cm="1">
-        <f t="array" ref="D10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="D13" s="1" cm="1">
+        <f t="array" ref="D13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>57.454999999999998</v>
       </c>
-      <c r="E10" s="1" cm="1">
-        <f t="array" ref="E10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E13" s="1" cm="1">
+        <f t="array" ref="E13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>35.54</v>
       </c>
-      <c r="F10" s="7" cm="1">
-        <f t="array" ref="F10">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>6.0439999999999996</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F13" s="7" cm="1">
+        <f t="array" ref="F13">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>6.3185000000000002</v>
+      </c>
+      <c r="G13" s="8">
         <v>1.46</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="H13" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1">
         <v>1.46</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.0381689946065551E-2</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="2">
+        <v>3.9247311827956988E-2</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P13" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q13" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R13" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>50.34482758620689</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S13" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>47.096774193548384</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T13" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>41.714285714285708</v>
       </c>
-      <c r="U10" s="2" t="e" vm="9">
+      <c r="U13" s="13" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
+      <c r="V13" t="str" cm="1">
+        <f t="array" ref="V13">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Semiconductors &amp; Semiconductor Equipment</v>
+      </c>
+      <c r="W13" s="16" cm="1">
+        <f t="array" ref="W13">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>152110800000</v>
+      </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" t="str" cm="1">
-        <f t="array" ref="B11">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" t="str" cm="1">
+        <f t="array" ref="B14">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>JPM</v>
       </c>
-      <c r="C11" s="1" cm="1">
-        <f t="array" ref="C11">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>111.44</v>
-      </c>
-      <c r="D11" s="1" cm="1">
-        <f t="array" ref="D11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C14" s="1" cm="1">
+        <f t="array" ref="C14">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>112.86</v>
+      </c>
+      <c r="D14" s="1" cm="1">
+        <f t="array" ref="D14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>172.96</v>
       </c>
-      <c r="E11" s="1" cm="1">
-        <f t="array" ref="E11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E14" s="1" cm="1">
+        <f t="array" ref="E14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>109.3</v>
       </c>
-      <c r="F11" s="7" cm="1">
-        <f t="array" ref="F11">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>8.3892000000000007</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F14" s="7" cm="1">
+        <f t="array" ref="F14">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>8.4863999999999997</v>
+      </c>
+      <c r="G14" s="8">
         <v>4</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="1">
+      <c r="H14" s="8"/>
+      <c r="I14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.5893754486719311E-2</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="2">
+        <v>3.5442140705298601E-2</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="2">
         <v>0.03</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P14" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q14" s="2">
         <v>0.04</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R14" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S14" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>121.2121212121212</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T14" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>100</v>
       </c>
-      <c r="U11" s="2" t="e" vm="10">
+      <c r="U14" s="13" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
+      <c r="V14" t="str" cm="1">
+        <f t="array" ref="V14">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="W14" s="16" cm="1">
+        <f t="array" ref="W14">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>331475575860</v>
+      </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" t="str" cm="1">
-        <f t="array" ref="B12">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="str" cm="1">
+        <f t="array" ref="B15">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>KO</v>
       </c>
-      <c r="C12" s="1" cm="1">
-        <f t="array" ref="C12">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>62.98</v>
-      </c>
-      <c r="D12" s="1" cm="1">
-        <f t="array" ref="D12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C15" s="1" cm="1">
+        <f t="array" ref="C15">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>62.97</v>
+      </c>
+      <c r="D15" s="1" cm="1">
+        <f t="array" ref="D15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>67.2</v>
       </c>
-      <c r="E12" s="1" cm="1">
-        <f t="array" ref="E12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E15" s="1" cm="1">
+        <f t="array" ref="E15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>52.28</v>
       </c>
-      <c r="F12" s="7" cm="1">
-        <f t="array" ref="F12">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>27.153199999999998</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F15" s="7" cm="1">
+        <f t="array" ref="F15">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>26.630199999999999</v>
+      </c>
+      <c r="G15" s="8">
         <v>1.76</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="H15" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1">
         <v>1.76</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.794537948555097E-2</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="2">
+        <v>2.7949817373352389E-2</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="2">
         <v>0.03</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P15" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q15" s="2">
         <v>0.04</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R15" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>58.666666666666671</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S15" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T15" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>44</v>
       </c>
-      <c r="U12" s="2" t="e" vm="11">
+      <c r="U15" s="13" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
+      <c r="V15" t="str" cm="1">
+        <f t="array" ref="V15">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Beverages</v>
+      </c>
+      <c r="W15" s="16" cm="1">
+        <f t="array" ref="W15">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>272976776130</v>
+      </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" t="str" cm="1">
-        <f t="array" ref="B13">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" t="str" cm="1">
+        <f t="array" ref="B16">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>LMT</v>
       </c>
-      <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>412.07499999999999</v>
-      </c>
-      <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C16" s="1" cm="1">
+        <f t="array" ref="C16">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>419.07</v>
+      </c>
+      <c r="D16" s="1" cm="1">
+        <f t="array" ref="D16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>479.99</v>
       </c>
-      <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E16" s="1" cm="1">
+        <f t="array" ref="E16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>324.2278</v>
       </c>
-      <c r="F13" s="7" cm="1">
-        <f t="array" ref="F13">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>19.142900000000001</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F16" s="7" cm="1">
+        <f t="array" ref="F16">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>18.561299999999999</v>
+      </c>
+      <c r="G16" s="8">
         <v>11.2</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="H16" s="8">
+        <v>27.75</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1">
         <v>11.2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7179518291573133E-2</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="2">
+        <v>2.6725845324170185E-2</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q16" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R16" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>414.81481481481478</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S16" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>361.29032258064512</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T16" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>319.99999999999994</v>
       </c>
-      <c r="U13" s="2" t="e" vm="12">
+      <c r="U16" s="13" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
+      <c r="V16" t="str" cm="1">
+        <f t="array" ref="V16">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Aerospace &amp; Defense</v>
+      </c>
+      <c r="W16" s="16" cm="1">
+        <f t="array" ref="W16">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>111517460490</v>
+      </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" t="str" cm="1">
-        <f t="array" ref="B14">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="str" cm="1">
+        <f t="array" ref="B17">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>LOW</v>
       </c>
-      <c r="C14" s="1" cm="1">
-        <f t="array" ref="C14">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>178.69</v>
-      </c>
-      <c r="D14" s="1" cm="1">
-        <f t="array" ref="D14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C17" s="1" cm="1">
+        <f t="array" ref="C17">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>180.06</v>
+      </c>
+      <c r="D17" s="1" cm="1">
+        <f t="array" ref="D17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>263.31</v>
       </c>
-      <c r="E14" s="1" cm="1">
-        <f t="array" ref="E14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E17" s="1" cm="1">
+        <f t="array" ref="E17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>170.12</v>
       </c>
-      <c r="F14" s="7" cm="1">
-        <f t="array" ref="F14">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>14.4573</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F17" s="7" cm="1">
+        <f t="array" ref="F17">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>14.805300000000001</v>
+      </c>
+      <c r="G17" s="8">
         <v>4.2</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1">
+      <c r="H17" s="8">
+        <v>11.82</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1">
         <v>4.2</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.3504393082992896E-2</v>
-      </c>
-      <c r="M14" s="6" t="s">
+        <v>2.332555814728424E-2</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="2">
+      <c r="O17" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P17" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q17" s="2">
         <v>0.02</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R17" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>280</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S17" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>233.33333333333337</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T17" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>210</v>
       </c>
-      <c r="U14" s="2" t="e" vm="13">
+      <c r="U17" s="13" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
+      <c r="V17" t="str" cm="1">
+        <f t="array" ref="V17">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="W17" s="16" cm="1">
+        <f t="array" ref="W17">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>115081531728</v>
+      </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" t="str" cm="1">
-        <f t="array" ref="B15">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" t="str" cm="1">
+        <f t="array" ref="B18">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>MKC</v>
+      </c>
+      <c r="C18" s="1" cm="1">
+        <f t="array" ref="C18">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>82.33</v>
+      </c>
+      <c r="D18" s="1" cm="1">
+        <f t="array" ref="D18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>107.35</v>
+      </c>
+      <c r="E18" s="1" cm="1">
+        <f t="array" ref="E18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>77.849999999999994</v>
+      </c>
+      <c r="F18" s="7" cm="1">
+        <f t="array" ref="F18">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>32.410600000000002</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="L18" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>1.7976436292967326E-2</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R18" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>74</v>
+      </c>
+      <c r="S18" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>67.27272727272728</v>
+      </c>
+      <c r="T18" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="U18" s="13" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V18" t="str" cm="1">
+        <f t="array" ref="V18">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Food &amp; Tobacco</v>
+      </c>
+      <c r="W18" s="16" cm="1">
+        <f t="array" ref="W18">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>22028380000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" t="str" cm="1">
+        <f t="array" ref="B19">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="C15" s="1" cm="1">
-        <f t="array" ref="C15">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>259.17259999999999</v>
-      </c>
-      <c r="D15" s="1" cm="1">
-        <f t="array" ref="D15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C19" s="1" cm="1">
+        <f t="array" ref="C19">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>264.51</v>
+      </c>
+      <c r="D19" s="1" cm="1">
+        <f t="array" ref="D19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>349.67</v>
       </c>
-      <c r="E15" s="1" cm="1">
-        <f t="array" ref="E15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E19" s="1" cm="1">
+        <f t="array" ref="E19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>241.51</v>
       </c>
-      <c r="F15" s="7" cm="1">
-        <f t="array" ref="F15">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>27.0823</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F19" s="7" cm="1">
+        <f t="array" ref="F19">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>27.9253</v>
+      </c>
+      <c r="G19" s="8">
         <v>2.48</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H19" s="8">
         <v>7.38</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="I19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1">
         <v>8</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0867460526305637E-2</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="2">
+        <v>3.0244603228611396E-2</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P19" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q19" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R19" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>240.24024024024021</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S19" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>200</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T19" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>171.30620985010708</v>
       </c>
-      <c r="U15" s="2" t="e" vm="14">
+      <c r="U19" s="13" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
+      <c r="V19" t="str" cm="1">
+        <f t="array" ref="V19">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="W19" s="16" cm="1">
+        <f t="array" ref="W19">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>1978279018830</v>
+      </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" t="str" cm="1">
+        <f t="array" ref="B20">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>PEP</v>
       </c>
-      <c r="C16" s="1" cm="1">
-        <f t="array" ref="C16">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>166.98500000000001</v>
-      </c>
-      <c r="D16" s="1" cm="1">
-        <f t="array" ref="D16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C20" s="1" cm="1">
+        <f t="array" ref="C20">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>170.47</v>
+      </c>
+      <c r="D20" s="1" cm="1">
+        <f t="array" ref="D20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>177.62</v>
       </c>
-      <c r="E16" s="1" cm="1">
-        <f t="array" ref="E16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>147.77000000000001</v>
-      </c>
-      <c r="F16" s="7" cm="1">
-        <f t="array" ref="F16">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>22.740500000000001</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="E20" s="1" cm="1">
+        <f t="array" ref="E20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>148.78</v>
+      </c>
+      <c r="F20" s="7" cm="1">
+        <f t="array" ref="F20">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>23.0748</v>
+      </c>
+      <c r="G20" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="H20" s="8">
+        <v>5.03</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7547384495613374E-2</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="2">
+        <v>2.6984220097377835E-2</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P20" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q20" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R20" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>164.28571428571428</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S20" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="T16" s="10">
+      <c r="T20" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>139.39393939393938</v>
       </c>
-      <c r="U16" s="2" t="e" vm="15">
+      <c r="U20" s="13" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
+      <c r="V20" t="str" cm="1">
+        <f t="array" ref="V20">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Beverages</v>
+      </c>
+      <c r="W20" s="16" cm="1">
+        <f t="array" ref="W20">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>235706141480</v>
+      </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" t="str" cm="1">
-        <f t="array" ref="B17">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>PG</v>
+      </c>
+      <c r="C21" s="1" cm="1">
+        <f t="array" ref="C21">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>146.04</v>
+      </c>
+      <c r="D21" s="1" cm="1">
+        <f t="array" ref="D21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>165.35</v>
+      </c>
+      <c r="E21" s="1" cm="1">
+        <f t="array" ref="E21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>129.5</v>
+      </c>
+      <c r="F21" s="7" cm="1">
+        <f t="array" ref="F21">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>25.343</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="H21" s="8">
+        <v>6</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3.65</v>
+      </c>
+      <c r="L21" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.4993152560942207E-2</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="P21" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R21" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>121.66666666666667</v>
+      </c>
+      <c r="S21" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>1.1060606060606062</v>
+      </c>
+      <c r="T21" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>104.28571428571428</v>
+      </c>
+      <c r="U21" s="13" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" t="str" cm="1">
+        <f t="array" ref="V21">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="W21" s="16" cm="1">
+        <f t="array" ref="W21">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>350393333880</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" t="str" cm="1">
+        <f t="array" ref="B22">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>SPG</v>
       </c>
-      <c r="C17" s="1" cm="1">
-        <f t="array" ref="C17">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>96.63</v>
-      </c>
-      <c r="D17" s="1" cm="1">
-        <f t="array" ref="D17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C22" s="1" cm="1">
+        <f t="array" ref="C22">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>97.13</v>
+      </c>
+      <c r="D22" s="1" cm="1">
+        <f t="array" ref="D22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>171.12</v>
       </c>
-      <c r="E17" s="1" cm="1">
-        <f t="array" ref="E17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E22" s="1" cm="1">
+        <f t="array" ref="E22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>93.2</v>
       </c>
-      <c r="F17" s="7" cm="1">
-        <f t="array" ref="F17">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>14.1143</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F22" s="7" cm="1">
+        <f t="array" ref="F22">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>14.4108</v>
+      </c>
+      <c r="G22" s="8">
         <v>6.8</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="H22" s="8">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1">
         <v>6.8</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L22" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>7.0371520231812063E-2</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="2">
+        <v>7.0009265932255746E-2</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P22" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q22" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R22" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>151.11111111111111</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S22" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>123.63636363636363</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T22" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>104.61538461538461</v>
       </c>
-      <c r="U17" s="2" t="e" vm="16">
+      <c r="U22" s="13" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
+      <c r="V22" t="str" cm="1">
+        <f t="array" ref="V22">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Residential &amp; Commercial REIT</v>
+      </c>
+      <c r="W22" s="16" cm="1">
+        <f t="array" ref="W22">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>31920667218</v>
+      </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" t="str" cm="1">
-        <f t="array" ref="B18">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TROW</v>
       </c>
-      <c r="C18" s="1" cm="1">
-        <f t="array" ref="C18">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>115.13</v>
-      </c>
-      <c r="D18" s="1" cm="1">
-        <f t="array" ref="D18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C23" s="1" cm="1">
+        <f t="array" ref="C23">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>113.1</v>
+      </c>
+      <c r="D23" s="1" cm="1">
+        <f t="array" ref="D23">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>224.55500000000001</v>
       </c>
-      <c r="E18" s="1" cm="1">
-        <f t="array" ref="E18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E23" s="1" cm="1">
+        <f t="array" ref="E23">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>104.72</v>
       </c>
-      <c r="F18" s="7" cm="1">
-        <f t="array" ref="F18">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>9.3268000000000004</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F23" s="7" cm="1">
+        <f t="array" ref="F23">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>9.3793000000000006</v>
+      </c>
+      <c r="G23" s="8">
         <v>4.8</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="H23" s="8">
+        <v>8</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
         <v>4.8</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L23" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.1692000347433339E-2</v>
-      </c>
-      <c r="M18" s="5" t="s">
+        <v>4.2440318302387266E-2</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="O23" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P23" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q23" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R23" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>177.77777777777777</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S23" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>160</v>
       </c>
-      <c r="T18" s="10">
+      <c r="T23" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>145.45454545454544</v>
       </c>
-      <c r="U18" s="2" t="e" vm="17">
+      <c r="U23" s="13" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
+      <c r="V23" t="str" cm="1">
+        <f t="array" ref="V23">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="W23" s="16" cm="1">
+        <f t="array" ref="W23">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>25707245460</v>
+      </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" t="str" cm="1">
-        <f t="array" ref="B19">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" t="str" cm="1">
+        <f t="array" ref="B24">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>TSN</v>
+      </c>
+      <c r="C24" s="1" cm="1">
+        <f t="array" ref="C24">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>81.89</v>
+      </c>
+      <c r="D24" s="1" cm="1">
+        <f t="array" ref="D24">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>100.72</v>
+      </c>
+      <c r="E24" s="1" cm="1">
+        <f t="array" ref="E24">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>69.88</v>
+      </c>
+      <c r="F24" s="7" cm="1">
+        <f t="array" ref="F24">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>7.6231</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="H24" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L24" s="2">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
+        <v>2.3446086213212845E-2</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R24" s="15">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
+        <v>96</v>
+      </c>
+      <c r="S24" s="3">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="T24" s="10">
+        <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
+        <v>76.8</v>
+      </c>
+      <c r="U24" s="13" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" t="str" cm="1">
+        <f t="array" ref="V24">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Food &amp; Tobacco</v>
+      </c>
+      <c r="W24" s="16" cm="1">
+        <f t="array" ref="W24">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>29607272177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" t="str" cm="1">
+        <f t="array" ref="B25">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TXN</v>
       </c>
-      <c r="C19" s="1" cm="1">
-        <f t="array" ref="C19">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>147.27500000000001</v>
-      </c>
-      <c r="D19" s="1" cm="1">
-        <f t="array" ref="D19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C25" s="1" cm="1">
+        <f t="array" ref="C25">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>153.56</v>
+      </c>
+      <c r="D25" s="1" cm="1">
+        <f t="array" ref="D25">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>202.26</v>
       </c>
-      <c r="E19" s="1" cm="1">
-        <f t="array" ref="E19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E25" s="1" cm="1">
+        <f t="array" ref="E25">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>144.4589</v>
       </c>
-      <c r="F19" s="7" cm="1">
-        <f t="array" ref="F19">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>16.984999999999999</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F25" s="7" cm="1">
+        <f t="array" ref="F25">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>17.784300000000002</v>
+      </c>
+      <c r="G25" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="H25" s="8">
+        <v>7</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L25" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.1234085893736205E-2</v>
-      </c>
-      <c r="M19" s="5" t="s">
+        <v>2.9955717634800726E-2</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="2">
+      <c r="O25" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P25" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q25" s="2">
         <v>0.03</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R25" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>183.99999999999997</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S25" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>170.37037037037035</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T25" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="U19" s="2" t="e" vm="18">
+      <c r="U25" s="13" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
+      <c r="V25" t="str" cm="1">
+        <f t="array" ref="V25">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Semiconductors &amp; Semiconductor Equipment</v>
+      </c>
+      <c r="W25" s="16" cm="1">
+        <f t="array" ref="W25">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>141602881684</v>
+      </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" t="str" cm="1">
-        <f t="array" ref="B20">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" t="str" cm="1">
+        <f t="array" ref="B26">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>UPS</v>
       </c>
-      <c r="C20" s="1" cm="1">
-        <f t="array" ref="C20">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>183.14</v>
-      </c>
-      <c r="D20" s="1" cm="1">
-        <f t="array" ref="D20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C26" s="1" cm="1">
+        <f t="array" ref="C26">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>184.64</v>
+      </c>
+      <c r="D26" s="1" cm="1">
+        <f t="array" ref="D26">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>233.72</v>
       </c>
-      <c r="E20" s="1" cm="1">
-        <f t="array" ref="E20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E26" s="1" cm="1">
+        <f t="array" ref="E26">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>165.34</v>
       </c>
-      <c r="F20" s="7" cm="1">
-        <f t="array" ref="F20">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>15.086</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F26" s="7" cm="1">
+        <f t="array" ref="F26">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>15.1195</v>
+      </c>
+      <c r="G26" s="8">
         <v>6.08</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="1">
+      <c r="H26" s="8">
+        <v>12.57</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1">
         <v>6.08</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L26" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.3198645844708968E-2</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="2">
+        <v>3.292894280762565E-2</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P26" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q26" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R26" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>225.18518518518519</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S26" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>202.66666666666669</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T26" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>173.71428571428569</v>
       </c>
-      <c r="U20" s="2" t="e" vm="19">
+      <c r="U26" s="13" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
+      <c r="V26" t="str" cm="1">
+        <f t="array" ref="V26">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Freight &amp; Logistics Services</v>
+      </c>
+      <c r="W26" s="16" cm="1">
+        <f t="array" ref="W26">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>161332228096</v>
+      </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" t="str" cm="1">
-        <f t="array" ref="B21">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" t="str" cm="1">
+        <f t="array" ref="B27">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
-      <c r="C21" s="1" cm="1">
-        <f t="array" ref="C21">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>50.99</v>
-      </c>
-      <c r="D21" s="1" cm="1">
-        <f t="array" ref="D21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+      <c r="C27" s="1" cm="1">
+        <f t="array" ref="C27">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>50.46</v>
+      </c>
+      <c r="D27" s="1" cm="1">
+        <f t="array" ref="D27">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
         <v>56.85</v>
       </c>
-      <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+      <c r="E27" s="1" cm="1">
+        <f t="array" ref="E27">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
         <v>45.548900000000003</v>
       </c>
-      <c r="F21" s="7" cm="1">
-        <f t="array" ref="F21">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>10.0457</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F27" s="7" cm="1">
+        <f t="array" ref="F27">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>9.8218999999999994</v>
+      </c>
+      <c r="G27" s="8">
         <v>2.56</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="1">
+      <c r="H27" s="8">
+        <v>4</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1">
         <v>2.56</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L27" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>5.0205922729947047E-2</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2">
+        <v>5.0733254062623863E-2</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P27" s="2">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q27" s="2">
         <v>0.05</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R27" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>56.888888888888893</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S27" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>53.89473684210526</v>
       </c>
-      <c r="T21" s="10">
+      <c r="T27" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>51.199999999999996</v>
       </c>
-      <c r="U21" s="2" t="e" vm="20">
+      <c r="U27" s="13" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
+      <c r="V27" t="str" cm="1">
+        <f t="array" ref="V27">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Telecommunications Services</v>
+      </c>
+      <c r="W27" s="16" cm="1">
+        <f t="array" ref="W27">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>211914036240</v>
+      </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" t="str" cm="1">
-        <f t="array" ref="B22">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
-        <v>MKC</v>
-      </c>
-      <c r="C22" s="1" cm="1">
-        <f t="array" ref="C22">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>83.53</v>
-      </c>
-      <c r="D22" s="1" cm="1">
-        <f t="array" ref="D22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
-        <v>107.35</v>
-      </c>
-      <c r="E22" s="1" cm="1">
-        <f t="array" ref="E22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>77.849999999999994</v>
-      </c>
-      <c r="F22" s="7" cm="1">
-        <f t="array" ref="F22">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>32.647500000000001</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1.48</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.48</v>
-      </c>
-      <c r="L22" s="2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
+        <v>WMT</v>
+      </c>
+      <c r="C28" s="1" cm="1">
+        <f t="array" ref="C28">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
+        <v>125.45</v>
+      </c>
+      <c r="D28" s="1" cm="1">
+        <f t="array" ref="D28">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
+        <v>160.77000000000001</v>
+      </c>
+      <c r="E28" s="1" cm="1">
+        <f t="array" ref="E28">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
+        <v>117.27</v>
+      </c>
+      <c r="F28" s="7" cm="1">
+        <f t="array" ref="F28">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
+        <v>26.942</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H28" s="8">
+        <v>5</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L28" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>1.7718185083203639E-2</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="2">
+        <v>1.7855719410123556E-2</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="2">
         <v>0.02</v>
       </c>
-      <c r="P22" s="2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="P28" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R22" s="3">
+      <c r="Q28" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R28" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
-        <v>74</v>
-      </c>
-      <c r="S22" s="13">
+        <v>112.00000000000001</v>
+      </c>
+      <c r="S28" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
-        <v>67.27272727272728</v>
-      </c>
-      <c r="T22" s="10">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="T28" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
-        <v>59.199999999999996</v>
-      </c>
-      <c r="U22" s="2" t="e" vm="21">
+        <v>74.666666666666671</v>
+      </c>
+      <c r="U28" s="13" t="e" vm="28">
         <v>#VALUE!</v>
+      </c>
+      <c r="V28" t="str" cm="1">
+        <f t="array" ref="V28">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+        <v>Food &amp; Drug Retailing</v>
+      </c>
+      <c r="W28" s="16" cm="1">
+        <f t="array" ref="W28">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>343877267500</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C22">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="C3:C28">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>T3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+  <conditionalFormatting sqref="C3:C28">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>T3</formula>
       <formula>R3</formula>
     </cfRule>

--- a/StockWatchList.xlsx
+++ b/StockWatchList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1229" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1AE5B9F-46B5-46F3-9DD7-081B994AC2C6}"/>
+  <xr:revisionPtr revIDLastSave="1247" documentId="8_{C8D0096A-CF07-4025-B6D9-3EA9E3FEB7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912C5BFF-7375-4F0B-BF4D-09485185290F}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="-16440" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED6CDB2C-C2C5-460F-8ABC-D8056080F492}"/>
   </bookViews>
   <sheets>
     <sheet name="WatchList" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="51">
   <si>
     <t>Ticker</t>
   </si>
@@ -493,6 +493,9 @@
   <si>
     <t>Jan</t>
   </si>
+  <si>
+    <t>Grow</t>
+  </si>
 </sst>
 </file>
 
@@ -600,26 +603,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="21">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -643,26 +646,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -924,37 +907,34 @@
     <v>4</v>
     <v>182.94</v>
     <v>129.04</v>
-    <v>1.1983999999999999</v>
-    <v>-2.17</v>
-    <v>4.1419999999999998E-4</v>
-    <v>-1.4758E-2</v>
-    <v>0.06</v>
+    <v>1.196</v>
+    <v>2.9901</v>
+    <v>2.0331000000000002E-2</v>
     <v>USD</v>
     <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company’s products include iPhone, Mac, iPad, and Wearables, Home and Accessories. iPhone is the Company’s line of smartphones based on its iOS operating system. Mac is the Company’s line of personal computers based on its macOS operating system. iPad is the Company’s line of multi-purpose tablets based on its iPadOS operating system. Wearables, Home and Accessories includes AirPods, Apple TV, Apple Watch, Beats products, HomePod, iPod touch and other Apple-branded and third-party accessories. AirPods are the Company’s wireless headphones that interact with Siri. Apple Watch is the Company’s line of smart watches. Its services include Advertising, AppleCare, Cloud Services, Digital Content and Payment Services. Its customers are primarily in the consumer, small and mid-sized business, education, enterprise and government markets.</v>
     <v>154000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1 Apple Park Way, ONE INFINITE LOOP, CUPERTINO, CA, 95014 US</v>
-    <v>146.63999999999999</v>
+    <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
+    <v>150.22</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>44753.921710092189</v>
+    <v>44761.711830971872</v>
     <v>0</v>
-    <v>143.78</v>
-    <v>2344747026600</v>
+    <v>146.91</v>
+    <v>2428749729318</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>145.66999999999999</v>
-    <v>23.900700000000001</v>
-    <v>147.04</v>
-    <v>144.87</v>
-    <v>144.93</v>
+    <v>147.93</v>
+    <v>23.9056</v>
+    <v>147.07</v>
+    <v>150.06010000000001</v>
     <v>16185180000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>63139947</v>
-    <v>80974331</v>
+    <v>42048555</v>
+    <v>81940448</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -984,29 +964,26 @@
     <v>42.18</v>
     <v>30.04</v>
     <v>2.9746999999999999</v>
-    <v>-0.2</v>
-    <v>4.5950000000000001E-3</v>
-    <v>-5.7110000000000008E-3</v>
-    <v>0.16</v>
+    <v>0.67330000000000001</v>
+    <v>1.8786000000000001E-2</v>
     <v>USD</v>
     <v>NYSE Arca</v>
     <v>ARCX</v>
     <v>8.5000000000000006E-3</v>
-    <v>35.01</v>
+    <v>36.524999999999999</v>
     <v>ETF</v>
-    <v>44753.891055231252</v>
+    <v>44761.711839721873</v>
     <v>4</v>
-    <v>34.18</v>
+    <v>35.950000000000003</v>
     <v>5716911300.1700001</v>
     <v>Alps Alerian MLP ETF</v>
-    <v>34.65</v>
-    <v>35.020000000000003</v>
-    <v>34.82</v>
-    <v>34.979999999999997</v>
+    <v>35.979999999999997</v>
+    <v>35.840000000000003</v>
+    <v>36.513300000000001</v>
     <v>AMLP</v>
     <v>Alps Alerian MLP ETF (ARCX:AMLP)</v>
-    <v>1275413</v>
-    <v>3423000</v>
+    <v>838666</v>
+    <v>3339503</v>
   </rv>
   <rv s="2">
     <v>5</v>
@@ -1031,14 +1008,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>303.72000000000003</v>
     <v>220</v>
-    <v>0.45440000000000003</v>
-    <v>2.98</v>
-    <v>-1.124E-3</v>
-    <v>1.1686E-2</v>
-    <v>-0.28999999999999998</v>
+    <v>0.4572</v>
+    <v>5.5750000000000002</v>
+    <v>2.2366999999999998E-2</v>
     <v>USD</v>
     <v>American Tower Corporation is a holding company. The Company operates as a real estate investment trust (REIT), which owns, operates and develops multitenant communications real estate. Its segments include U.S. &amp; Canada property, Asia-Pacific property, Africa property, Europe property and Latin America property. Its U.S. &amp; Canada property segment includes operations in Canada and the United States. Its Asia-Pacific property segment includes operations in Australia, Bangladesh, India and the Philippines. The Africa property segment includes operations in Burkina Faso, Ghana, Kenya, Niger, Nigeria, South Africa and Uganda. The Europe property segment includes operations in France, Germany, Spain and Poland. The Latin America property segment includes operations in Argentina, Brazil, Chile, Colombia, Costa Rica, Mexico, Paraguay and Peru. It also offers data center property operations in the United States. The Company offers tower-related services in the United States.</v>
     <v>6378</v>
@@ -1046,25 +1021,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>116 Huntington Ave, BOSTON, MA, 02116-5749 US</v>
-    <v>258.45999999999998</v>
+    <v>255.48</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44753.88380275391</v>
+    <v>44761.711797615622</v>
     <v>8</v>
-    <v>252.49</v>
-    <v>119887282226</v>
+    <v>251.59</v>
+    <v>118416514955</v>
     <v>AMERICAN TOWER CORPORATION</v>
     <v>AMERICAN TOWER CORPORATION</v>
-    <v>255</v>
-    <v>44.118000000000002</v>
-    <v>255.01</v>
-    <v>257.99</v>
-    <v>257.7</v>
+    <v>251.64500000000001</v>
+    <v>43.121499999999997</v>
+    <v>249.25</v>
+    <v>254.82499999999999</v>
     <v>464697400</v>
     <v>AMT</v>
     <v>AMERICAN TOWER CORPORATION (XNYS:AMT)</v>
-    <v>1299529</v>
-    <v>2390086</v>
+    <v>548543</v>
+    <v>1928466</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1088,37 +1062,34 @@
     <v>4</v>
     <v>973.16</v>
     <v>575.6</v>
-    <v>1.2668999999999999</v>
-    <v>-15.04</v>
-    <v>3.3059999999999999E-3</v>
-    <v>-2.4275000000000001E-2</v>
-    <v>2</v>
+    <v>1.2689999999999999</v>
+    <v>22.954999999999998</v>
+    <v>3.8415999999999999E-2</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment and risk management services to institutional and retail clients. Its diverse platform of active (alpha) and index (beta) investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>18700</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>55 E 52nd St, 55 EAST 52ND STREET, NEW YORK, NY, 10055 US</v>
-    <v>613.88499999999999</v>
+    <v>55 E 52nd St, NEW YORK, NY, 10055-0002 US</v>
+    <v>624.59</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44753.92151490703</v>
+    <v>44761.711758193749</v>
     <v>11</v>
-    <v>603.73</v>
-    <v>91586774916</v>
+    <v>606.55999999999995</v>
+    <v>90206980000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>612.04</v>
-    <v>15.5656</v>
-    <v>619.55999999999995</v>
-    <v>604.52</v>
-    <v>607</v>
-    <v>151503300</v>
+    <v>607.19000000000005</v>
+    <v>15.7479</v>
+    <v>597.53</v>
+    <v>620.48500000000001</v>
+    <v>150966500</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>460064</v>
-    <v>785224</v>
+    <v>332997</v>
+    <v>794688</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -1137,7 +1108,7 @@
     <v>15</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_0aa288ba528f6f45e3de87d97e250136&amp;qlt=95</v>
     <v>16</v>
     <v>0</v>
@@ -1154,19 +1125,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
     <v>4</v>
     <v>187.57990000000001</v>
-    <v>92.01</v>
-    <v>1.2337</v>
-    <v>-2.19</v>
-    <v>3.2039999999999998E-4</v>
-    <v>-2.2846000000000002E-2</v>
-    <v>0.03</v>
+    <v>90.23</v>
+    <v>1.2357</v>
+    <v>2.9</v>
+    <v>3.0303E-2</v>
     <v>USD</v>
     <v>The Walt Disney Company is a worldwide entertainment company. The Company’s segments include Disney Media and Entertainment Distribution (DMED), and Disney Parks, Experiences and Products (DPEP). The DMED segment encompasses the Company’s global film and episodic television content production and distribution activities. The Company’s DMED’s lines of business consists of Linear Networks, Direct-to-Consumer and Content Sales/Licensing. The Company’s DPEP segment business consists of sale of admissions to theme parks, the sale of food, beverage and merchandise at its theme parks and resorts, sales of cruise vacations, sales and rentals of vacation club properties, royalties from licensing its intellectual properties (IP) for use on consumer goods and the sale of branded merchandise. The Content Sales/Licensing business consist of selling film and episodic television content in the television and subscription video-on-demand (TV/SVOD) and home entertainment markets.</v>
     <v>190000</v>
@@ -1174,26 +1143,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
-    <v>95.337500000000006</v>
+    <v>98.81</v>
     <v>17</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>44753.92132865703</v>
+    <v>44761.711823957812</v>
     <v>18</v>
-    <v>93.43</v>
-    <v>170618406280</v>
+    <v>96.68</v>
+    <v>179598322400</v>
     <v>THE WALT DISNEY COMPANY</v>
     <v>THE WALT DISNEY COMPANY</v>
-    <v>95</v>
-    <v>64.811400000000006</v>
-    <v>95.86</v>
-    <v>93.67</v>
-    <v>93.67</v>
+    <v>96.8</v>
+    <v>64.703299999999999</v>
+    <v>95.7</v>
+    <v>98.6</v>
     <v>1821484000</v>
     <v>DIS</v>
     <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
-    <v>7643369</v>
-    <v>11000736</v>
+    <v>5313619</v>
+    <v>11764848</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1214,40 +1182,37 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>254.99</v>
     <v>182.66</v>
-    <v>0.89429999999999998</v>
-    <v>-1.36</v>
-    <v>0</v>
-    <v>-6.1510000000000002E-3</v>
-    <v>0</v>
+    <v>0.89649999999999996</v>
+    <v>3.36</v>
+    <v>1.6015999999999999E-2</v>
     <v>USD</v>
     <v>General Dynamics Corporation is a global aerospace and defense company. The Company offers a portfolio of products and services in business aviation; ship construction and repair; land combat vehicles, weapons systems and munitions, and technology products and services. The Company’s segments include Aerospace, Marine Systems, Combat Systems and Technologies. The Aerospace segment produces business jets and the standard bearer in aircraft repair, support and completion services. The Marine Systems segment designs and builds nuclear-powered submarines and offers in surface combatants and auxiliary ship design and construction for the United States Navy. The Combat Systems segment manufactures land combat solutions, including wheeled and tracked combat vehicles, weapons systems and munitions. The Technologies segment provides a spectrum of services, technologies and products to market that seeks solutions combining electronic hardware with specialized software.</v>
     <v>103100</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>SUITE 100, 2941 FAIRVIEW PARK DRIVE, FALLS CHURCH, VA, 22042-4513 US</v>
-    <v>221.86</v>
+    <v>11011 Sunset Hills Rd, RESTON, VA, 20190 US</v>
+    <v>213.3997</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44753.910719640626</v>
+    <v>44761.711779825782</v>
     <v>21</v>
-    <v>218.8</v>
-    <v>61025695725</v>
+    <v>209.09460000000001</v>
+    <v>59192842065</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
     <v>GENERAL DYNAMICS CORPORATION</v>
-    <v>219.68</v>
-    <v>18.935600000000001</v>
-    <v>221.11</v>
-    <v>219.75</v>
-    <v>219.75</v>
+    <v>209.37</v>
+    <v>17.966200000000001</v>
+    <v>209.79</v>
+    <v>213.15</v>
     <v>277705100</v>
     <v>GD</v>
     <v>GENERAL DYNAMICS CORPORATION (XNYS:GD)</v>
-    <v>652226</v>
-    <v>1293485</v>
+    <v>332369</v>
+    <v>1234718</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1268,14 +1233,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
-    <v>3030.9315000000001</v>
-    <v>2037.6936000000001</v>
-    <v>1.1086</v>
-    <v>-73.540000000000006</v>
-    <v>5.2729999999999997E-4</v>
-    <v>-3.0807999999999999E-2</v>
-    <v>1.22</v>
+    <v>4</v>
+    <v>151.54660000000001</v>
+    <v>101.8847</v>
+    <v>1.0998000000000001</v>
+    <v>3.59</v>
+    <v>3.2926999999999998E-2</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes Google's infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform enables developers to build, test, and deploy applications on its infrastructure. The Company's Google Workspace collaboration tools include applications, such as Gmail, Docs, Drive, Calendar, Meet, and various others. The Company also has various hardware products.</v>
     <v>163906</v>
@@ -1283,25 +1246,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Pkwy, MOUNTAIN VIEW, CA, 94043-1351 US</v>
-    <v>2359.96</v>
+    <v>112.98</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44753.910930786718</v>
+    <v>44761.711816909374</v>
     <v>24</v>
-    <v>2306.61</v>
-    <v>1576993000000</v>
+    <v>109.67</v>
+    <v>1441440000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>2359.96</v>
-    <v>21.5928</v>
-    <v>2387.0700000000002</v>
-    <v>2313.5300000000002</v>
-    <v>2314.75</v>
-    <v>658499900</v>
+    <v>110.85</v>
+    <v>19.725100000000001</v>
+    <v>109.03</v>
+    <v>112.62</v>
+    <v>13170000000</v>
     <v>GOOGL</v>
     <v>ALPHABET INC. (XNAS:GOOGL)</v>
-    <v>1559522</v>
-    <v>1851498</v>
+    <v>17874495</v>
+    <v>39057828</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1325,37 +1287,34 @@
     <v>4</v>
     <v>420.61</v>
     <v>264.51</v>
-    <v>0.99119999999999997</v>
-    <v>-0.2</v>
-    <v>7.333000000000001E-4</v>
-    <v>-6.9819999999999995E-4</v>
-    <v>0.21</v>
+    <v>0.9909</v>
+    <v>4.99</v>
+    <v>1.7028000000000001E-2</v>
     <v>USD</v>
-    <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,317 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
+    <v>The Home Depot, Inc. is a home improvement retailer. The Company offers its customers an assortment of building materials, home improvement products, lawn and garden products, decor products, and facilities maintenance, repair and operations products and provides a number of services, including home improvement installation services and tool and equipment rental. It operates approximately 2,316 stores located throughout the United States (U.S.), including the Commonwealth of Puerto Rico and the territories of the U.S. Virgin Islands and Guam; Canada, and Mexico. The Company serves two primary customer groups: do-it-yourself (DIY) Customers and Professional Customers (Pros). DIY Customers include homeowners who purchase products and complete their own projects and installations. Pros are primarily professional renovators/remodelers, general contractors, handymen, property managers, building service contractors and specialty tradesmen, such as electricians, plumbers and painters.</v>
     <v>490600</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>2455 Paces Ferry Rd SE, ATLANTA, GA, 30339-6444 US</v>
-    <v>289.58999999999997</v>
+    <v>2455 Paces Ferry Road, ATLANTA, GA, 30339-4024 US</v>
+    <v>298.33</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44753.917661365624</v>
+    <v>44761.71182673594</v>
     <v>27</v>
-    <v>285.14</v>
-    <v>294215423850</v>
+    <v>293.31009999999998</v>
+    <v>306312100200</v>
     <v>THE HOME DEPOT, INC.</v>
     <v>THE HOME DEPOT, INC.</v>
-    <v>285.18</v>
-    <v>18.184799999999999</v>
-    <v>286.47000000000003</v>
-    <v>286.27</v>
-    <v>286.60000000000002</v>
+    <v>295.77</v>
+    <v>18.602499999999999</v>
+    <v>293.05</v>
+    <v>298.04000000000002</v>
     <v>1027755000</v>
     <v>HD</v>
     <v>THE HOME DEPOT, INC. (XNYS:HD)</v>
-    <v>2453164</v>
-    <v>4212151</v>
+    <v>890915</v>
+    <v>4048075</v>
     <v>1978</v>
   </rv>
   <rv s="2">
@@ -1376,14 +1335,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>55.11</v>
     <v>40.479999999999997</v>
-    <v>0.1086</v>
-    <v>0.25</v>
-    <v>5.0210000000000003E-3</v>
-    <v>5.2580000000000005E-3</v>
-    <v>0.24</v>
+    <v>0.10920000000000001</v>
+    <v>0.3</v>
+    <v>6.3330000000000001E-3</v>
     <v>USD</v>
     <v>Hormel Foods Corporation is a global food company. Its segments include Grocery Products, Refrigerated Foods, Jennie-O Turkey Store, and International &amp; Other. The Grocery Products segment consists primarily of the processing, marketing, and sale of shelf-stable food products sold predominantly in the retail market, along with the sale of nutritional and private label shelf-stable products to retail, foodservice, and industrial customers. The Refrigerated Foods segment consists primarily of the processing, marketing, and sale of branded and unbranded pork, beef, and poultry products for retail, foodservice, deli, convenience store, and commercial customers. The Jennie-O Turkey Store segment consists primarily of the processing, marketing, and sale of branded and unbranded turkey products for retail, foodservice, and commercial customers. The International &amp; Other segment includes Hormel Foods International, which manufactures, markets, and sells Company's products internationally.</v>
     <v>20000</v>
@@ -1391,25 +1348,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Hormel Pl, AUSTIN, MN, 55912-3680 US</v>
-    <v>48.085000000000001</v>
+    <v>47.795000000000002</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44753.906703066408</v>
+    <v>44761.71168641172</v>
     <v>30</v>
-    <v>47.6</v>
-    <v>26101457680</v>
+    <v>47.452800000000003</v>
+    <v>26030470452</v>
     <v>HORMEL FOODS CORPORATION</v>
     <v>HORMEL FOODS CORPORATION</v>
-    <v>47.61</v>
-    <v>27.1662</v>
-    <v>47.55</v>
-    <v>47.8</v>
-    <v>48.04</v>
+    <v>47.46</v>
+    <v>27.063300000000002</v>
+    <v>47.37</v>
+    <v>47.67</v>
     <v>546055600</v>
     <v>HRL</v>
     <v>HORMEL FOODS CORPORATION (XNYS:HRL)</v>
-    <v>1275572</v>
-    <v>1932810</v>
+    <v>257360</v>
+    <v>1650878</v>
     <v>1928</v>
   </rv>
   <rv s="2">
@@ -1430,14 +1386,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>231.595</v>
     <v>167.8</v>
-    <v>0.33</v>
-    <v>0.71</v>
-    <v>0</v>
-    <v>3.2300000000000002E-3</v>
-    <v>0</v>
+    <v>0.32950000000000002</v>
+    <v>0.72</v>
+    <v>3.3479999999999998E-3</v>
     <v>USD</v>
     <v>The Hershey Company is a confectionery company. It produces snack, chocolate, and non-chocolate confectionery. Its segments include North America Confectionery, North America Salty Snacks, and International. North America Confectionery segment consists of traditional chocolate and non-chocolate confectionery markets in the United States and Canada. This includes chocolate and non-chocolate confectionery, gum and refreshment products, protein bars, spreads, snack bites and mixes, as well as pantry, and food service lines. North America Salty Snacks segment includes salty snacking products in the United States. This includes ready-to-eat popcorn, baked and trans-fat free snacks, pretzels, and other snacks. The international segment has operations and manufactures products in Mexico, Brazil, India, and Malaysia for consumers in these regions, and also distributes and sells confectionery products in export markets of Asia, Latin America, Middle East, Europe, Africa and other regions.</v>
     <v>16620</v>
@@ -1445,25 +1399,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>P O BOX 810-EXTERNAL RPTG &amp; COMPLIANCE, 100 CRYSTAL A DRIVE, HERSHEY, PA, 17033-0810 US</v>
-    <v>222.31</v>
+    <v>216.79499999999999</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44753.866116712503</v>
+    <v>44761.711820508594</v>
     <v>33</v>
-    <v>219.73</v>
-    <v>45335814300</v>
+    <v>215.26</v>
+    <v>44365360588</v>
     <v>THE HERSHEY COMPANY</v>
     <v>THE HERSHEY COMPANY</v>
-    <v>219.73</v>
-    <v>28.259899999999998</v>
-    <v>219.79</v>
-    <v>220.5</v>
-    <v>220.5</v>
+    <v>215.91</v>
+    <v>27.651800000000001</v>
+    <v>215.06</v>
+    <v>215.78</v>
     <v>205604600</v>
     <v>HSY</v>
     <v>THE HERSHEY COMPANY (XNYS:HSY)</v>
-    <v>582497</v>
-    <v>1103690</v>
+    <v>195160</v>
+    <v>1097214</v>
     <v>1927</v>
   </rv>
   <rv s="2">
@@ -1485,13 +1438,11 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>57.454999999999998</v>
+    <v>56.54</v>
     <v>35.54</v>
-    <v>0.66749999999999998</v>
-    <v>-0.79</v>
-    <v>3.7630000000000003E-3</v>
-    <v>-2.0794999999999998E-2</v>
-    <v>0.14000000000000001</v>
+    <v>0.66859999999999997</v>
+    <v>1.7350000000000001</v>
+    <v>4.4819999999999999E-2</v>
     <v>USD</v>
     <v>Intel Corporation is engaged in designing and manufacturing products and technologies. The Company's segments include Client Computing Group (CCG), Data Center Group (DCG), Internet of Things Group (IOTG), Mobileye, Non-Volatile Memory Solutions Group (NSG) and Programmable Solutions Group (PSG). The CCG segment is focused on long-term operating system, system architecture, hardware, and application integration that enable PC experiences. The DCG segment develops workload-optimized platforms for compute, storage, and network functions. The IOTG segment develops high-performance compute platforms that solve the technology needs for business use cases that scale across vertical industries and embedded markets. The Mobileye segment provides driving assistance and self-driving solutions. The NSG segment provides memory and storage products based on Intel 3D NAND technology. The PSG segment offers programmable semiconductors, primarily FPGAs, structured ASICs, and related products.</v>
     <v>121100</v>
@@ -1499,25 +1450,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>RNB-4-151, 2200 MISSION COLLEGE BLVD, SANTA CLARA, CA, 95054 US</v>
-    <v>37.674999999999997</v>
+    <v>40.49</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44753.92031415469</v>
+    <v>44761.711847603903</v>
     <v>36</v>
-    <v>37.03</v>
-    <v>152110800000</v>
+    <v>39.244999999999997</v>
+    <v>165379605000</v>
     <v>INTEL CORPORATION</v>
     <v>INTEL CORPORATION</v>
-    <v>37.659999999999997</v>
-    <v>6.3185000000000002</v>
-    <v>37.99</v>
-    <v>37.200000000000003</v>
-    <v>37.340000000000003</v>
+    <v>39.33</v>
+    <v>6.4382000000000001</v>
+    <v>38.71</v>
+    <v>40.445</v>
     <v>4089000000</v>
     <v>INTC</v>
     <v>INTEL CORPORATION (XNAS:INTC)</v>
-    <v>25903622</v>
-    <v>36373478</v>
+    <v>19819724</v>
+    <v>35283260</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -1538,40 +1488,37 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>172.96</v>
-    <v>109.3</v>
-    <v>1.1428</v>
-    <v>-1.5</v>
-    <v>8.8610000000000007E-5</v>
-    <v>-1.3116000000000001E-2</v>
-    <v>0.01</v>
+    <v>106.06</v>
+    <v>1.1447000000000001</v>
+    <v>2.38</v>
+    <v>2.129E-2</v>
     <v>USD</v>
     <v>JPMorgan Chase &amp; Co. is a financial holding company engaged in investment banking, financial services and asset management. It operates in four segments, as well as a Corporate segment. The Company's segments are Consumer &amp; Community Banking, Corporate &amp; Investment Bank, Commercial Banking and Asset Management. The Consumer &amp; Community Banking segment offers services to consumers and businesses through bank branches, automatic teller machines, online, mobile and telephone banking. The Corporate &amp; Investment Bank segment, comprising Banking and Markets and Investor Services, offers investment banking, market-making, prime brokerage, and treasury and securities products and services to corporations, investors, financial institutions, and government and municipal entities. The Commercial Banking segment provides financial solutions, including lending, treasury services, investment banking and asset management. The Asset Management segment comprises investment and wealth management.</v>
     <v>273948</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>38Th Fl, 270 Park Ave, NEW YORK, NY, 10017 US</v>
-    <v>114.23</v>
+    <v>383 Madison Avenue, NEW YORK, NY, 10017 US</v>
+    <v>114.535</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>44753.909283089844</v>
+    <v>44761.71177554375</v>
     <v>39</v>
-    <v>112.215</v>
-    <v>331475575860</v>
+    <v>112.67</v>
+    <v>335323112670</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
     <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>113.55</v>
-    <v>8.4863999999999997</v>
-    <v>114.36</v>
-    <v>112.86</v>
-    <v>112.87</v>
+    <v>113.14</v>
+    <v>8.9725999999999999</v>
+    <v>111.79</v>
+    <v>114.17</v>
     <v>2937051000</v>
     <v>JPM</v>
     <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>7938609</v>
-    <v>12415074</v>
+    <v>4923300</v>
+    <v>13783793</v>
     <v>1968</v>
   </rv>
   <rv s="2">
@@ -1595,37 +1542,34 @@
     <v>4</v>
     <v>67.2</v>
     <v>52.28</v>
-    <v>0.55500000000000005</v>
-    <v>-0.17</v>
-    <v>-6.355E-4</v>
-    <v>-2.6919999999999999E-3</v>
-    <v>-0.04</v>
+    <v>0.55649999999999999</v>
+    <v>0.78979999999999995</v>
+    <v>1.2810999999999999E-2</v>
     <v>USD</v>
     <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; hydration, sports, coffee and tea; nutrition, juice, dairy and plant-based beverages; and emerging beverages. It owns and markets five nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke and Coca-Cola Zero Sugar. Its hydration, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. Its nutrition, juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. Its products are available to consumers in more than 200 countries.</v>
     <v>79000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>1 Coca Cola Plz NW, ONE COCA COLA PLAZA, ATLANTA, GA, 30313 US</v>
-    <v>63.46</v>
+    <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
+    <v>62.48</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44753.920900937497</v>
+    <v>44761.711832279689</v>
     <v>42</v>
-    <v>62.585000000000001</v>
-    <v>272976776130</v>
+    <v>61.924999999999997</v>
+    <v>270678343754</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>62.99</v>
-    <v>26.630199999999999</v>
-    <v>63.14</v>
-    <v>62.97</v>
-    <v>62.9</v>
+    <v>62.12</v>
+    <v>26.001799999999999</v>
+    <v>61.65</v>
+    <v>62.439799999999998</v>
     <v>4335029000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>12702130</v>
-    <v>16338050</v>
+    <v>4119358</v>
+    <v>16459430</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1646,14 +1590,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>479.99</v>
     <v>324.2278</v>
-    <v>0.72009999999999996</v>
-    <v>-1.28</v>
-    <v>0</v>
-    <v>-3.045E-3</v>
-    <v>0</v>
+    <v>0.72440000000000004</v>
+    <v>-0.11</v>
+    <v>-2.8400000000000002E-4</v>
     <v>USD</v>
     <v>Lockheed Martin Corporation is a security and aerospace company. It operates through four segments. Aeronautics segment is engaged in the research, design, development, manufacture, support and upgrade of military aircraft, including combat and air mobility aircraft, unmanned air vehicles and related technologies. Missiles and Fire Control segment provides air and missile defense systems; fire control systems; manned and unmanned ground vehicles, and energy management solutions. Rotary and Mission Systems segment provides design, manufacture, service and support for various military and commercial helicopters, surface ships, sea and land-based missile defense systems, radar systems, sea and air-based mission and combat systems, command and control mission solutions, cyber solutions, and simulation and training solutions. Space segment is engaged in the research and development, design, engineering and production of satellites, space transportation systems, strike and defensive systems.</v>
     <v>114000</v>
@@ -1661,25 +1603,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>6801 ROCKLEDGE DR, BETHESDA, MD, 20817 US</v>
-    <v>423</v>
+    <v>388.18</v>
     <v>Aerospace &amp; Defense</v>
     <v>Stock</v>
-    <v>44753.904047753909</v>
+    <v>44761.711787152344</v>
     <v>45</v>
-    <v>415.38</v>
-    <v>111517460490</v>
+    <v>373.67</v>
+    <v>103028647190</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
     <v>LOCKHEED MARTIN CORPORATION</v>
-    <v>417.9</v>
-    <v>18.561299999999999</v>
-    <v>420.35</v>
-    <v>419.07</v>
-    <v>419.07</v>
+    <v>380.77</v>
+    <v>17.100999999999999</v>
+    <v>387.28</v>
+    <v>387.17</v>
     <v>266107000</v>
     <v>LMT</v>
     <v>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</v>
-    <v>602638</v>
-    <v>1271297</v>
+    <v>1710047</v>
+    <v>1330552</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -1700,14 +1641,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
+    <v>14</v>
     <v>263.31</v>
     <v>170.12</v>
-    <v>1.2493000000000001</v>
-    <v>-1.57</v>
-    <v>0</v>
-    <v>-8.6439999999999989E-3</v>
-    <v>0</v>
+    <v>1.2511000000000001</v>
+    <v>4.0201000000000002</v>
+    <v>2.1760999999999999E-2</v>
     <v>USD</v>
     <v>Lowe's Companies, Inc. (Lowe's) is a home improvement company. The Company operates home improvement and hardware stores. The Company offers a range of products for maintenance, repair, remodeling and decorating. The Company offers home improvement products in categories, including Appliances, Seasonal and Outdoor Living, Lawn and Garden, Lumber, Kitchens and Bath, Tools, Paint, Millwork, Hardware, Flooring, Rough Plumbing, Building Materials, Decor, Lighting, and Electrical. It offers installation services through contractors in its product categories, with Flooring, Kitchens and Bath, Millwork, Appliances, and Lumber. Through its Websites and mobile applications, it provides an online product information, customer ratings and reviews, online buying guides and how-to videos and other information. It serves homeowners, renters, and professional customers. The Company operates approximately 1,737 stores located across 50 states in United States, as well as over 234 stores in Canada.</v>
     <v>200000</v>
@@ -1715,25 +1654,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1000 Lowes Blvd, MOORESVILLE, NC, 28117-8520 US</v>
-    <v>183</v>
+    <v>188.88</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>44753.915593228907</v>
+    <v>44761.701414560157</v>
     <v>48</v>
-    <v>179.66</v>
-    <v>115081531728</v>
+    <v>184.82</v>
+    <v>118743700000</v>
     <v>LOWE'S COMPANIES, INC.</v>
     <v>LOWE'S COMPANIES, INC.</v>
-    <v>181.22399999999999</v>
-    <v>14.805300000000001</v>
-    <v>181.63</v>
-    <v>180.06</v>
-    <v>180.11</v>
+    <v>186.57</v>
+    <v>15.0588</v>
+    <v>184.73990000000001</v>
+    <v>188.76</v>
     <v>639128800</v>
     <v>LOW</v>
     <v>LOWE'S COMPANIES, INC. (XNYS:LOW)</v>
-    <v>2285104</v>
-    <v>3746944</v>
+    <v>1045676</v>
+    <v>3753983</v>
     <v>1952</v>
   </rv>
   <rv s="2">
@@ -1748,7 +1686,7 @@
     <v>51</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_8d96836a886471f7120ce0135f3ca8bd&amp;qlt=95</v>
     <v>52</v>
     <v>0</v>
@@ -1765,19 +1703,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>107.35</v>
     <v>77.849999999999994</v>
-    <v>0.48949999999999999</v>
-    <v>0.26</v>
-    <v>0</v>
-    <v>3.1680000000000002E-3</v>
-    <v>0</v>
+    <v>0.49390000000000001</v>
+    <v>0.65</v>
+    <v>8.0300000000000007E-3</v>
     <v>USD</v>
     <v>McCormick &amp; Company, Incorporated is engaged in manufacturing, marketing and distributing spices, seasoning mixes, condiments and other flavorful products to the entire food industry retailers, food manufacturers and foodservice businesses. The Company operates through two business segments: Consumer and Flavor Solutions. In Consumer segment, it sells its products under the McCormick brand and a variety of brands around the world, including French's, Frank's RedHot, Lawry’s, Zatarain’s, Simply Asia, Thai Kitchen, Ducros, Vahine, Cholula, Schwartz, Club House, Kamis, DaQiao, Drogheria &amp; Alimentari, Stubb's, OLD BAY and Gourmet Garden. In Flavor Solutions segment, the Company provides a range of products to multinational food manufacturers and foodservice customers. Its sales, distribution and production facilities are located in North America, Europe and China, and additional facilities are based in Australia, Central America, Thailand and South Africa.</v>
     <v>14000</v>
@@ -1785,26 +1721,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>24 Schilling Road, HUNT VALLEY, MD, 21031 US</v>
-    <v>83.075000000000003</v>
+    <v>82.144999999999996</v>
     <v>53</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44753.840277789066</v>
+    <v>44761.711840450778</v>
     <v>54</v>
-    <v>82.034999999999997</v>
-    <v>22028380000</v>
+    <v>81.209999999999994</v>
+    <v>21730560000</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED</v>
-    <v>82.16</v>
-    <v>32.410600000000002</v>
-    <v>82.07</v>
-    <v>82.33</v>
-    <v>82.33</v>
+    <v>81.525000000000006</v>
+    <v>31.9682</v>
+    <v>80.95</v>
+    <v>81.599999999999994</v>
     <v>268296700</v>
     <v>MKC</v>
     <v>MCCORMICK &amp; COMPANY, INCORPORATED (XNYS:MKC)</v>
-    <v>890667</v>
-    <v>1281230</v>
+    <v>480646</v>
+    <v>1342311</v>
     <v>1915</v>
   </rv>
   <rv s="2">
@@ -1819,7 +1754,7 @@
     <v>57</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
     <v>58</v>
     <v>0</v>
@@ -1836,46 +1771,43 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
     <v>4</v>
     <v>349.67</v>
     <v>241.51</v>
-    <v>0.93049999999999999</v>
-    <v>-3.15</v>
-    <v>-4.1590000000000003E-4</v>
-    <v>-1.1769E-2</v>
-    <v>-0.11</v>
+    <v>0.92979999999999996</v>
+    <v>3.6373000000000002</v>
+    <v>1.4306000000000001E-2</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>1 Microsoft Way, ONE MICROSOFT WAY, REDMOND, WA, 98052-6399 US</v>
-    <v>266.52999999999997</v>
+    <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
+    <v>258.06</v>
     <v>59</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44753.921677140628</v>
+    <v>44761.711856562499</v>
     <v>60</v>
-    <v>262.18</v>
-    <v>1978279018830</v>
+    <v>253.69</v>
+    <v>1928747626980</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>265.64999999999998</v>
-    <v>27.9253</v>
-    <v>267.66000000000003</v>
-    <v>264.51</v>
-    <v>264.39999999999998</v>
+    <v>257.89</v>
+    <v>26.526199999999999</v>
+    <v>254.25</v>
+    <v>257.88729999999998</v>
     <v>7479033000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>19454990</v>
-    <v>28254467</v>
+    <v>10161963</v>
+    <v>28238332</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -1898,12 +1830,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>177.62</v>
-    <v>148.78</v>
-    <v>0.56759999999999999</v>
-    <v>-1.41</v>
-    <v>-1.0560000000000001E-3</v>
-    <v>-8.2030000000000002E-3</v>
-    <v>-0.18</v>
+    <v>149.47999999999999</v>
+    <v>0.56589999999999996</v>
+    <v>1.57</v>
+    <v>9.3310000000000008E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
     <v>309000</v>
@@ -1911,25 +1841,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>172.8</v>
+    <v>170.25</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>44753.921401678126</v>
+    <v>44761.711854941408</v>
     <v>63</v>
-    <v>170.02</v>
-    <v>235706141480</v>
+    <v>168.62620000000001</v>
+    <v>234379835550</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>171.41</v>
-    <v>23.0748</v>
-    <v>171.88</v>
-    <v>170.47</v>
-    <v>170.29</v>
-    <v>1382684000</v>
+    <v>170.25</v>
+    <v>24.8216</v>
+    <v>168.26</v>
+    <v>169.83</v>
+    <v>1380085000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>4920893</v>
-    <v>4998707</v>
+    <v>1368524</v>
+    <v>5172146</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1950,40 +1879,37 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>165.35</v>
     <v>129.5</v>
-    <v>0.38279999999999997</v>
-    <v>1.02</v>
-    <v>1.369E-3</v>
-    <v>7.0340000000000003E-3</v>
-    <v>0.2</v>
+    <v>0.38379999999999997</v>
+    <v>0.68</v>
+    <v>4.7450000000000001E-3</v>
     <v>USD</v>
     <v>The Procter &amp; Gamble Company is focused on providing branded consumer packaged goods to the consumers across the world. The Company operates through five segments: Beauty; Grooming; Health Care; Fabric &amp; Home Care, and Baby, Feminine &amp; Family Care. The Company sells its products in countries and territories primarily through mass merchandisers, grocery stores, membership club stores, drug stores, department stores, distributors, wholesalers, baby stores, specialty beauty stores, e-commerce, high-frequency stores, pharmacies, electronics stores and professional channels. It offers products under the brands, such as Head &amp; Shoulders, Herbal Essences, Pantene, Rejoice, Olay, Old Spice, Safeguard, Secret, SK-II, Braun, Gillette, Venus, Crest, Oral-B, Metamucil, Neurobion, Pepto-Bismol, Vicks, Ariel, Downy, Gain, Tide, Cascade, Dawn, Fairy, Febreze, Mr. Clean, Swiffer, Luvs, Pampers, Always, Always Discreet, Tampax, Bounty, Charmin and Puffs.</v>
     <v>101000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>ONE PROCTER &amp; GAMBLE PLAZA, ONE PROCTER &amp; GAMBLE PLAZA, CINCINNATI, OH, 45202 US</v>
-    <v>146.58000000000001</v>
+    <v>One Procter &amp;amp; Gamble Plaza, One Procter &amp;amp; Gamble Plaza, CINCINNATI, OH, 45202 US</v>
+    <v>145.01</v>
     <v>Personal &amp; Household Products &amp; Services</v>
     <v>Stock</v>
-    <v>44753.907456017965</v>
+    <v>44761.711784687497</v>
     <v>66</v>
-    <v>144.68</v>
-    <v>350393333880</v>
+    <v>143.65</v>
+    <v>345474775030</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY</v>
-    <v>145.15</v>
-    <v>25.343</v>
-    <v>145.02000000000001</v>
-    <v>146.04</v>
-    <v>146.24</v>
+    <v>144.55000000000001</v>
+    <v>25.0442</v>
+    <v>143.31</v>
+    <v>143.99</v>
     <v>2399297000</v>
     <v>PG</v>
     <v>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</v>
-    <v>5482894</v>
-    <v>7586353</v>
+    <v>2095011</v>
+    <v>7709378</v>
     <v>1905</v>
   </rv>
   <rv s="2">
@@ -2006,12 +1932,10 @@
     <v>Finance</v>
     <v>4</v>
     <v>171.12</v>
-    <v>93.2</v>
-    <v>1.4957</v>
-    <v>-0.56000000000000005</v>
-    <v>2.16E-3</v>
-    <v>-5.7320000000000001E-3</v>
-    <v>0.21</v>
+    <v>93.06</v>
+    <v>1.4968999999999999</v>
+    <v>2.78</v>
+    <v>2.8183E-2</v>
     <v>USD</v>
     <v>Simon Property Group, Inc. is a self-administered and self-managed real estate investment trust (REIT). The Company owns, develops and manages premier shopping, dining, entertainment and mixed-use destinations, which consist primarily of malls, Premium Outlets, and The Mills. The Company owns approximately 199 properties in the United States, which consist of 95 malls, 69 Premium Outlets, 14 Mills, six lifestyle centers, and 15 other retail properties in 37 states and Puerto Rico. Simon Property Group, L.P. (Operating Partnership), is the Company's partnership subsidiary that owns all of its real estate properties and other assets. In addition, the Company has redevelopment and expansion projects, including the addition of anchors, big box tenants, and restaurants, underway at several properties in North America, Europe and Asia. The Company owns an interest in approximately 33 Premium Outlets and Designer Outlet properties primarily located in Asia, Europe and Canada.</v>
     <v>2400</v>
@@ -2019,25 +1943,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>225 W Washington St, INDIANAPOLIS, IN, 46204-3438 US</v>
-    <v>97.51</v>
+    <v>101.56</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>44753.921052048434</v>
+    <v>44761.711808564061</v>
     <v>69</v>
-    <v>95.73</v>
-    <v>31920667218</v>
+    <v>99.15</v>
+    <v>33330526812</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
     <v>SIMON PROPERTY GROUP, INC.</v>
-    <v>96.98</v>
-    <v>14.4108</v>
-    <v>97.69</v>
-    <v>97.13</v>
-    <v>97.43</v>
+    <v>99.83</v>
+    <v>14.551</v>
+    <v>98.64</v>
+    <v>101.42</v>
     <v>328638600</v>
     <v>SPG</v>
     <v>SIMON PROPERTY GROUP, INC. (XNYS:SPG)</v>
-    <v>1032393</v>
-    <v>2286029</v>
+    <v>706433</v>
+    <v>2241003</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2052,7 +1975,7 @@
     <v>72</v>
   </rv>
   <rv s="6">
-    <v>14</v>
+    <v>13</v>
     <v>https://www.bing.com/th?id=AMMS_4c600be848f66590834841f27e6f786d&amp;qlt=95</v>
     <v>73</v>
     <v>0</v>
@@ -2069,19 +1992,17 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>10</v>
+    <v>9</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
+    <v>11</v>
     <v>12</v>
-    <v>13</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>14</v>
     <v>224.55500000000001</v>
     <v>104.72</v>
-    <v>1.33</v>
-    <v>-2.86</v>
-    <v>6.012E-3</v>
-    <v>-2.4664000000000002E-2</v>
-    <v>0.68</v>
+    <v>1.3322000000000001</v>
+    <v>4.62</v>
+    <v>4.0637E-2</v>
     <v>USD</v>
     <v>T. Rowe Price Group, Inc. is a financial service holding company, which provides global investment management services through its subsidiaries to investors worldwide. It provides a range of United States mutual funds, sub advised funds, separately managed accounts, collective investment trusts and other products, which include open-ended investment products offered to investors outside the United States and products offered through variable annuity life insurance plans in the United States. It also provides investment advisory clients with related administrative services, including distribution, mutual fund transfer agent, accounting and shareholder services; participant recordkeeping and transfer agent services for defined contribution retirement plans; brokerage; trust services; and non-discretionary advisory services through model delivery. It operates in Americas; Europe, Middle East and Africa; and Asia Pacific. It serves clients in approximately 50 countries across the world.</v>
     <v>7529</v>
@@ -2089,26 +2010,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P.O. Box 89000, 100 East Pratt Street, BALTIMORE, MD, 21289-0320 US</v>
-    <v>114.77</v>
+    <v>118.38</v>
     <v>74</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>44753.897861816404</v>
+    <v>44761.70131188594</v>
     <v>75</v>
-    <v>112.33</v>
-    <v>25707245460</v>
+    <v>115.5</v>
+    <v>26891460746</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
     <v>T. ROWE PRICE GROUP, INC.</v>
-    <v>113.95</v>
-    <v>9.3793000000000006</v>
-    <v>115.96</v>
-    <v>113.1</v>
-    <v>113.78</v>
+    <v>115.8</v>
+    <v>9.1957000000000004</v>
+    <v>113.69</v>
+    <v>118.31</v>
     <v>227296600</v>
     <v>TROW</v>
     <v>T. ROWE PRICE GROUP, INC. (XNAS:TROW)</v>
-    <v>1536469</v>
-    <v>1716244</v>
+    <v>500156</v>
+    <v>1824871</v>
     <v>2000</v>
   </rv>
   <rv s="2">
@@ -2132,11 +2052,9 @@
     <v>4</v>
     <v>100.72</v>
     <v>69.88</v>
-    <v>0.67330000000000001</v>
-    <v>-2.2200000000000002</v>
-    <v>-1.2219999999999999E-4</v>
-    <v>-2.6394000000000001E-2</v>
-    <v>-0.01</v>
+    <v>0.67869999999999997</v>
+    <v>1.63</v>
+    <v>1.9906999999999998E-2</v>
     <v>USD</v>
     <v>Tyson Foods, Inc. is a protein-focused food company. Its segments include Beef, Pork, Chicken, and Prepared Foods. Beef segment includes its operations related to processing live fed cattle and fabricating dressed beef carcasses into primal and sub-primal cuts and case-ready products. It also includes sales from allied products such as hides and variety meats, as well as logistics operations to move products through the supply chain. Pork segment includes operations related to processing live market hogs and fabricating pork carcasses into primal and sub-primal cuts and case-ready products. Chicken segment includes domestic operations related to raising and processing live chickens into, and purchasing raw materials for, fresh, frozen, and value-added chicken products, as well as sales from allied products. Prepared Foods includes operations related to manufacturing and marketing, frozen and refrigerated food products and logistics operations to move products through the supply chain.</v>
     <v>137000</v>
@@ -2144,25 +2062,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2200 DON TYSON PARKWAY, SPRINGDALE, AR, 72762-6999 US</v>
-    <v>84.29</v>
+    <v>83.55</v>
     <v>Food &amp; Tobacco</v>
     <v>Stock</v>
-    <v>44753.91337884219</v>
+    <v>44761.711808517968</v>
     <v>78</v>
-    <v>81.739999999999995</v>
-    <v>29607272177</v>
+    <v>82.73</v>
+    <v>30192982043</v>
     <v>TYSON FOODS, INC.</v>
     <v>TYSON FOODS, INC.</v>
-    <v>83.55</v>
-    <v>7.6231</v>
-    <v>84.11</v>
-    <v>81.89</v>
-    <v>81.8</v>
+    <v>82.754999999999995</v>
+    <v>7.4210000000000003</v>
+    <v>81.88</v>
+    <v>83.51</v>
     <v>361549300</v>
     <v>TSN</v>
     <v>TYSON FOODS, INC. (XNYS:TSN)</v>
-    <v>2510930</v>
-    <v>1762501</v>
+    <v>371370</v>
+    <v>1836329</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -2183,14 +2100,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>202.26</v>
     <v>144.4589</v>
-    <v>0.96819999999999995</v>
-    <v>-1.97</v>
-    <v>2.8649999999999999E-3</v>
-    <v>-1.2666E-2</v>
-    <v>0.44</v>
+    <v>0.97199999999999998</v>
+    <v>4.5</v>
+    <v>2.8183E-2</v>
     <v>USD</v>
     <v>Texas Instruments Incorporated designs, makes and sells semiconductors to electronics designers and manufacturers across the world. The Company operates through two segments: Analog and Embedded Processing. The Company's Analog segment product lines include Power and Signal Chain. Power includes products that help customers manage power in electronic systems. Signal Chain includes products that sense, condition and measure signals to allow information to be transferred or converted for further processing and control. The Embedded Processing segment includes microcontrollers, digital signal processors (DSPs), and applications processors. Microcontrollers are self-contained systems with a processor core, memory and peripherals that are designed to control a set of specific tasks for electronic equipment. DSPs perform mathematical computations to process or improve digital data. Applications processors are designed for specific computing activities.</v>
     <v>31000</v>
@@ -2198,25 +2113,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>12500 T I Blvd, DALLAS, TX, 75243-0592 US</v>
-    <v>155.02000000000001</v>
+    <v>164.17</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>44753.903307974222</v>
+    <v>44761.711789698435</v>
     <v>81</v>
-    <v>152.62</v>
-    <v>141602881684</v>
+    <v>160.65</v>
+    <v>151386722363</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
     <v>TEXAS INSTRUMENTS INCORPORATED</v>
-    <v>154.12</v>
-    <v>17.784300000000002</v>
-    <v>155.53</v>
-    <v>153.56</v>
-    <v>154</v>
+    <v>161.36000000000001</v>
+    <v>18.2577</v>
+    <v>159.66999999999999</v>
+    <v>164.17</v>
     <v>922133900</v>
     <v>TXN</v>
     <v>TEXAS INSTRUMENTS INCORPORATED (XNAS:TXN)</v>
-    <v>4051115</v>
-    <v>5922747</v>
+    <v>1435214</v>
+    <v>5791499</v>
     <v>1938</v>
   </rv>
   <rv s="2">
@@ -2237,14 +2151,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>233.72</v>
     <v>165.34</v>
-    <v>1.0973999999999999</v>
-    <v>-0.76</v>
-    <v>1.6249999999999999E-4</v>
-    <v>-4.0990000000000002E-3</v>
-    <v>0.03</v>
+    <v>1.0998000000000001</v>
+    <v>3.7450000000000001</v>
+    <v>2.0796000000000002E-2</v>
     <v>USD</v>
     <v>United Parcel Service, Inc. is a package delivery company and a provider of global supply chain management solutions. Its segments include U.S. Domestic Package and International Package. U.S. Domestic Package and International Package are together referred to as its global small package operations. Its global small package operations provide delivery services for express letters, documents, packages and palletized freight via air and ground services. The U.S. Domestic Package segment offers small package delivery services in the United States and offers a spectrum of United States domestic guaranteed air and ground package transportation services. The International Package segment consists of its small package operations in Europe, Asia Pacific, Canada, Latin America and Indian sub-continent, Middle East and Africa (ISMEA). Its remaining businesses include Supply Chain Solutions, which consists of its forwarding, truckload brokerage, logistics and distribution, and other businesses.</v>
     <v>534000</v>
@@ -2252,25 +2164,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>55 Glenlake Parkway Ne, ATLANTA, GA, 30328 US</v>
-    <v>186.82</v>
+    <v>183.93</v>
     <v>Freight &amp; Logistics Services</v>
     <v>Stock</v>
-    <v>44753.906627476565</v>
+    <v>44761.711811238281</v>
     <v>84</v>
-    <v>183.72</v>
-    <v>161332228096</v>
+    <v>181.25</v>
+    <v>160620108480</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
     <v>UNITED PARCEL SERVICE, INC.</v>
-    <v>183.72</v>
-    <v>15.1195</v>
-    <v>185.4</v>
-    <v>184.64</v>
-    <v>184.67</v>
+    <v>181.28</v>
+    <v>14.685600000000001</v>
+    <v>180.08</v>
+    <v>183.82499999999999</v>
     <v>873766400</v>
     <v>UPS</v>
     <v>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</v>
-    <v>2275892</v>
-    <v>3192187</v>
+    <v>1109456</v>
+    <v>3210238</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2294,37 +2205,34 @@
     <v>4</v>
     <v>56.85</v>
     <v>45.548900000000003</v>
-    <v>0.37559999999999999</v>
-    <v>-0.03</v>
-    <v>-2.9700000000000001E-4</v>
-    <v>-5.9420000000000002E-4</v>
-    <v>-1.4999999999999999E-2</v>
+    <v>0.37759999999999999</v>
+    <v>0.105</v>
+    <v>2.088E-3</v>
     <v>USD</v>
     <v>Verizon Communications Inc. is a holding company. The Company, through its subsidiaries, provides communications, information and entertainment products and services to consumers, businesses, and governmental agencies. Its reportable segments are Verizon Consumer Group and Verizon Business Group. Its Consumer segment provides wireless and wireline communications services. Its wireless services are provided across wireless networks in the United States (U.S.) under the Verizon brand. Its wireline services are provided in nine states in the Mid-Atlantic and Northeastern U.S., as well as Washington D.C., over its fiber-optic network under the Fios brand and over a traditional copper-based network. Its Business segment provides wireless and wireline communications services and products, including data, video and conferencing services, security and managed network services, local and long-distance voice services and network access to deliver various Internet of Things services and products.</v>
     <v>118400</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
-    <v>29TH FLOOR, 140 WEST STREET, NEW YORK, NY, 10007 US</v>
-    <v>50.734999999999999</v>
+    <v>1095 Avenue Of The Americas, NEW YORK, NY, 10036 US</v>
+    <v>50.56</v>
     <v>Telecommunications Services</v>
     <v>Stock</v>
-    <v>44753.919557753907</v>
+    <v>44761.711850034379</v>
     <v>87</v>
-    <v>50.26</v>
-    <v>211914036240</v>
+    <v>50.24</v>
+    <v>211599062940</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
     <v>VERIZON COMMUNICATIONS INC.</v>
-    <v>50.37</v>
-    <v>9.8218999999999994</v>
-    <v>50.49</v>
     <v>50.46</v>
-    <v>50.484999999999999</v>
+    <v>9.7811000000000003</v>
+    <v>50.28</v>
+    <v>50.384999999999998</v>
     <v>4199644000</v>
     <v>VZ</v>
     <v>VERIZON COMMUNICATIONS INC. (XNYS:VZ)</v>
-    <v>12259038</v>
-    <v>18931088</v>
+    <v>6215809</v>
+    <v>19237545</v>
     <v>1983</v>
   </rv>
   <rv s="2">
@@ -2345,14 +2253,12 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>9</v>
+    <v>4</v>
     <v>160.77000000000001</v>
     <v>117.27</v>
-    <v>0.52070000000000005</v>
-    <v>0.05</v>
-    <v>3.9859999999999999E-4</v>
-    <v>3.9870000000000004E-4</v>
-    <v>0.05</v>
+    <v>0.5202</v>
+    <v>0.89</v>
+    <v>6.9120000000000006E-3</v>
     <v>USD</v>
     <v>Walmart Inc. offers shopping opportunities in both retail stores and through e-commerce and provides access to its other service offerings. The Company offers an assortment of merchandise and services at everyday low prices (EDLP). The Company operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment is a merchandiser of consumer products, operating under the Walmart and Walmart Neighborhood Market brands, as well as walmart.com and other e-commerce brands, and it operates in the United States. The Walmart International segment includes various formats divided into two categories: retail and wholesale. These categories consist of various formats, including supercenters, supermarkets, hypermarkets, warehouse clubs (including Sam's Clubs) and cash &amp; carry, as well as e-commerce through walmart.com.mx, walmart.ca, flipkart.com and other sites. The Sam's Club segment is a membership-only warehouse club that also operates samsclub.com.</v>
     <v>2300000</v>
@@ -2360,25 +2266,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>126.33</v>
+    <v>129.95750000000001</v>
     <v>Food &amp; Drug Retailing</v>
     <v>Stock</v>
-    <v>44753.909109953122</v>
+    <v>44761.711800253906</v>
     <v>90</v>
-    <v>124.62</v>
-    <v>343877267500</v>
+    <v>128.61000000000001</v>
+    <v>355417509000</v>
     <v>WALMART INC.</v>
     <v>WALMART INC.</v>
-    <v>125.02</v>
-    <v>26.942</v>
-    <v>125.4</v>
-    <v>125.45</v>
-    <v>125.5</v>
+    <v>129.54</v>
+    <v>27.6661</v>
+    <v>128.77000000000001</v>
+    <v>129.66</v>
     <v>2741150000</v>
     <v>WMT</v>
     <v>WALMART INC. (XNYS:WMT)</v>
-    <v>3844320</v>
-    <v>7646323</v>
+    <v>1864329</v>
+    <v>6883647</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2409,9 +2314,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2432,7 +2335,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2464,9 +2366,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Exchange" t="s"/>
     <k n="Exchange abbreviation" t="s"/>
@@ -2481,7 +2381,6 @@
     <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
@@ -2515,9 +2414,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2539,7 +2436,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2553,7 +2449,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2564,16 +2460,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2600,7 +2493,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="37">
+    <a count="34">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2611,16 +2504,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Expense ratio</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2639,7 +2529,7 @@
       <v t="s">LearnMoreOnLink</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2650,16 +2540,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2726,19 +2613,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2768,29 +2649,13 @@
       <v>4</v>
       <v>7</v>
       <v>9</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="7">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>2</v>
@@ -2802,7 +2667,7 @@
       <v>0</v>
     </spb>
     <spb s="9">
-      <v>11</v>
+      <v>10</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -2830,12 +2695,16 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="11">
       <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2880,9 +2749,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2890,9 +2756,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="UniqueName" t="spb"/>
@@ -2917,9 +2780,6 @@
     <k n="Volume average" t="i"/>
     <k n="Last trade time" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2927,9 +2787,6 @@
     <k n="Exchange" t="s"/>
     <k n="Change (%)" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2964,9 +2821,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3036,46 +2890,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:W28" totalsRowShown="0">
-  <autoFilter ref="B2:W28" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:W28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}" name="Table2" displayName="Table2" ref="B2:X28" totalsRowShown="0">
+  <autoFilter ref="B2:X28" xr:uid="{F1C01B2E-5682-47E0-82BE-3868C591225B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:X28">
     <sortCondition ref="B2:B28"/>
   </sortState>
-  <tableColumns count="22">
+  <tableColumns count="23">
     <tableColumn id="19" xr3:uid="{0D4021FB-72A6-4FAE-8878-F2BC7BFA553F}" name="Ticker">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{ACC6FB0D-99F0-41D7-98EA-930F8070F2E9}" name="Price" dataDxfId="20">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="22">
+    <tableColumn id="8" xr3:uid="{1DFC5265-6BB1-4CA6-AF54-C54912736F7A}" name="52 week high" dataDxfId="19">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{44E3324D-AC9A-4412-BE2C-5B3EB362E84B}" name="52 week low" dataDxfId="18">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="20">
+    <tableColumn id="13" xr3:uid="{26B45319-24D6-4B73-816D-27E9CF6A9586}" name="P/E" dataDxfId="17">
       <calculatedColumnFormula array="1">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{0AB95A9E-6D9E-473D-93EC-53E15CDF47CE}" name="Div" dataCellStyle="Currency"/>
     <tableColumn id="18" xr3:uid="{A931B3EF-00A4-4531-894A-E140C01F03C1}" name="FCF" dataCellStyle="Currency"/>
-    <tableColumn id="23" xr3:uid="{30D7B8FE-2C2A-4708-B0E5-B46D899BC480}" name="Div-Inc" dataDxfId="19" dataCellStyle="Currency"/>
-    <tableColumn id="22" xr3:uid="{DE22146C-89DC-41BC-A945-68A0FE353621}" name="Ex-Div" dataDxfId="18" dataCellStyle="Currency"/>
-    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="13" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="12" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="HighPrice" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="LowPrice" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="MOSP" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{821399A3-CD94-45E1-9CF5-B50E506B06BD}" name="Company" dataDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="23" xr3:uid="{30D7B8FE-2C2A-4708-B0E5-B46D899BC480}" name="Div-Inc" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="22" xr3:uid="{DE22146C-89DC-41BC-A945-68A0FE353621}" name="Ex-Div" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="14" xr3:uid="{5B8FCD9D-3239-41DC-8352-9656030C071A}" name="Coupon" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{E60F25D3-1B09-4289-BCE5-2973290E70C9}" name="Yield" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{C7379CBE-F16F-44D1-990E-684A304E49C5}" name="Type" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{2419B959-E7B1-45DA-B2FF-1F755B3BF021}" name="Grow" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{D727CA33-720A-42B3-B3A6-C5879FB2D4F7}" name="Rating" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{98F24EA9-705D-4226-BE15-E51A68C4B177}" name="MML" dataDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{5B29A8D3-9995-4AD1-B3C0-CE9F5C11ACBA}" name="MMH" dataDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{AB559A3D-B90F-43B9-AE0B-3179E3A8A6B2}" name="MOS" dataDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{41C4A091-BD19-44EB-9D98-759A136CC1CE}" name="HighPrice" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{649C9F71-4410-4B33-B0F3-59E458637C2E}" name="LowPrice" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{F65154AC-D40B-4C08-8561-DF586F6BD4C6}" name="MOSP" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{821399A3-CD94-45E1-9CF5-B50E506B06BD}" name="Company" dataDxfId="4" dataCellStyle="Percent"/>
     <tableColumn id="16" xr3:uid="{273BD3BC-1AD8-4ED9-BCF9-836846D51025}" name="Industry">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{A4F71198-A356-44A1-8C97-C41CE9C0779A}" name="Market cap" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{A4F71198-A356-44A1-8C97-C41CE9C0779A}" name="Market cap" dataDxfId="3">
       <calculatedColumnFormula array="1">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3380,14 +3235,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09701121-D4EB-45B4-BB3E-1F27B86BB078}">
-  <dimension ref="B2:W31"/>
+  <dimension ref="B2:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -3398,16 +3254,16 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3445,44 +3301,47 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>1</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>47</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
       <c r="C3" s="1" cm="1">
         <f t="array" ref="C3">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>144.87</v>
+        <v>150.06010000000001</v>
       </c>
       <c r="D3" s="1" cm="1">
         <f t="array" ref="D3">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3494,7 +3353,7 @@
       </c>
       <c r="F3" s="7" cm="1">
         <f t="array" ref="F3">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>23.900700000000001</v>
+        <v>23.9056</v>
       </c>
       <c r="G3" s="8">
         <v>0.92</v>
@@ -3513,55 +3372,56 @@
       </c>
       <c r="L3" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.141644232760406E-2</v>
+        <v>3.9983979752112653E-2</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5"/>
+      <c r="O3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="R3" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R3" s="15">
+      <c r="S3" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>180.18018018018017</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>150</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>128.47965738758032</v>
       </c>
-      <c r="U3" s="13" t="e" vm="1">
+      <c r="V3" s="13" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="V3" t="str" cm="1">
-        <f t="array" ref="V3">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W3" t="str" cm="1">
+        <f t="array" ref="W3">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Computers, Phones &amp; Household Electronics</v>
       </c>
-      <c r="W3" s="16" cm="1">
-        <f t="array" ref="W3">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>2344747026600</v>
+      <c r="X3" s="16" cm="1">
+        <f t="array" ref="X3">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>2428749729318</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AMLP</v>
       </c>
       <c r="C4" s="1" cm="1">
         <f t="array" ref="C4">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>34.82</v>
+        <v>36.513300000000001</v>
       </c>
       <c r="D4" s="1" cm="1">
         <f t="array" ref="D4">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3592,51 +3452,52 @@
       </c>
       <c r="L4" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>8.3859850660539914E-2</v>
+        <v>7.9970859933229804E-2</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
         <v>0.08</v>
       </c>
-      <c r="R4" s="15" t="e">
+      <c r="S4" s="15" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="3" t="e">
+      <c r="T4" s="3" t="e">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="10">
+      <c r="U4" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>36.5</v>
       </c>
-      <c r="U4" s="13" t="e" vm="3">
+      <c r="V4" s="13" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="V4" t="e" cm="1" vm="4">
-        <f t="array" ref="V4">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W4" t="e" cm="1" vm="4">
+        <f t="array" ref="W4">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W4" s="16" cm="1">
-        <f t="array" ref="W4">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+      <c r="X4" s="16" cm="1">
+        <f t="array" ref="X4">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
         <v>5716911300.1700001</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>AMT</v>
       </c>
       <c r="C5" s="1" cm="1">
         <f t="array" ref="C5">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>257.99</v>
+        <v>254.82499999999999</v>
       </c>
       <c r="D5" s="1" cm="1">
         <f t="array" ref="D5">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3648,7 +3509,7 @@
       </c>
       <c r="F5" s="7" cm="1">
         <f t="array" ref="F5">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>44.118000000000002</v>
+        <v>43.121499999999997</v>
       </c>
       <c r="G5" s="8">
         <v>5.72</v>
@@ -3667,55 +3528,56 @@
       </c>
       <c r="L5" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2171401992325281E-2</v>
+        <v>2.2446777200039243E-2</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>0.02</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="R5" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R5" s="15">
+      <c r="S5" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>286</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>254.22222222222223</v>
       </c>
-      <c r="T5" s="10">
+      <c r="U5" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>228.79999999999998</v>
       </c>
-      <c r="U5" s="13" t="e" vm="5">
+      <c r="V5" s="13" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="V5" t="str" cm="1">
-        <f t="array" ref="V5">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W5" t="str" cm="1">
+        <f t="array" ref="W5">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="W5" s="16" cm="1">
-        <f t="array" ref="W5">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>119887282226</v>
+      <c r="X5" s="16" cm="1">
+        <f t="array" ref="X5">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>118416514955</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>BLK</v>
       </c>
       <c r="C6" s="1" cm="1">
         <f t="array" ref="C6">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>604.52</v>
+        <v>620.48500000000001</v>
       </c>
       <c r="D6" s="1" cm="1">
         <f t="array" ref="D6">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3727,7 +3589,7 @@
       </c>
       <c r="F6" s="7" cm="1">
         <f t="array" ref="F6">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>15.5656</v>
+        <v>15.7479</v>
       </c>
       <c r="G6" s="8">
         <v>19.52</v>
@@ -3746,55 +3608,56 @@
       </c>
       <c r="L6" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.2290081386885466E-2</v>
+        <v>3.1459261706568251E-2</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="R6" s="2">
         <v>0.03</v>
       </c>
-      <c r="R6" s="15">
+      <c r="S6" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>780.8</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>722.96296296296293</v>
       </c>
-      <c r="T6" s="10">
+      <c r="U6" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>650.66666666666663</v>
       </c>
-      <c r="U6" s="13" t="e" vm="6">
+      <c r="V6" s="13" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="V6" t="str" cm="1">
-        <f t="array" ref="V6">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W6" t="str" cm="1">
+        <f t="array" ref="W6">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="W6" s="16" cm="1">
-        <f t="array" ref="W6">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>91586774916</v>
+      <c r="X6" s="16" cm="1">
+        <f t="array" ref="X6">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>90206980000</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
       <c r="C7" s="1" cm="1">
         <f t="array" ref="C7">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>93.67</v>
+        <v>98.6</v>
       </c>
       <c r="D7" s="1" cm="1">
         <f t="array" ref="D7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3802,11 +3665,11 @@
       </c>
       <c r="E7" s="1" cm="1">
         <f t="array" ref="E7">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>92.01</v>
+        <v>90.23</v>
       </c>
       <c r="F7" s="7" cm="1">
         <f t="array" ref="F7">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>64.811400000000006</v>
+        <v>64.703299999999999</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -3821,53 +3684,54 @@
       </c>
       <c r="L7" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>6.4054659976513287E-2</v>
+        <v>6.0851926977687633E-2</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="2">
+      <c r="O7" s="6"/>
+      <c r="P7" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="R7" s="15">
+      <c r="S7" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>127.65957446808511</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>120</v>
       </c>
-      <c r="T7" s="10">
+      <c r="U7" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>90.909090909090907</v>
       </c>
-      <c r="U7" s="13" t="e" vm="7">
+      <c r="V7" s="13" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="V7" t="str" cm="1">
-        <f t="array" ref="V7">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W7" t="str" cm="1">
+        <f t="array" ref="W7">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="W7" s="16" cm="1">
-        <f t="array" ref="W7">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>170618406280</v>
+      <c r="X7" s="16" cm="1">
+        <f t="array" ref="X7">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>179598322400</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>GD</v>
       </c>
       <c r="C8" s="1" cm="1">
         <f t="array" ref="C8">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>219.75</v>
+        <v>213.15</v>
       </c>
       <c r="D8" s="1" cm="1">
         <f t="array" ref="D8">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -3879,7 +3743,7 @@
       </c>
       <c r="F8" s="7" cm="1">
         <f t="array" ref="F8">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>18.935600000000001</v>
+        <v>17.966200000000001</v>
       </c>
       <c r="G8" s="8">
         <v>5.04</v>
@@ -3898,67 +3762,68 @@
       </c>
       <c r="L8" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.2935153583617748E-2</v>
+        <v>2.3645320197044333E-2</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>2.4E-2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="R8" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="R8" s="15">
+      <c r="S8" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>210</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>186.66666666666666</v>
       </c>
-      <c r="T8" s="10">
+      <c r="U8" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>162.58064516129033</v>
       </c>
-      <c r="U8" s="13" t="e" vm="8">
+      <c r="V8" s="13" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="V8" t="str" cm="1">
-        <f t="array" ref="V8">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W8" t="str" cm="1">
+        <f t="array" ref="W8">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="W8" s="16" cm="1">
-        <f t="array" ref="W8">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>61025695725</v>
+      <c r="X8" s="16" cm="1">
+        <f t="array" ref="X8">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>59192842065</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>GOOGL</v>
       </c>
       <c r="C9" s="1" cm="1">
         <f t="array" ref="C9">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>2313.5300000000002</v>
+        <v>112.62</v>
       </c>
       <c r="D9" s="1" cm="1">
         <f t="array" ref="D9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
-        <v>3030.9315000000001</v>
+        <v>151.54660000000001</v>
       </c>
       <c r="E9" s="1" cm="1">
         <f t="array" ref="E9">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>2037.6936000000001</v>
+        <v>101.8847</v>
       </c>
       <c r="F9" s="7" cm="1">
         <f t="array" ref="F9">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>21.5928</v>
+        <v>19.725100000000001</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -3973,55 +3838,56 @@
       </c>
       <c r="L9" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.3223991043989052E-2</v>
+        <v>0.88794175102113293</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="2">
+      <c r="P9" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="R9" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R9" s="15">
+      <c r="S9" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>3030.30303030303</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>2500</v>
       </c>
-      <c r="T9" s="10">
+      <c r="U9" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>2141.3276231263385</v>
       </c>
-      <c r="U9" s="13" t="e" vm="9">
+      <c r="V9" s="13" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="V9" t="str" cm="1">
-        <f t="array" ref="V9">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W9" t="str" cm="1">
+        <f t="array" ref="W9">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="W9" s="16" cm="1">
-        <f t="array" ref="W9">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>1576993000000</v>
+      <c r="X9" s="16" cm="1">
+        <f t="array" ref="X9">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>1441440000000</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HD</v>
       </c>
       <c r="C10" s="1" cm="1">
         <f t="array" ref="C10">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>286.27</v>
+        <v>298.04000000000002</v>
       </c>
       <c r="D10" s="1" cm="1">
         <f t="array" ref="D10">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4033,7 +3899,7 @@
       </c>
       <c r="F10" s="7" cm="1">
         <f t="array" ref="F10">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>18.184799999999999</v>
+        <v>18.602499999999999</v>
       </c>
       <c r="G10" s="8">
         <v>7.6</v>
@@ -4052,55 +3918,56 @@
       </c>
       <c r="L10" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6548363433122578E-2</v>
+        <v>2.5499932894913431E-2</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="2">
+      <c r="P10" s="2">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>2.3E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="R10" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="R10" s="15">
+      <c r="S10" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>361.90476190476187</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>330.43478260869563</v>
       </c>
-      <c r="T10" s="10">
+      <c r="U10" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>281.48148148148147</v>
       </c>
-      <c r="U10" s="13" t="e" vm="10">
+      <c r="V10" s="13" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="V10" t="str" cm="1">
-        <f t="array" ref="V10">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W10" t="str" cm="1">
+        <f t="array" ref="W10">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="W10" s="16" cm="1">
-        <f t="array" ref="W10">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>294215423850</v>
+      <c r="X10" s="16" cm="1">
+        <f t="array" ref="X10">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>306312100200</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HRL</v>
       </c>
       <c r="C11" s="1" cm="1">
         <f t="array" ref="C11">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>47.8</v>
+        <v>47.67</v>
       </c>
       <c r="D11" s="1" cm="1">
         <f t="array" ref="D11">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4112,7 +3979,7 @@
       </c>
       <c r="F11" s="7" cm="1">
         <f t="array" ref="F11">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>27.1662</v>
+        <v>27.063300000000002</v>
       </c>
       <c r="G11" s="8">
         <v>1.04</v>
@@ -4131,55 +3998,56 @@
       </c>
       <c r="L11" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.175732217573222E-2</v>
+        <v>2.1816656177889658E-2</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>0.02</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="R11" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R11" s="15">
+      <c r="S11" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>52</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>46.222222222222229</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>41.6</v>
       </c>
-      <c r="U11" s="13" t="e" vm="11">
+      <c r="V11" s="13" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="V11" t="str" cm="1">
-        <f t="array" ref="V11">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W11" t="str" cm="1">
+        <f t="array" ref="W11">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="W11" s="16" cm="1">
-        <f t="array" ref="W11">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>26101457680</v>
+      <c r="X11" s="16" cm="1">
+        <f t="array" ref="X11">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>26030470452</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>HSY</v>
       </c>
       <c r="C12" s="1" cm="1">
         <f t="array" ref="C12">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>220.5</v>
+        <v>215.78</v>
       </c>
       <c r="D12" s="1" cm="1">
         <f t="array" ref="D12">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4191,7 +4059,7 @@
       </c>
       <c r="F12" s="7" cm="1">
         <f t="array" ref="F12">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>28.259899999999998</v>
+        <v>27.651800000000001</v>
       </c>
       <c r="G12" s="8">
         <v>3.6</v>
@@ -4210,59 +4078,60 @@
       </c>
       <c r="L12" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>1.6326530612244899E-2</v>
+        <v>1.668365928260265E-2</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P12" s="2">
         <v>0.02</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="R12" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R12" s="15">
+      <c r="S12" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>180</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>160</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>144</v>
       </c>
-      <c r="U12" s="13" t="e" vm="12">
+      <c r="V12" s="13" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="V12" t="str" cm="1">
-        <f t="array" ref="V12">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W12" t="str" cm="1">
+        <f t="array" ref="W12">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="W12" s="16" cm="1">
-        <f t="array" ref="W12">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>45335814300</v>
+      <c r="X12" s="16" cm="1">
+        <f t="array" ref="X12">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>44365360588</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>INTC</v>
       </c>
       <c r="C13" s="1" cm="1">
         <f t="array" ref="C13">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>37.200000000000003</v>
+        <v>40.445</v>
       </c>
       <c r="D13" s="1" cm="1">
         <f t="array" ref="D13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
-        <v>57.454999999999998</v>
+        <v>56.54</v>
       </c>
       <c r="E13" s="1" cm="1">
         <f t="array" ref="E13">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
@@ -4270,7 +4139,7 @@
       </c>
       <c r="F13" s="7" cm="1">
         <f t="array" ref="F13">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>6.3185000000000002</v>
+        <v>6.4382000000000001</v>
       </c>
       <c r="G13" s="8">
         <v>1.46</v>
@@ -4289,55 +4158,56 @@
       </c>
       <c r="L13" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.9247311827956988E-2</v>
+        <v>3.6098405241686241E-2</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="R13" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R13" s="15">
+      <c r="S13" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>50.34482758620689</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>47.096774193548384</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>41.714285714285708</v>
       </c>
-      <c r="U13" s="13" t="e" vm="13">
+      <c r="V13" s="13" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="V13" t="str" cm="1">
-        <f t="array" ref="V13">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W13" t="str" cm="1">
+        <f t="array" ref="W13">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Semiconductors &amp; Semiconductor Equipment</v>
       </c>
-      <c r="W13" s="16" cm="1">
-        <f t="array" ref="W13">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>152110800000</v>
+      <c r="X13" s="16" cm="1">
+        <f t="array" ref="X13">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>165379605000</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>JPM</v>
       </c>
       <c r="C14" s="1" cm="1">
         <f t="array" ref="C14">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>112.86</v>
+        <v>114.17</v>
       </c>
       <c r="D14" s="1" cm="1">
         <f t="array" ref="D14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4345,11 +4215,11 @@
       </c>
       <c r="E14" s="1" cm="1">
         <f t="array" ref="E14">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>109.3</v>
+        <v>106.06</v>
       </c>
       <c r="F14" s="7" cm="1">
         <f t="array" ref="F14">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>8.4863999999999997</v>
+        <v>8.9725999999999999</v>
       </c>
       <c r="G14" s="8">
         <v>4</v>
@@ -4366,53 +4236,54 @@
       </c>
       <c r="L14" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.5442140705298601E-2</v>
+        <v>3.5035473416834544E-2</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="2">
+      <c r="O14" s="6"/>
+      <c r="P14" s="2">
         <v>0.03</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
         <v>0.04</v>
       </c>
-      <c r="R14" s="15">
+      <c r="S14" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>133.33333333333334</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>121.2121212121212</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>100</v>
       </c>
-      <c r="U14" s="13" t="e" vm="14">
+      <c r="V14" s="13" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="V14" t="str" cm="1">
-        <f t="array" ref="V14">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W14" t="str" cm="1">
+        <f t="array" ref="W14">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Banking Services</v>
       </c>
-      <c r="W14" s="16" cm="1">
-        <f t="array" ref="W14">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>331475575860</v>
+      <c r="X14" s="16" cm="1">
+        <f t="array" ref="X14">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>335323112670</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>KO</v>
       </c>
       <c r="C15" s="1" cm="1">
         <f t="array" ref="C15">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>62.97</v>
+        <v>62.439799999999998</v>
       </c>
       <c r="D15" s="1" cm="1">
         <f t="array" ref="D15">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4424,7 +4295,7 @@
       </c>
       <c r="F15" s="7" cm="1">
         <f t="array" ref="F15">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>26.630199999999999</v>
+        <v>26.001799999999999</v>
       </c>
       <c r="G15" s="8">
         <v>1.76</v>
@@ -4443,55 +4314,56 @@
       </c>
       <c r="L15" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.7949817373352389E-2</v>
+        <v>2.8187149862747798E-2</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>0.03</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="R15" s="2">
         <v>0.04</v>
       </c>
-      <c r="R15" s="15">
+      <c r="S15" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>58.666666666666671</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>53.333333333333329</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>44</v>
       </c>
-      <c r="U15" s="13" t="e" vm="15">
+      <c r="V15" s="13" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="V15" t="str" cm="1">
-        <f t="array" ref="V15">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W15" t="str" cm="1">
+        <f t="array" ref="W15">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Beverages</v>
       </c>
-      <c r="W15" s="16" cm="1">
-        <f t="array" ref="W15">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>272976776130</v>
+      <c r="X15" s="16" cm="1">
+        <f t="array" ref="X15">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>270678343754</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>LMT</v>
       </c>
       <c r="C16" s="1" cm="1">
         <f t="array" ref="C16">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>419.07</v>
+        <v>387.17</v>
       </c>
       <c r="D16" s="1" cm="1">
         <f t="array" ref="D16">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4503,7 +4375,7 @@
       </c>
       <c r="F16" s="7" cm="1">
         <f t="array" ref="F16">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>18.561299999999999</v>
+        <v>17.100999999999999</v>
       </c>
       <c r="G16" s="8">
         <v>11.2</v>
@@ -4522,55 +4394,56 @@
       </c>
       <c r="L16" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6725845324170185E-2</v>
+        <v>2.8927861146266495E-2</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="2">
+      <c r="P16" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R16" s="15">
+      <c r="S16" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>414.81481481481478</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>361.29032258064512</v>
       </c>
-      <c r="T16" s="10">
+      <c r="U16" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>319.99999999999994</v>
       </c>
-      <c r="U16" s="13" t="e" vm="16">
+      <c r="V16" s="13" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="V16" t="str" cm="1">
-        <f t="array" ref="V16">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W16" t="str" cm="1">
+        <f t="array" ref="W16">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="W16" s="16" cm="1">
-        <f t="array" ref="W16">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>111517460490</v>
+      <c r="X16" s="16" cm="1">
+        <f t="array" ref="X16">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>103028647190</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>LOW</v>
       </c>
       <c r="C17" s="1" cm="1">
         <f t="array" ref="C17">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>180.06</v>
+        <v>188.76</v>
       </c>
       <c r="D17" s="1" cm="1">
         <f t="array" ref="D17">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4582,7 +4455,7 @@
       </c>
       <c r="F17" s="7" cm="1">
         <f t="array" ref="F17">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>14.805300000000001</v>
+        <v>15.0588</v>
       </c>
       <c r="G17" s="8">
         <v>4.2</v>
@@ -4601,55 +4474,56 @@
       </c>
       <c r="L17" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.332555814728424E-2</v>
+        <v>2.2250476795931343E-2</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q17" s="2">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
         <v>0.02</v>
       </c>
-      <c r="R17" s="15">
+      <c r="S17" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>280</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>233.33333333333337</v>
       </c>
-      <c r="T17" s="10">
+      <c r="U17" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>210</v>
       </c>
-      <c r="U17" s="13" t="e" vm="17">
+      <c r="V17" s="13" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="V17" t="str" cm="1">
-        <f t="array" ref="V17">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W17" t="str" cm="1">
+        <f t="array" ref="W17">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="W17" s="16" cm="1">
-        <f t="array" ref="W17">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>115081531728</v>
+      <c r="X17" s="16" cm="1">
+        <f t="array" ref="X17">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>118743700000</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MKC</v>
       </c>
       <c r="C18" s="1" cm="1">
         <f t="array" ref="C18">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>82.33</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="D18" s="1" cm="1">
         <f t="array" ref="D18">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4661,7 +4535,7 @@
       </c>
       <c r="F18" s="7" cm="1">
         <f t="array" ref="F18">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>32.410600000000002</v>
+        <v>31.9682</v>
       </c>
       <c r="G18" s="8">
         <v>1.48</v>
@@ -4680,55 +4554,56 @@
       </c>
       <c r="L18" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>1.7976436292967326E-2</v>
+        <v>1.8137254901960786E-2</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="2">
+      <c r="P18" s="2">
         <v>0.02</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R18" s="15">
+      <c r="S18" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>74</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>67.27272727272728</v>
       </c>
-      <c r="T18" s="10">
+      <c r="U18" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>59.199999999999996</v>
       </c>
-      <c r="U18" s="13" t="e" vm="18">
+      <c r="V18" s="13" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="V18" t="str" cm="1">
-        <f t="array" ref="V18">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W18" t="str" cm="1">
+        <f t="array" ref="W18">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="W18" s="16" cm="1">
-        <f t="array" ref="W18">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>22028380000</v>
+      <c r="X18" s="16" cm="1">
+        <f t="array" ref="X18">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>21730560000</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
       <c r="C19" s="1" cm="1">
         <f t="array" ref="C19">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>264.51</v>
+        <v>257.88729999999998</v>
       </c>
       <c r="D19" s="1" cm="1">
         <f t="array" ref="D19">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4740,7 +4615,7 @@
       </c>
       <c r="F19" s="7" cm="1">
         <f t="array" ref="F19">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>27.9253</v>
+        <v>26.526199999999999</v>
       </c>
       <c r="G19" s="8">
         <v>2.48</v>
@@ -4759,55 +4634,56 @@
       </c>
       <c r="L19" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.0244603228611396E-2</v>
+        <v>3.1021302716341598E-2</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>0.04</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="R19" s="15">
+      <c r="S19" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>240.24024024024021</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>200</v>
       </c>
-      <c r="T19" s="10">
+      <c r="U19" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>171.30620985010708</v>
       </c>
-      <c r="U19" s="13" t="e" vm="19">
+      <c r="V19" s="13" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="V19" t="str" cm="1">
-        <f t="array" ref="V19">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W19" t="str" cm="1">
+        <f t="array" ref="W19">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="W19" s="16" cm="1">
-        <f t="array" ref="W19">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>1978279018830</v>
+      <c r="X19" s="16" cm="1">
+        <f t="array" ref="X19">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>1928747626980</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>PEP</v>
       </c>
       <c r="C20" s="1" cm="1">
         <f t="array" ref="C20">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>170.47</v>
+        <v>169.83</v>
       </c>
       <c r="D20" s="1" cm="1">
         <f t="array" ref="D20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4815,11 +4691,11 @@
       </c>
       <c r="E20" s="1" cm="1">
         <f t="array" ref="E20">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>148.78</v>
+        <v>149.47999999999999</v>
       </c>
       <c r="F20" s="7" cm="1">
         <f t="array" ref="F20">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>23.0748</v>
+        <v>24.8216</v>
       </c>
       <c r="G20" s="8">
         <v>4.5999999999999996</v>
@@ -4838,55 +4714,56 @@
       </c>
       <c r="L20" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.6984220097377835E-2</v>
+        <v>2.708590943885061E-2</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R20" s="15">
+      <c r="S20" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>164.28571428571428</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="T20" s="10">
+      <c r="U20" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>139.39393939393938</v>
       </c>
-      <c r="U20" s="13" t="e" vm="20">
+      <c r="V20" s="13" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="V20" t="str" cm="1">
-        <f t="array" ref="V20">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W20" t="str" cm="1">
+        <f t="array" ref="W20">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Beverages</v>
       </c>
-      <c r="W20" s="16" cm="1">
-        <f t="array" ref="W20">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>235706141480</v>
+      <c r="X20" s="16" cm="1">
+        <f t="array" ref="X20">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>234379835550</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
       <c r="C21" s="1" cm="1">
         <f t="array" ref="C21">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>146.04</v>
+        <v>143.99</v>
       </c>
       <c r="D21" s="1" cm="1">
         <f t="array" ref="D21">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4898,7 +4775,7 @@
       </c>
       <c r="F21" s="7" cm="1">
         <f t="array" ref="F21">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>25.343</v>
+        <v>25.0442</v>
       </c>
       <c r="G21" s="8">
         <v>3.65</v>
@@ -4917,55 +4794,56 @@
       </c>
       <c r="L21" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.4993152560942207E-2</v>
+        <v>2.5348982568233903E-2</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="6"/>
+      <c r="O21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="2">
+      <c r="P21" s="2">
         <v>0.03</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>3.3</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R21" s="15">
+      <c r="S21" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>121.66666666666667</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>1.1060606060606062</v>
       </c>
-      <c r="T21" s="10">
+      <c r="U21" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>104.28571428571428</v>
       </c>
-      <c r="U21" s="13" t="e" vm="21">
+      <c r="V21" s="13" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="V21" t="str" cm="1">
-        <f t="array" ref="V21">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W21" t="str" cm="1">
+        <f t="array" ref="W21">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Personal &amp; Household Products &amp; Services</v>
       </c>
-      <c r="W21" s="16" cm="1">
-        <f t="array" ref="W21">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>350393333880</v>
+      <c r="X21" s="16" cm="1">
+        <f t="array" ref="X21">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>345474775030</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>SPG</v>
       </c>
       <c r="C22" s="1" cm="1">
         <f t="array" ref="C22">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>97.13</v>
+        <v>101.42</v>
       </c>
       <c r="D22" s="1" cm="1">
         <f t="array" ref="D22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -4973,11 +4851,11 @@
       </c>
       <c r="E22" s="1" cm="1">
         <f t="array" ref="E22">_FV(_xlfn.SINGLE(Table2[Company]),"52 week low",TRUE)</f>
-        <v>93.2</v>
+        <v>93.06</v>
       </c>
       <c r="F22" s="7" cm="1">
         <f t="array" ref="F22">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>14.4108</v>
+        <v>14.551</v>
       </c>
       <c r="G22" s="8">
         <v>6.8</v>
@@ -4996,55 +4874,56 @@
       </c>
       <c r="L22" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>7.0009265932255746E-2</v>
+        <v>6.7047919542496545E-2</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="R22" s="15">
+      <c r="S22" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>151.11111111111111</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>123.63636363636363</v>
       </c>
-      <c r="T22" s="10">
+      <c r="U22" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>104.61538461538461</v>
       </c>
-      <c r="U22" s="13" t="e" vm="22">
+      <c r="V22" s="13" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="V22" t="str" cm="1">
-        <f t="array" ref="V22">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W22" t="str" cm="1">
+        <f t="array" ref="W22">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Residential &amp; Commercial REIT</v>
       </c>
-      <c r="W22" s="16" cm="1">
-        <f t="array" ref="W22">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>31920667218</v>
+      <c r="X22" s="16" cm="1">
+        <f t="array" ref="X22">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>33330526812</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TROW</v>
       </c>
       <c r="C23" s="1" cm="1">
         <f t="array" ref="C23">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>113.1</v>
+        <v>118.31</v>
       </c>
       <c r="D23" s="1" cm="1">
         <f t="array" ref="D23">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5056,7 +4935,7 @@
       </c>
       <c r="F23" s="7" cm="1">
         <f t="array" ref="F23">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>9.3793000000000006</v>
+        <v>9.1957000000000004</v>
       </c>
       <c r="G23" s="8">
         <v>4.8</v>
@@ -5075,55 +4954,56 @@
       </c>
       <c r="L23" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>4.2440318302387266E-2</v>
+        <v>4.0571380272166342E-2</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5"/>
+      <c r="O23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="R23" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="R23" s="15">
+      <c r="S23" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>177.77777777777777</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>160</v>
       </c>
-      <c r="T23" s="10">
+      <c r="U23" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>145.45454545454544</v>
       </c>
-      <c r="U23" s="13" t="e" vm="23">
+      <c r="V23" s="13" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="V23" t="str" cm="1">
-        <f t="array" ref="V23">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W23" t="str" cm="1">
+        <f t="array" ref="W23">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="W23" s="16" cm="1">
-        <f t="array" ref="W23">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>25707245460</v>
+      <c r="X23" s="16" cm="1">
+        <f t="array" ref="X23">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>26891460746</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TSN</v>
       </c>
       <c r="C24" s="1" cm="1">
         <f t="array" ref="C24">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>81.89</v>
+        <v>83.51</v>
       </c>
       <c r="D24" s="1" cm="1">
         <f t="array" ref="D24">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5135,7 +5015,7 @@
       </c>
       <c r="F24" s="7" cm="1">
         <f t="array" ref="F24">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>7.6231</v>
+        <v>7.4210000000000003</v>
       </c>
       <c r="G24" s="8">
         <v>1.78</v>
@@ -5154,55 +5034,56 @@
       </c>
       <c r="L24" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.3446086213212845E-2</v>
+        <v>2.2991258531912345E-2</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="2">
+      <c r="P24" s="2">
         <v>0.02</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="R24" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R24" s="15">
+      <c r="S24" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>96</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>85.333333333333329</v>
       </c>
-      <c r="T24" s="10">
+      <c r="U24" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>76.8</v>
       </c>
-      <c r="U24" s="13" t="e" vm="24">
+      <c r="V24" s="13" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="V24" t="str" cm="1">
-        <f t="array" ref="V24">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W24" t="str" cm="1">
+        <f t="array" ref="W24">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Food &amp; Tobacco</v>
       </c>
-      <c r="W24" s="16" cm="1">
-        <f t="array" ref="W24">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>29607272177</v>
+      <c r="X24" s="16" cm="1">
+        <f t="array" ref="X24">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>30192982043</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>TXN</v>
       </c>
       <c r="C25" s="1" cm="1">
         <f t="array" ref="C25">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>153.56</v>
+        <v>164.17</v>
       </c>
       <c r="D25" s="1" cm="1">
         <f t="array" ref="D25">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5214,7 +5095,7 @@
       </c>
       <c r="F25" s="7" cm="1">
         <f t="array" ref="F25">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>17.784300000000002</v>
+        <v>18.2577</v>
       </c>
       <c r="G25" s="8">
         <v>4.5999999999999996</v>
@@ -5233,55 +5114,56 @@
       </c>
       <c r="L25" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>2.9955717634800726E-2</v>
+        <v>2.8019735639885485E-2</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="2">
+      <c r="P25" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="R25" s="2">
         <v>0.03</v>
       </c>
-      <c r="R25" s="15">
+      <c r="S25" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>183.99999999999997</v>
       </c>
-      <c r="S25" s="3">
+      <c r="T25" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>170.37037037037035</v>
       </c>
-      <c r="T25" s="10">
+      <c r="U25" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>153.33333333333331</v>
       </c>
-      <c r="U25" s="13" t="e" vm="25">
+      <c r="V25" s="13" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="V25" t="str" cm="1">
-        <f t="array" ref="V25">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W25" t="str" cm="1">
+        <f t="array" ref="W25">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Semiconductors &amp; Semiconductor Equipment</v>
       </c>
-      <c r="W25" s="16" cm="1">
-        <f t="array" ref="W25">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>141602881684</v>
+      <c r="X25" s="16" cm="1">
+        <f t="array" ref="X25">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>151386722363</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>UPS</v>
       </c>
       <c r="C26" s="1" cm="1">
         <f t="array" ref="C26">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>184.64</v>
+        <v>183.82499999999999</v>
       </c>
       <c r="D26" s="1" cm="1">
         <f t="array" ref="D26">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5293,7 +5175,7 @@
       </c>
       <c r="F26" s="7" cm="1">
         <f t="array" ref="F26">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>15.1195</v>
+        <v>14.685600000000001</v>
       </c>
       <c r="G26" s="8">
         <v>6.08</v>
@@ -5312,55 +5194,56 @@
       </c>
       <c r="L26" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>3.292894280762565E-2</v>
+        <v>3.30749354005168E-2</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>2.7E-2</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R26" s="15">
+      <c r="S26" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>225.18518518518519</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>202.66666666666669</v>
       </c>
-      <c r="T26" s="10">
+      <c r="U26" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>173.71428571428569</v>
       </c>
-      <c r="U26" s="13" t="e" vm="26">
+      <c r="V26" s="13" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="V26" t="str" cm="1">
-        <f t="array" ref="V26">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W26" t="str" cm="1">
+        <f t="array" ref="W26">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Freight &amp; Logistics Services</v>
       </c>
-      <c r="W26" s="16" cm="1">
-        <f t="array" ref="W26">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>161332228096</v>
+      <c r="X26" s="16" cm="1">
+        <f t="array" ref="X26">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>160620108480</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
       <c r="C27" s="1" cm="1">
         <f t="array" ref="C27">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>50.46</v>
+        <v>50.384999999999998</v>
       </c>
       <c r="D27" s="1" cm="1">
         <f t="array" ref="D27">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5372,7 +5255,7 @@
       </c>
       <c r="F27" s="7" cm="1">
         <f t="array" ref="F27">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>9.8218999999999994</v>
+        <v>9.7811000000000003</v>
       </c>
       <c r="G27" s="8">
         <v>2.56</v>
@@ -5391,55 +5274,56 @@
       </c>
       <c r="L27" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>5.0733254062623863E-2</v>
+        <v>5.0808772452118692E-2</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="5"/>
+      <c r="O27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="2">
+      <c r="P27" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="2">
         <v>0.05</v>
       </c>
-      <c r="R27" s="15">
+      <c r="S27" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>56.888888888888893</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>53.89473684210526</v>
       </c>
-      <c r="T27" s="10">
+      <c r="U27" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>51.199999999999996</v>
       </c>
-      <c r="U27" s="13" t="e" vm="27">
+      <c r="V27" s="13" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="V27" t="str" cm="1">
-        <f t="array" ref="V27">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W27" t="str" cm="1">
+        <f t="array" ref="W27">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="W27" s="16" cm="1">
-        <f t="array" ref="W27">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>211914036240</v>
+      <c r="X27" s="16" cm="1">
+        <f t="array" ref="X27">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>211599062940</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_FV(Table2[[#This Row],[Company]],"Ticker symbol",TRUE)</f>
         <v>WMT</v>
       </c>
       <c r="C28" s="1" cm="1">
         <f t="array" ref="C28">_FV(_xlfn.SINGLE(Table2[Company]),"Price")</f>
-        <v>125.45</v>
+        <v>129.66</v>
       </c>
       <c r="D28" s="1" cm="1">
         <f t="array" ref="D28">_FV(_xlfn.SINGLE(Table2[Company]),"52 week high",TRUE)</f>
@@ -5451,7 +5335,7 @@
       </c>
       <c r="F28" s="7" cm="1">
         <f t="array" ref="F28">_FV(_xlfn.SINGLE(Table2[Company]),"P/E",TRUE)</f>
-        <v>26.942</v>
+        <v>27.6661</v>
       </c>
       <c r="G28" s="8">
         <v>2.2400000000000002</v>
@@ -5470,48 +5354,49 @@
       </c>
       <c r="L28" s="2">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[Price]]</f>
-        <v>1.7855719410123556E-2</v>
+        <v>1.7275952491130651E-2</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="2">
+      <c r="P28" s="2">
         <v>0.02</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="2">
         <v>0.03</v>
       </c>
-      <c r="R28" s="15">
+      <c r="S28" s="15">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MML]]</f>
         <v>112.00000000000001</v>
       </c>
-      <c r="S28" s="3">
+      <c r="T28" s="3">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MMH]]</f>
         <v>89.600000000000009</v>
       </c>
-      <c r="T28" s="10">
+      <c r="U28" s="10">
         <f>Table2[[#This Row],[Coupon]]/Table2[[#This Row],[MOS]]</f>
         <v>74.666666666666671</v>
       </c>
-      <c r="U28" s="13" t="e" vm="28">
+      <c r="V28" s="13" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="V28" t="str" cm="1">
-        <f t="array" ref="V28">_FV(Table2[[#This Row],[Company]],"Industry")</f>
+      <c r="W28" t="str" cm="1">
+        <f t="array" ref="W28">_FV(Table2[[#This Row],[Company]],"Industry")</f>
         <v>Food &amp; Drug Retailing</v>
       </c>
-      <c r="W28" s="16" cm="1">
-        <f t="array" ref="W28">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
-        <v>343877267500</v>
+      <c r="X28" s="16" cm="1">
+        <f t="array" ref="X28">_FV(Table2[[#This Row],[Company]],"Market cap",TRUE)</f>
+        <v>355417509000</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>46</v>
       </c>
@@ -5519,14 +5404,14 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:C28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>T3</formula>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>U3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>T3</formula>
-      <formula>R3</formula>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>U3</formula>
+      <formula>S3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
